--- a/Project2/TestData.xlsx
+++ b/Project2/TestData.xlsx
@@ -599,9 +599,7 @@
       <c r="Z2" t="n">
         <v>1.48</v>
       </c>
-      <c r="AA2" t="n">
-        <v>8.66547908232121</v>
-      </c>
+      <c r="AA2"/>
     </row>
     <row r="3">
       <c r="A3" t="s">
@@ -683,7 +681,7 @@
         <v>3.04</v>
       </c>
       <c r="AA3" t="n">
-        <v>8.5112</v>
+        <v>8.49675691783226</v>
       </c>
     </row>
     <row r="4">
@@ -766,7 +764,7 @@
         <v>1.46</v>
       </c>
       <c r="AA4" t="n">
-        <v>8.66547908232121</v>
+        <v>8.56951625909576</v>
       </c>
     </row>
     <row r="5">
@@ -842,9 +840,7 @@
       <c r="Z5" t="n">
         <v>1.48</v>
       </c>
-      <c r="AA5" t="n">
-        <v>8.66547908232121</v>
-      </c>
+      <c r="AA5"/>
     </row>
     <row r="6">
       <c r="A6" t="s">
@@ -926,7 +922,7 @@
         <v>1.46</v>
       </c>
       <c r="AA6" t="n">
-        <v>8.66547908232121</v>
+        <v>8.59978411962992</v>
       </c>
     </row>
     <row r="7">
@@ -1006,9 +1002,7 @@
       <c r="Z7" t="n">
         <v>1.44</v>
       </c>
-      <c r="AA7" t="n">
-        <v>8.66547908232121</v>
-      </c>
+      <c r="AA7"/>
     </row>
     <row r="8">
       <c r="A8" t="s">
@@ -1090,7 +1084,7 @@
         <v>3.02</v>
       </c>
       <c r="AA8" t="n">
-        <v>8.5112</v>
+        <v>8.46981155603752</v>
       </c>
     </row>
     <row r="9">
@@ -1166,9 +1160,7 @@
       <c r="Z9" t="n">
         <v>3</v>
       </c>
-      <c r="AA9" t="n">
-        <v>8.66547908232121</v>
-      </c>
+      <c r="AA9"/>
     </row>
     <row r="10">
       <c r="A10" t="s">
@@ -1250,7 +1242,7 @@
         <v>3.1</v>
       </c>
       <c r="AA10" t="n">
-        <v>8.5112</v>
+        <v>8.5760933889697</v>
       </c>
     </row>
     <row r="11">
@@ -1330,9 +1322,7 @@
       <c r="Z11" t="n">
         <v>3.12</v>
       </c>
-      <c r="AA11" t="n">
-        <v>8.66547908232121</v>
-      </c>
+      <c r="AA11"/>
     </row>
     <row r="12">
       <c r="A12" t="s">
@@ -1409,9 +1399,7 @@
       <c r="Z12" t="n">
         <v>1.38</v>
       </c>
-      <c r="AA12" t="n">
-        <v>8.66547908232121</v>
-      </c>
+      <c r="AA12"/>
     </row>
     <row r="13">
       <c r="A13" t="s">
@@ -1493,7 +1481,7 @@
         <v>1.42</v>
       </c>
       <c r="AA13" t="n">
-        <v>8.66547908232121</v>
+        <v>8.5281865733287</v>
       </c>
     </row>
     <row r="14">
@@ -1576,7 +1564,7 @@
         <v>1.46</v>
       </c>
       <c r="AA14" t="n">
-        <v>8.66547908232121</v>
+        <v>8.59110149678337</v>
       </c>
     </row>
     <row r="15">
@@ -1659,7 +1647,7 @@
         <v>1.44</v>
       </c>
       <c r="AA15" t="n">
-        <v>8.66547908232121</v>
+        <v>8.67465314367232</v>
       </c>
     </row>
     <row r="16">
@@ -1742,7 +1730,7 @@
         <v>1.6</v>
       </c>
       <c r="AA16" t="n">
-        <v>8.5112</v>
+        <v>8.34455076819022</v>
       </c>
     </row>
     <row r="17">
@@ -1820,9 +1808,7 @@
       <c r="Z17" t="n">
         <v>1.6</v>
       </c>
-      <c r="AA17" t="n">
-        <v>8.66547908232121</v>
-      </c>
+      <c r="AA17"/>
     </row>
     <row r="18">
       <c r="A18" t="s">
@@ -1904,7 +1890,7 @@
         <v>1.4</v>
       </c>
       <c r="AA18" t="n">
-        <v>8.66547908232121</v>
+        <v>8.61767550373145</v>
       </c>
     </row>
     <row r="19">
@@ -1987,7 +1973,7 @@
         <v>1.44</v>
       </c>
       <c r="AA19" t="n">
-        <v>8.66547908232121</v>
+        <v>8.61491970470748</v>
       </c>
     </row>
     <row r="20">
@@ -2070,7 +2056,7 @@
         <v>3.16</v>
       </c>
       <c r="AA20" t="n">
-        <v>8.66547908232121</v>
+        <v>8.64886178827138</v>
       </c>
     </row>
     <row r="21">
@@ -2153,7 +2139,7 @@
         <v>1.46</v>
       </c>
       <c r="AA21" t="n">
-        <v>8.66547908232121</v>
+        <v>8.64858591706506</v>
       </c>
     </row>
     <row r="22">
@@ -2236,7 +2222,7 @@
         <v>1.46</v>
       </c>
       <c r="AA22" t="n">
-        <v>8.66547908232121</v>
+        <v>8.63215186127351</v>
       </c>
     </row>
     <row r="23">
@@ -2316,9 +2302,7 @@
       <c r="Z23" t="n">
         <v>1.36</v>
       </c>
-      <c r="AA23" t="n">
-        <v>8.66547908232121</v>
-      </c>
+      <c r="AA23"/>
     </row>
     <row r="24">
       <c r="A24" t="s">
@@ -2395,9 +2379,7 @@
       <c r="Z24" t="n">
         <v>3.18</v>
       </c>
-      <c r="AA24" t="n">
-        <v>8.5112</v>
-      </c>
+      <c r="AA24"/>
     </row>
     <row r="25">
       <c r="A25" t="s">
@@ -2479,7 +2461,7 @@
         <v>1.4</v>
       </c>
       <c r="AA25" t="n">
-        <v>8.66547908232121</v>
+        <v>8.65317633501332</v>
       </c>
     </row>
     <row r="26">
@@ -2562,7 +2544,7 @@
         <v>1.4</v>
       </c>
       <c r="AA26" t="n">
-        <v>8.66547908232121</v>
+        <v>8.69522712553604</v>
       </c>
     </row>
     <row r="27">
@@ -2645,7 +2627,7 @@
         <v>1.4</v>
       </c>
       <c r="AA27" t="n">
-        <v>8.5112</v>
+        <v>8.42264429263807</v>
       </c>
     </row>
     <row r="28">
@@ -2728,7 +2710,7 @@
         <v>1.52</v>
       </c>
       <c r="AA28" t="n">
-        <v>8.5112</v>
+        <v>8.45755396200021</v>
       </c>
     </row>
     <row r="29">
@@ -2811,7 +2793,7 @@
         <v>3.28</v>
       </c>
       <c r="AA29" t="n">
-        <v>8.66547908232121</v>
+        <v>8.63938762426326</v>
       </c>
     </row>
     <row r="30">
@@ -2891,9 +2873,7 @@
       <c r="Z30" t="n">
         <v>3.24</v>
       </c>
-      <c r="AA30" t="n">
-        <v>8.66547908232121</v>
-      </c>
+      <c r="AA30"/>
     </row>
     <row r="31">
       <c r="A31" t="s">
@@ -2975,7 +2955,7 @@
         <v>3.26</v>
       </c>
       <c r="AA31" t="n">
-        <v>8.66547908232121</v>
+        <v>8.69315098092205</v>
       </c>
     </row>
     <row r="32">
@@ -3058,7 +3038,7 @@
         <v>3.28</v>
       </c>
       <c r="AA32" t="n">
-        <v>8.66547908232121</v>
+        <v>8.65776109336521</v>
       </c>
     </row>
     <row r="33">
@@ -3138,9 +3118,7 @@
       <c r="Z33" t="n">
         <v>3.28</v>
       </c>
-      <c r="AA33" t="n">
-        <v>8.66547908232121</v>
-      </c>
+      <c r="AA33"/>
     </row>
     <row r="34">
       <c r="A34" t="s">
@@ -3219,9 +3197,7 @@
       <c r="Z34" t="n">
         <v>1.5</v>
       </c>
-      <c r="AA34" t="n">
-        <v>8.66547908232121</v>
-      </c>
+      <c r="AA34"/>
     </row>
     <row r="35">
       <c r="A35" t="s">
@@ -3300,9 +3276,7 @@
       <c r="Z35" t="n">
         <v>1.52</v>
       </c>
-      <c r="AA35" t="n">
-        <v>8.66547908232121</v>
-      </c>
+      <c r="AA35"/>
     </row>
     <row r="36">
       <c r="A36" t="s">
@@ -3381,9 +3355,7 @@
       <c r="Z36" t="n">
         <v>1.56</v>
       </c>
-      <c r="AA36" t="n">
-        <v>8.66547908232121</v>
-      </c>
+      <c r="AA36"/>
     </row>
     <row r="37">
       <c r="A37" t="s">
@@ -3465,7 +3437,7 @@
         <v>3</v>
       </c>
       <c r="AA37" t="n">
-        <v>8.5112</v>
+        <v>8.56281377709984</v>
       </c>
     </row>
     <row r="38">
@@ -3548,7 +3520,7 @@
         <v>3.08</v>
       </c>
       <c r="AA38" t="n">
-        <v>8.5112</v>
+        <v>8.4692758492285</v>
       </c>
     </row>
     <row r="39">
@@ -3631,7 +3603,7 @@
         <v>3.06</v>
       </c>
       <c r="AA39" t="n">
-        <v>8.5112</v>
+        <v>8.49918243272193</v>
       </c>
     </row>
     <row r="40">
@@ -3714,7 +3686,7 @@
         <v>3.32</v>
       </c>
       <c r="AA40" t="n">
-        <v>8.66547908232121</v>
+        <v>8.66864349276404</v>
       </c>
     </row>
     <row r="41">
@@ -3794,9 +3766,7 @@
       <c r="Z41" t="n">
         <v>3.32</v>
       </c>
-      <c r="AA41" t="n">
-        <v>8.66547908232121</v>
-      </c>
+      <c r="AA41"/>
     </row>
     <row r="42">
       <c r="A42" t="s">
@@ -3878,7 +3848,7 @@
         <v>3.34</v>
       </c>
       <c r="AA42" t="n">
-        <v>8.66547908232121</v>
+        <v>8.71991039520407</v>
       </c>
     </row>
     <row r="43">
@@ -3958,9 +3928,7 @@
       <c r="Z43" t="n">
         <v>1.38</v>
       </c>
-      <c r="AA43" t="n">
-        <v>8.66547908232121</v>
-      </c>
+      <c r="AA43"/>
     </row>
     <row r="44">
       <c r="A44" t="s">
@@ -4042,7 +4010,7 @@
         <v>1.34</v>
       </c>
       <c r="AA44" t="n">
-        <v>8.5112</v>
+        <v>8.58707468511913</v>
       </c>
     </row>
     <row r="45">
@@ -4125,7 +4093,7 @@
         <v>1.38</v>
       </c>
       <c r="AA45" t="n">
-        <v>8.5112</v>
+        <v>8.51190031458737</v>
       </c>
     </row>
     <row r="46">
@@ -4208,7 +4176,7 @@
         <v>1.42</v>
       </c>
       <c r="AA46" t="n">
-        <v>8.66547908232121</v>
+        <v>8.63950050117556</v>
       </c>
     </row>
     <row r="47">
@@ -4291,7 +4259,7 @@
         <v>3.28</v>
       </c>
       <c r="AA47" t="n">
-        <v>8.66547908232121</v>
+        <v>8.65002901184126</v>
       </c>
     </row>
     <row r="48">
@@ -4374,7 +4342,7 @@
         <v>3.3</v>
       </c>
       <c r="AA48" t="n">
-        <v>8.66547908232121</v>
+        <v>8.69274342496967</v>
       </c>
     </row>
     <row r="49">
@@ -4457,7 +4425,7 @@
         <v>1.48</v>
       </c>
       <c r="AA49" t="n">
-        <v>8.66547908232121</v>
+        <v>8.62890557584753</v>
       </c>
     </row>
     <row r="50">
@@ -4540,7 +4508,7 @@
         <v>3.1</v>
       </c>
       <c r="AA50" t="n">
-        <v>8.5112</v>
+        <v>8.64874461248575</v>
       </c>
     </row>
     <row r="51">
@@ -4623,7 +4591,7 @@
         <v>3.06</v>
       </c>
       <c r="AA51" t="n">
-        <v>8.5112</v>
+        <v>8.640919123476</v>
       </c>
     </row>
     <row r="52">
@@ -4701,9 +4669,7 @@
       <c r="Z52" t="n">
         <v>3.38</v>
       </c>
-      <c r="AA52" t="n">
-        <v>8.66547908232121</v>
-      </c>
+      <c r="AA52"/>
     </row>
     <row r="53">
       <c r="A53" t="s">
@@ -4785,7 +4751,7 @@
         <v>1.42</v>
       </c>
       <c r="AA53" t="n">
-        <v>8.66547908232121</v>
+        <v>8.62838595273049</v>
       </c>
     </row>
     <row r="54">
@@ -4865,9 +4831,7 @@
       <c r="Z54" t="n">
         <v>1.48</v>
       </c>
-      <c r="AA54" t="n">
-        <v>8.66547908232121</v>
-      </c>
+      <c r="AA54"/>
     </row>
     <row r="55">
       <c r="A55" t="s">
@@ -4946,9 +4910,7 @@
       <c r="Z55" t="n">
         <v>1.48</v>
       </c>
-      <c r="AA55" t="n">
-        <v>8.66547908232121</v>
-      </c>
+      <c r="AA55"/>
     </row>
     <row r="56">
       <c r="A56" t="s">
@@ -5030,7 +4992,7 @@
         <v>1.48</v>
       </c>
       <c r="AA56" t="n">
-        <v>8.66547908232121</v>
+        <v>8.70261225173995</v>
       </c>
     </row>
     <row r="57">
@@ -5113,7 +5075,7 @@
         <v>3.28</v>
       </c>
       <c r="AA57" t="n">
-        <v>8.66547908232121</v>
+        <v>8.65864115724544</v>
       </c>
     </row>
     <row r="58">
@@ -5196,7 +5158,7 @@
         <v>1.32</v>
       </c>
       <c r="AA58" t="n">
-        <v>8.5112</v>
+        <v>8.46358617345583</v>
       </c>
     </row>
     <row r="59">
@@ -5279,7 +5241,7 @@
         <v>1.48</v>
       </c>
       <c r="AA59" t="n">
-        <v>8.5112</v>
+        <v>8.51627587836069</v>
       </c>
     </row>
     <row r="60">
@@ -5362,7 +5324,7 @@
         <v>1.38</v>
       </c>
       <c r="AA60" t="n">
-        <v>8.66547908232121</v>
+        <v>8.63604076895127</v>
       </c>
     </row>
     <row r="61">
@@ -5445,7 +5407,7 @@
         <v>1.42</v>
       </c>
       <c r="AA61" t="n">
-        <v>8.66547908232121</v>
+        <v>8.67948628598496</v>
       </c>
     </row>
     <row r="62">
@@ -5528,7 +5490,7 @@
         <v>1.42</v>
       </c>
       <c r="AA62" t="n">
-        <v>8.66547908232121</v>
+        <v>8.70393112366738</v>
       </c>
     </row>
     <row r="63">
@@ -5611,7 +5573,7 @@
         <v>1.44</v>
       </c>
       <c r="AA63" t="n">
-        <v>8.66547908232121</v>
+        <v>8.67703061352684</v>
       </c>
     </row>
     <row r="64">
@@ -5694,7 +5656,7 @@
         <v>3.26</v>
       </c>
       <c r="AA64" t="n">
-        <v>8.66547908232121</v>
+        <v>8.69563402736558</v>
       </c>
     </row>
     <row r="65">
@@ -5777,7 +5739,7 @@
         <v>1.44</v>
       </c>
       <c r="AA65" t="n">
-        <v>8.66547908232121</v>
+        <v>8.73284496244665</v>
       </c>
     </row>
     <row r="66">
@@ -5860,7 +5822,7 @@
         <v>1.54</v>
       </c>
       <c r="AA66" t="n">
-        <v>8.66547908232121</v>
+        <v>8.69393980609786</v>
       </c>
     </row>
     <row r="67">
@@ -5943,7 +5905,7 @@
         <v>1.5</v>
       </c>
       <c r="AA67" t="n">
-        <v>8.66547908232121</v>
+        <v>8.67705358509629</v>
       </c>
     </row>
     <row r="68">
@@ -6026,7 +5988,7 @@
         <v>1.44</v>
       </c>
       <c r="AA68" t="n">
-        <v>8.66547908232121</v>
+        <v>8.64820883666257</v>
       </c>
     </row>
     <row r="69">
@@ -6109,7 +6071,7 @@
         <v>1.46</v>
       </c>
       <c r="AA69" t="n">
-        <v>8.66547908232121</v>
+        <v>8.65065034575394</v>
       </c>
     </row>
     <row r="70">
@@ -6192,7 +6154,7 @@
         <v>1.44</v>
       </c>
       <c r="AA70" t="n">
-        <v>8.66547908232121</v>
+        <v>8.66991401409323</v>
       </c>
     </row>
     <row r="71">
@@ -6275,7 +6237,7 @@
         <v>1.44</v>
       </c>
       <c r="AA71" t="n">
-        <v>8.66547908232121</v>
+        <v>8.62257722459344</v>
       </c>
     </row>
     <row r="72">
@@ -6358,7 +6320,7 @@
         <v>1.32</v>
       </c>
       <c r="AA72" t="n">
-        <v>8.5112</v>
+        <v>8.39436161170638</v>
       </c>
     </row>
     <row r="73">
@@ -6441,7 +6403,7 @@
         <v>1.42</v>
       </c>
       <c r="AA73" t="n">
-        <v>8.5112</v>
+        <v>8.50750643884669</v>
       </c>
     </row>
     <row r="74">
@@ -6524,7 +6486,7 @@
         <v>3.32</v>
       </c>
       <c r="AA74" t="n">
-        <v>8.66547908232121</v>
+        <v>8.68867521125907</v>
       </c>
     </row>
     <row r="75">
@@ -6607,7 +6569,7 @@
         <v>3.34</v>
       </c>
       <c r="AA75" t="n">
-        <v>8.66547908232121</v>
+        <v>8.62108682258905</v>
       </c>
     </row>
     <row r="76">
@@ -6690,7 +6652,7 @@
         <v>3.26</v>
       </c>
       <c r="AA76" t="n">
-        <v>8.5112</v>
+        <v>8.58388250730951</v>
       </c>
     </row>
     <row r="77">
@@ -6773,7 +6735,7 @@
         <v>3.14</v>
       </c>
       <c r="AA77" t="n">
-        <v>8.5112</v>
+        <v>8.52134474384746</v>
       </c>
     </row>
     <row r="78">
@@ -6853,9 +6815,7 @@
       <c r="Z78" t="n">
         <v>3.36</v>
       </c>
-      <c r="AA78" t="n">
-        <v>8.66547908232121</v>
-      </c>
+      <c r="AA78"/>
     </row>
     <row r="79">
       <c r="A79" t="s">
@@ -6937,7 +6897,7 @@
         <v>1.36</v>
       </c>
       <c r="AA79" t="n">
-        <v>8.66547908232121</v>
+        <v>8.72178625695351</v>
       </c>
     </row>
     <row r="80">
@@ -7020,7 +6980,7 @@
         <v>3.24</v>
       </c>
       <c r="AA80" t="n">
-        <v>8.66547908232121</v>
+        <v>8.69349402293119</v>
       </c>
     </row>
     <row r="81">
@@ -7103,7 +7063,7 @@
         <v>3.3</v>
       </c>
       <c r="AA81" t="n">
-        <v>8.66547908232121</v>
+        <v>8.65421210717093</v>
       </c>
     </row>
     <row r="82">
@@ -7186,7 +7146,7 @@
         <v>1.38</v>
       </c>
       <c r="AA82" t="n">
-        <v>8.66547908232121</v>
+        <v>8.74420482104936</v>
       </c>
     </row>
     <row r="83">
@@ -7269,7 +7229,7 @@
         <v>1.26</v>
       </c>
       <c r="AA83" t="n">
-        <v>8.5112</v>
+        <v>8.65718667376539</v>
       </c>
     </row>
     <row r="84">
@@ -7352,7 +7312,7 @@
         <v>1.26</v>
       </c>
       <c r="AA84" t="n">
-        <v>8.5112</v>
+        <v>8.65176508836113</v>
       </c>
     </row>
     <row r="85">
@@ -7435,7 +7395,7 @@
         <v>1.32</v>
       </c>
       <c r="AA85" t="n">
-        <v>8.5112</v>
+        <v>8.64305526362458</v>
       </c>
     </row>
     <row r="86">
@@ -7509,9 +7469,7 @@
       <c r="Z86" t="n">
         <v>1.44</v>
       </c>
-      <c r="AA86" t="n">
-        <v>8.66547908232121</v>
-      </c>
+      <c r="AA86"/>
     </row>
     <row r="87">
       <c r="A87" t="s">
@@ -7590,9 +7548,7 @@
       <c r="Z87" t="n">
         <v>1.42</v>
       </c>
-      <c r="AA87" t="n">
-        <v>8.66547908232121</v>
-      </c>
+      <c r="AA87"/>
     </row>
     <row r="88">
       <c r="A88" t="s">
@@ -7674,7 +7630,7 @@
         <v>3.18</v>
       </c>
       <c r="AA88" t="n">
-        <v>8.66547908232121</v>
+        <v>8.7884094802602</v>
       </c>
     </row>
     <row r="89">
@@ -7757,7 +7713,7 @@
         <v>1.44</v>
       </c>
       <c r="AA89" t="n">
-        <v>8.66547908232121</v>
+        <v>8.6745082114023</v>
       </c>
     </row>
     <row r="90">
@@ -7840,7 +7796,7 @@
         <v>2.86</v>
       </c>
       <c r="AA90" t="n">
-        <v>8.5112</v>
+        <v>8.49623063578359</v>
       </c>
     </row>
     <row r="91">
@@ -7923,7 +7879,7 @@
         <v>1.4</v>
       </c>
       <c r="AA91" t="n">
-        <v>8.66547908232121</v>
+        <v>8.75270065726259</v>
       </c>
     </row>
     <row r="92">
@@ -8003,9 +7959,7 @@
       <c r="Z92" t="n">
         <v>2.84</v>
       </c>
-      <c r="AA92" t="n">
-        <v>8.5112</v>
-      </c>
+      <c r="AA92"/>
     </row>
     <row r="93">
       <c r="A93" t="s">
@@ -8062,9 +8016,7 @@
       <c r="Z93" t="n">
         <v>0</v>
       </c>
-      <c r="AA93" t="n">
-        <v>8.5112</v>
-      </c>
+      <c r="AA93"/>
     </row>
     <row r="94">
       <c r="A94" t="s">
@@ -8146,7 +8098,7 @@
         <v>3</v>
       </c>
       <c r="AA94" t="n">
-        <v>8.5112</v>
+        <v>8.49778391324989</v>
       </c>
     </row>
     <row r="95">
@@ -8226,9 +8178,7 @@
       <c r="Z95" t="n">
         <v>3</v>
       </c>
-      <c r="AA95" t="n">
-        <v>8.5112</v>
-      </c>
+      <c r="AA95"/>
     </row>
     <row r="96">
       <c r="A96" t="s">
@@ -8307,9 +8257,7 @@
       <c r="Z96" t="n">
         <v>3.28</v>
       </c>
-      <c r="AA96" t="n">
-        <v>8.66547908232121</v>
-      </c>
+      <c r="AA96"/>
     </row>
     <row r="97">
       <c r="A97" t="s">
@@ -8391,7 +8339,7 @@
         <v>1.48</v>
       </c>
       <c r="AA97" t="n">
-        <v>8.66547908232121</v>
+        <v>8.69986678484706</v>
       </c>
     </row>
     <row r="98">
@@ -8469,9 +8417,7 @@
       <c r="Z98" t="n">
         <v>3.26</v>
       </c>
-      <c r="AA98" t="n">
-        <v>8.66547908232121</v>
-      </c>
+      <c r="AA98"/>
     </row>
     <row r="99">
       <c r="A99" t="s">
@@ -8553,7 +8499,7 @@
         <v>1.44</v>
       </c>
       <c r="AA99" t="n">
-        <v>8.66547908232121</v>
+        <v>8.67875215669445</v>
       </c>
     </row>
     <row r="100">
@@ -8633,9 +8579,7 @@
       <c r="Z100" t="n">
         <v>3.04</v>
       </c>
-      <c r="AA100" t="n">
-        <v>8.5112</v>
-      </c>
+      <c r="AA100"/>
     </row>
     <row r="101">
       <c r="A101" t="s">
@@ -8717,7 +8661,7 @@
         <v>3.04</v>
       </c>
       <c r="AA101" t="n">
-        <v>8.5112</v>
+        <v>8.63676802810687</v>
       </c>
     </row>
     <row r="102">
@@ -8797,9 +8741,7 @@
       <c r="Z102" t="n">
         <v>3.24</v>
       </c>
-      <c r="AA102" t="n">
-        <v>8.66547908232121</v>
-      </c>
+      <c r="AA102"/>
     </row>
     <row r="103">
       <c r="A103" t="s">
@@ -8881,7 +8823,7 @@
         <v>3.1</v>
       </c>
       <c r="AA103" t="n">
-        <v>8.66547908232121</v>
+        <v>8.73339178576497</v>
       </c>
     </row>
     <row r="104">
@@ -8964,7 +8906,7 @@
         <v>1.44</v>
       </c>
       <c r="AA104" t="n">
-        <v>8.66547908232121</v>
+        <v>8.66102628356343</v>
       </c>
     </row>
     <row r="105">
@@ -9047,7 +8989,7 @@
         <v>1.36</v>
       </c>
       <c r="AA105" t="n">
-        <v>8.66547908232121</v>
+        <v>8.69510197880299</v>
       </c>
     </row>
     <row r="106">
@@ -9130,7 +9072,7 @@
         <v>1.42</v>
       </c>
       <c r="AA106" t="n">
-        <v>8.66547908232121</v>
+        <v>8.74373494014374</v>
       </c>
     </row>
     <row r="107">
@@ -9213,7 +9155,7 @@
         <v>1.36</v>
       </c>
       <c r="AA107" t="n">
-        <v>8.66547908232121</v>
+        <v>8.76471957039628</v>
       </c>
     </row>
     <row r="108">
@@ -9296,7 +9238,7 @@
         <v>1.38</v>
       </c>
       <c r="AA108" t="n">
-        <v>8.5112</v>
+        <v>8.46800197684118</v>
       </c>
     </row>
     <row r="109">
@@ -9379,7 +9321,7 @@
         <v>1.44</v>
       </c>
       <c r="AA109" t="n">
-        <v>8.5112</v>
+        <v>8.61252960458937</v>
       </c>
     </row>
     <row r="110">
@@ -9462,7 +9404,7 @@
         <v>1.38</v>
       </c>
       <c r="AA110" t="n">
-        <v>8.5112</v>
+        <v>8.57567846311134</v>
       </c>
     </row>
     <row r="111">
@@ -9542,9 +9484,7 @@
       <c r="Z111" t="n">
         <v>1.5</v>
       </c>
-      <c r="AA111" t="n">
-        <v>8.5112</v>
-      </c>
+      <c r="AA111"/>
     </row>
     <row r="112">
       <c r="A112" t="s">
@@ -9626,7 +9566,7 @@
         <v>1.34</v>
       </c>
       <c r="AA112" t="n">
-        <v>8.66547908232121</v>
+        <v>8.6005010137282</v>
       </c>
     </row>
     <row r="113">
@@ -9709,7 +9649,7 @@
         <v>1.34</v>
       </c>
       <c r="AA113" t="n">
-        <v>8.66547908232121</v>
+        <v>8.64651579761498</v>
       </c>
     </row>
     <row r="114">
@@ -9792,7 +9732,7 @@
         <v>3.08</v>
       </c>
       <c r="AA114" t="n">
-        <v>8.66547908232121</v>
+        <v>8.66742861294619</v>
       </c>
     </row>
     <row r="115">
@@ -9875,7 +9815,7 @@
         <v>3.04</v>
       </c>
       <c r="AA115" t="n">
-        <v>8.66547908232121</v>
+        <v>8.73797499083812</v>
       </c>
     </row>
     <row r="116">
@@ -9953,9 +9893,7 @@
       <c r="Z116" t="n">
         <v>1.26</v>
       </c>
-      <c r="AA116" t="n">
-        <v>8.66547908232121</v>
-      </c>
+      <c r="AA116"/>
     </row>
     <row r="117">
       <c r="A117" t="s">
@@ -10037,7 +9975,7 @@
         <v>1.38</v>
       </c>
       <c r="AA117" t="n">
-        <v>8.66547908232121</v>
+        <v>8.70296471496862</v>
       </c>
     </row>
     <row r="118">
@@ -10120,7 +10058,7 @@
         <v>1.4</v>
       </c>
       <c r="AA118" t="n">
-        <v>8.66547908232121</v>
+        <v>8.67374044853215</v>
       </c>
     </row>
     <row r="119">
@@ -10200,9 +10138,7 @@
       <c r="Z119" t="n">
         <v>3.16</v>
       </c>
-      <c r="AA119" t="n">
-        <v>8.66547908232121</v>
-      </c>
+      <c r="AA119"/>
     </row>
     <row r="120">
       <c r="A120" t="s">
@@ -10284,7 +10220,7 @@
         <v>1.36</v>
       </c>
       <c r="AA120" t="n">
-        <v>8.66547908232121</v>
+        <v>8.76458333032576</v>
       </c>
     </row>
     <row r="121">
@@ -10367,7 +10303,7 @@
         <v>1.44</v>
       </c>
       <c r="AA121" t="n">
-        <v>8.66547908232121</v>
+        <v>8.7626581851208</v>
       </c>
     </row>
     <row r="122">
@@ -10447,9 +10383,7 @@
       <c r="Z122" t="n">
         <v>1.46</v>
       </c>
-      <c r="AA122" t="n">
-        <v>8.66547908232121</v>
-      </c>
+      <c r="AA122"/>
     </row>
     <row r="123">
       <c r="A123" t="s">
@@ -10531,7 +10465,7 @@
         <v>1.38</v>
       </c>
       <c r="AA123" t="n">
-        <v>8.66547908232121</v>
+        <v>8.62571875797661</v>
       </c>
     </row>
     <row r="124">
@@ -10614,7 +10548,7 @@
         <v>1.38</v>
       </c>
       <c r="AA124" t="n">
-        <v>8.66547908232121</v>
+        <v>8.69953930180564</v>
       </c>
     </row>
     <row r="125">
@@ -10697,7 +10631,7 @@
         <v>1.36</v>
       </c>
       <c r="AA125" t="n">
-        <v>8.47181736794987</v>
+        <v>8.55968929120194</v>
       </c>
     </row>
     <row r="126">
@@ -10780,7 +10714,7 @@
         <v>1.32</v>
       </c>
       <c r="AA126" t="n">
-        <v>8.47181736794987</v>
+        <v>8.56004371794556</v>
       </c>
     </row>
     <row r="127">
@@ -10863,7 +10797,7 @@
         <v>2.96</v>
       </c>
       <c r="AA127" t="n">
-        <v>8.47181736794987</v>
+        <v>8.4467256252008</v>
       </c>
     </row>
     <row r="128">
@@ -10946,7 +10880,7 @@
         <v>1.46</v>
       </c>
       <c r="AA128" t="n">
-        <v>8.47181736794987</v>
+        <v>8.42093048625359</v>
       </c>
     </row>
     <row r="129">
@@ -11026,9 +10960,7 @@
       <c r="Z129" t="n">
         <v>1.64</v>
       </c>
-      <c r="AA129" t="n">
-        <v>8.47181736794987</v>
-      </c>
+      <c r="AA129"/>
     </row>
     <row r="130">
       <c r="A130" t="s">
@@ -11110,7 +11042,7 @@
         <v>3.04</v>
       </c>
       <c r="AA130" t="n">
-        <v>8.47181736794987</v>
+        <v>8.56466667449775</v>
       </c>
     </row>
     <row r="131">
@@ -11193,7 +11125,7 @@
         <v>3.06</v>
       </c>
       <c r="AA131" t="n">
-        <v>8.47181736794987</v>
+        <v>8.50411465939708</v>
       </c>
     </row>
     <row r="132">
@@ -11273,9 +11205,7 @@
       <c r="Z132" t="n">
         <v>1.22</v>
       </c>
-      <c r="AA132" t="n">
-        <v>8.47181736794987</v>
-      </c>
+      <c r="AA132"/>
     </row>
     <row r="133">
       <c r="A133" t="s">
@@ -11354,9 +11284,7 @@
       <c r="Z133" t="n">
         <v>1.3</v>
       </c>
-      <c r="AA133" t="n">
-        <v>8.47181736794987</v>
-      </c>
+      <c r="AA133"/>
     </row>
     <row r="134">
       <c r="A134" t="s">
@@ -11435,9 +11363,7 @@
       <c r="Z134" t="n">
         <v>3.06</v>
       </c>
-      <c r="AA134" t="n">
-        <v>8.47181736794987</v>
-      </c>
+      <c r="AA134"/>
     </row>
     <row r="135">
       <c r="A135" t="s">
@@ -11514,9 +11440,7 @@
       <c r="Z135" t="n">
         <v>1.44</v>
       </c>
-      <c r="AA135" t="n">
-        <v>8.47181736794987</v>
-      </c>
+      <c r="AA135"/>
     </row>
     <row r="136">
       <c r="A136" t="s">
@@ -11598,7 +11522,7 @@
         <v>2.98</v>
       </c>
       <c r="AA136" t="n">
-        <v>8.47181736794987</v>
+        <v>8.40803095525683</v>
       </c>
     </row>
     <row r="137">
@@ -11681,7 +11605,7 @@
         <v>2.96</v>
       </c>
       <c r="AA137" t="n">
-        <v>8.47181736794987</v>
+        <v>8.49881539820162</v>
       </c>
     </row>
     <row r="138">
@@ -11759,9 +11683,7 @@
       <c r="Z138" t="n">
         <v>3.02</v>
       </c>
-      <c r="AA138" t="n">
-        <v>8.47181736794987</v>
-      </c>
+      <c r="AA138"/>
     </row>
     <row r="139">
       <c r="A139" t="s">
@@ -11840,9 +11762,7 @@
       <c r="Z139" t="n">
         <v>3.08</v>
       </c>
-      <c r="AA139" t="n">
-        <v>8.47181736794987</v>
-      </c>
+      <c r="AA139"/>
     </row>
     <row r="140">
       <c r="A140" t="s">
@@ -11921,9 +11841,7 @@
       <c r="Z140" t="n">
         <v>3.04</v>
       </c>
-      <c r="AA140" t="n">
-        <v>8.47181736794987</v>
-      </c>
+      <c r="AA140"/>
     </row>
     <row r="141">
       <c r="A141" t="s">
@@ -12002,9 +11920,7 @@
       <c r="Z141" t="n">
         <v>3.08</v>
       </c>
-      <c r="AA141" t="n">
-        <v>8.47181736794987</v>
-      </c>
+      <c r="AA141"/>
     </row>
     <row r="142">
       <c r="A142" t="s">
@@ -12086,7 +12002,7 @@
         <v>1.34</v>
       </c>
       <c r="AA142" t="n">
-        <v>8.47181736794987</v>
+        <v>8.46140326712927</v>
       </c>
     </row>
     <row r="143">
@@ -12169,7 +12085,7 @@
         <v>1.32</v>
       </c>
       <c r="AA143" t="n">
-        <v>8.47181736794987</v>
+        <v>8.57138015118186</v>
       </c>
     </row>
     <row r="144">
@@ -12252,7 +12168,7 @@
         <v>1.34</v>
       </c>
       <c r="AA144" t="n">
-        <v>8.47181736794987</v>
+        <v>8.43531473223141</v>
       </c>
     </row>
     <row r="145">
@@ -12335,7 +12251,7 @@
         <v>0</v>
       </c>
       <c r="AA145" t="n">
-        <v>8.47181736794987</v>
+        <v>8.49981335955473</v>
       </c>
     </row>
     <row r="146">
@@ -12418,7 +12334,7 @@
         <v>3.06</v>
       </c>
       <c r="AA146" t="n">
-        <v>8.47181736794987</v>
+        <v>8.30534878386048</v>
       </c>
     </row>
     <row r="147">
@@ -12501,7 +12417,7 @@
         <v>3.1</v>
       </c>
       <c r="AA147" t="n">
-        <v>8.47181736794987</v>
+        <v>8.39642409753845</v>
       </c>
     </row>
     <row r="148">
@@ -12584,7 +12500,7 @@
         <v>3.08</v>
       </c>
       <c r="AA148" t="n">
-        <v>8.47181736794987</v>
+        <v>8.33272653664148</v>
       </c>
     </row>
     <row r="149">
@@ -12667,7 +12583,7 @@
         <v>1.38</v>
       </c>
       <c r="AA149" t="n">
-        <v>8.47181736794987</v>
+        <v>8.57729679173214</v>
       </c>
     </row>
     <row r="150">
@@ -12747,9 +12663,7 @@
       <c r="Z150" t="n">
         <v>1.36</v>
       </c>
-      <c r="AA150" t="n">
-        <v>8.47181736794987</v>
-      </c>
+      <c r="AA150"/>
     </row>
     <row r="151">
       <c r="A151" t="s">
@@ -12831,7 +12745,7 @@
         <v>1.36</v>
       </c>
       <c r="AA151" t="n">
-        <v>8.47181736794987</v>
+        <v>8.55395979576564</v>
       </c>
     </row>
     <row r="152">
@@ -12914,7 +12828,7 @@
         <v>1.3</v>
       </c>
       <c r="AA152" t="n">
-        <v>8.47181736794987</v>
+        <v>8.59242728499506</v>
       </c>
     </row>
     <row r="153">
@@ -12997,7 +12911,7 @@
         <v>1.42</v>
       </c>
       <c r="AA153" t="n">
-        <v>8.47181736794987</v>
+        <v>8.54075334285909</v>
       </c>
     </row>
     <row r="154">
@@ -13080,7 +12994,7 @@
         <v>2.98</v>
       </c>
       <c r="AA154" t="n">
-        <v>8.47181736794987</v>
+        <v>8.37712350068096</v>
       </c>
     </row>
     <row r="155">
@@ -13163,7 +13077,7 @@
         <v>1.32</v>
       </c>
       <c r="AA155" t="n">
-        <v>8.47181736794987</v>
+        <v>8.650193736842</v>
       </c>
     </row>
     <row r="156">
@@ -13246,7 +13160,7 @@
         <v>1.68</v>
       </c>
       <c r="AA156" t="n">
-        <v>8.47181736794987</v>
+        <v>8.36624927138643</v>
       </c>
     </row>
     <row r="157">
@@ -13329,7 +13243,7 @@
         <v>1.66</v>
       </c>
       <c r="AA157" t="n">
-        <v>8.47181736794987</v>
+        <v>8.50139278684718</v>
       </c>
     </row>
     <row r="158">
@@ -13412,7 +13326,7 @@
         <v>1.72</v>
       </c>
       <c r="AA158" t="n">
-        <v>8.47181736794987</v>
+        <v>8.53962184841737</v>
       </c>
     </row>
     <row r="159">
@@ -13495,7 +13409,7 @@
         <v>1.36</v>
       </c>
       <c r="AA159" t="n">
-        <v>8.47181736794987</v>
+        <v>8.53778722929381</v>
       </c>
     </row>
     <row r="160">
@@ -13578,7 +13492,7 @@
         <v>1.32</v>
       </c>
       <c r="AA160" t="n">
-        <v>8.47181736794987</v>
+        <v>8.54458100255043</v>
       </c>
     </row>
     <row r="161">
@@ -13661,7 +13575,7 @@
         <v>1.36</v>
       </c>
       <c r="AA161" t="n">
-        <v>8.47181736794987</v>
+        <v>8.54657375764272</v>
       </c>
     </row>
     <row r="162">
@@ -13741,9 +13655,7 @@
       <c r="Z162" t="n">
         <v>1.3</v>
       </c>
-      <c r="AA162" t="n">
-        <v>8.47181736794987</v>
-      </c>
+      <c r="AA162"/>
     </row>
     <row r="163">
       <c r="A163" t="s">
@@ -13822,9 +13734,7 @@
       <c r="Z163" t="n">
         <v>3.2</v>
       </c>
-      <c r="AA163" t="n">
-        <v>8.47181736794987</v>
-      </c>
+      <c r="AA163"/>
     </row>
     <row r="164">
       <c r="A164" t="s">
@@ -13906,7 +13816,7 @@
         <v>1.32</v>
       </c>
       <c r="AA164" t="n">
-        <v>8.47181736794987</v>
+        <v>8.55482386155371</v>
       </c>
     </row>
     <row r="165">
@@ -13989,7 +13899,7 @@
         <v>1.28</v>
       </c>
       <c r="AA165" t="n">
-        <v>8.47181736794987</v>
+        <v>8.4655009192977</v>
       </c>
     </row>
     <row r="166">
@@ -14072,7 +13982,7 @@
         <v>1.3</v>
       </c>
       <c r="AA166" t="n">
-        <v>8.47181736794987</v>
+        <v>8.5275271423948</v>
       </c>
     </row>
     <row r="167">
@@ -14152,9 +14062,7 @@
       <c r="Z167" t="n">
         <v>1.28</v>
       </c>
-      <c r="AA167" t="n">
-        <v>8.47181736794987</v>
-      </c>
+      <c r="AA167"/>
     </row>
     <row r="168">
       <c r="A168" t="s">
@@ -14236,7 +14144,7 @@
         <v>1.38</v>
       </c>
       <c r="AA168" t="n">
-        <v>8.47181736794987</v>
+        <v>8.44286572263398</v>
       </c>
     </row>
     <row r="169">
@@ -14319,7 +14227,7 @@
         <v>3.14</v>
       </c>
       <c r="AA169" t="n">
-        <v>8.47181736794987</v>
+        <v>8.56748058574861</v>
       </c>
     </row>
     <row r="170">
@@ -14402,7 +14310,7 @@
         <v>3.2</v>
       </c>
       <c r="AA170" t="n">
-        <v>8.47181736794987</v>
+        <v>8.57710519274459</v>
       </c>
     </row>
     <row r="171">
@@ -14485,7 +14393,7 @@
         <v>3.04</v>
       </c>
       <c r="AA171" t="n">
-        <v>8.47181736794987</v>
+        <v>8.53945873076904</v>
       </c>
     </row>
     <row r="172">
@@ -14565,9 +14473,7 @@
       <c r="Z172" t="n">
         <v>1.34</v>
       </c>
-      <c r="AA172" t="n">
-        <v>8.47181736794987</v>
-      </c>
+      <c r="AA172"/>
     </row>
     <row r="173">
       <c r="A173" t="s">
@@ -14646,9 +14552,7 @@
       <c r="Z173" t="n">
         <v>1.38</v>
       </c>
-      <c r="AA173" t="n">
-        <v>8.47181736794987</v>
-      </c>
+      <c r="AA173"/>
     </row>
     <row r="174">
       <c r="A174" t="s">
@@ -14730,7 +14634,7 @@
         <v>1.44</v>
       </c>
       <c r="AA174" t="n">
-        <v>8.47181736794987</v>
+        <v>8.47178137517216</v>
       </c>
     </row>
     <row r="175">
@@ -14813,7 +14717,7 @@
         <v>1.42</v>
       </c>
       <c r="AA175" t="n">
-        <v>8.47181736794987</v>
+        <v>8.53635255155205</v>
       </c>
     </row>
     <row r="176">
@@ -14896,7 +14800,7 @@
         <v>1.36</v>
       </c>
       <c r="AA176" t="n">
-        <v>8.47181736794987</v>
+        <v>8.55568772284082</v>
       </c>
     </row>
     <row r="177">
@@ -14979,7 +14883,7 @@
         <v>1.3</v>
       </c>
       <c r="AA177" t="n">
-        <v>8.47181736794987</v>
+        <v>8.61357005348383</v>
       </c>
     </row>
     <row r="178">
@@ -15062,7 +14966,7 @@
         <v>1.42</v>
       </c>
       <c r="AA178" t="n">
-        <v>8.47181736794987</v>
+        <v>8.48559849140015</v>
       </c>
     </row>
     <row r="179">
@@ -15145,7 +15049,7 @@
         <v>1.44</v>
       </c>
       <c r="AA179" t="n">
-        <v>8.47181736794987</v>
+        <v>8.51704267491467</v>
       </c>
     </row>
     <row r="180">
@@ -15225,9 +15129,7 @@
       <c r="Z180" t="n">
         <v>3.12</v>
       </c>
-      <c r="AA180" t="n">
-        <v>8.47181736794987</v>
-      </c>
+      <c r="AA180"/>
     </row>
     <row r="181">
       <c r="A181" t="s">
@@ -15309,7 +15211,7 @@
         <v>1.3</v>
       </c>
       <c r="AA181" t="n">
-        <v>8.47181736794987</v>
+        <v>8.40265077447373</v>
       </c>
     </row>
     <row r="182">
@@ -15392,7 +15294,7 @@
         <v>1.38</v>
       </c>
       <c r="AA182" t="n">
-        <v>8.47181736794987</v>
+        <v>8.4290668059272</v>
       </c>
     </row>
     <row r="183">
@@ -15475,7 +15377,7 @@
         <v>3.2</v>
       </c>
       <c r="AA183" t="n">
-        <v>8.47181736794987</v>
+        <v>8.49956073872227</v>
       </c>
     </row>
     <row r="184">
@@ -15558,7 +15460,7 @@
         <v>1.36</v>
       </c>
       <c r="AA184" t="n">
-        <v>8.47181736794987</v>
+        <v>8.48242412908409</v>
       </c>
     </row>
     <row r="185">
@@ -15641,7 +15543,7 @@
         <v>1.34</v>
       </c>
       <c r="AA185" t="n">
-        <v>8.47181736794987</v>
+        <v>8.48308571314856</v>
       </c>
     </row>
     <row r="186">
@@ -15721,9 +15623,7 @@
       <c r="Z186" t="n">
         <v>1.34</v>
       </c>
-      <c r="AA186" t="n">
-        <v>8.47181736794987</v>
-      </c>
+      <c r="AA186"/>
     </row>
     <row r="187">
       <c r="A187" t="s">
@@ -15805,7 +15705,7 @@
         <v>1.56</v>
       </c>
       <c r="AA187" t="n">
-        <v>8.47181736794987</v>
+        <v>8.33387310914056</v>
       </c>
     </row>
     <row r="188">
@@ -15888,7 +15788,7 @@
         <v>1.84</v>
       </c>
       <c r="AA188" t="n">
-        <v>8.47181736794987</v>
+        <v>8.373036365641</v>
       </c>
     </row>
     <row r="189">
@@ -15971,7 +15871,7 @@
         <v>3.18</v>
       </c>
       <c r="AA189" t="n">
-        <v>8.47181736794987</v>
+        <v>8.55139998050446</v>
       </c>
     </row>
     <row r="190">
@@ -16054,7 +15954,7 @@
         <v>1.36</v>
       </c>
       <c r="AA190" t="n">
-        <v>8.47181736794987</v>
+        <v>8.4512637913786</v>
       </c>
     </row>
     <row r="191">
@@ -16137,7 +16037,7 @@
         <v>3.08</v>
       </c>
       <c r="AA191" t="n">
-        <v>8.47181736794987</v>
+        <v>8.40660323800523</v>
       </c>
     </row>
     <row r="192">
@@ -16220,7 +16120,7 @@
         <v>3.06</v>
       </c>
       <c r="AA192" t="n">
-        <v>8.47181736794987</v>
+        <v>8.44449783409622</v>
       </c>
     </row>
     <row r="193">
@@ -16303,7 +16203,7 @@
         <v>1.38</v>
       </c>
       <c r="AA193" t="n">
-        <v>8.47181736794987</v>
+        <v>8.57427558752688</v>
       </c>
     </row>
     <row r="194">
@@ -16386,7 +16286,7 @@
         <v>3.18</v>
       </c>
       <c r="AA194" t="n">
-        <v>8.47181736794987</v>
+        <v>8.56329334179787</v>
       </c>
     </row>
     <row r="195">
@@ -16466,9 +16366,7 @@
       <c r="Z195" t="n">
         <v>3.22</v>
       </c>
-      <c r="AA195" t="n">
-        <v>8.47181736794987</v>
-      </c>
+      <c r="AA195"/>
     </row>
     <row r="196">
       <c r="A196" t="s">
@@ -16550,7 +16448,7 @@
         <v>3.32</v>
       </c>
       <c r="AA196" t="n">
-        <v>8.47181736794987</v>
+        <v>8.54637208668893</v>
       </c>
     </row>
     <row r="197">
@@ -16633,7 +16531,7 @@
         <v>1.46</v>
       </c>
       <c r="AA197" t="n">
-        <v>8.47181736794987</v>
+        <v>8.39173589658441</v>
       </c>
     </row>
     <row r="198">
@@ -16716,7 +16614,7 @@
         <v>2.98</v>
       </c>
       <c r="AA198" t="n">
-        <v>8.47181736794987</v>
+        <v>8.35542499361046</v>
       </c>
     </row>
     <row r="199">
@@ -16799,7 +16697,7 @@
         <v>2.92</v>
       </c>
       <c r="AA199" t="n">
-        <v>8.47181736794987</v>
+        <v>8.4009425671777</v>
       </c>
     </row>
     <row r="200">
@@ -16882,7 +16780,7 @@
         <v>1.42</v>
       </c>
       <c r="AA200" t="n">
-        <v>8.47181736794987</v>
+        <v>8.42564312954685</v>
       </c>
     </row>
     <row r="201">
@@ -16965,7 +16863,7 @@
         <v>1.4</v>
       </c>
       <c r="AA201" t="n">
-        <v>8.47181736794987</v>
+        <v>8.5401067057268</v>
       </c>
     </row>
     <row r="202">
@@ -17048,7 +16946,7 @@
         <v>3.32</v>
       </c>
       <c r="AA202" t="n">
-        <v>8.47181736794987</v>
+        <v>8.48155690894847</v>
       </c>
     </row>
     <row r="203">
@@ -17131,7 +17029,7 @@
         <v>3.28</v>
       </c>
       <c r="AA203" t="n">
-        <v>8.47181736794987</v>
+        <v>8.53814366315824</v>
       </c>
     </row>
     <row r="204">
@@ -17211,9 +17109,7 @@
       <c r="Z204" t="n">
         <v>1.4</v>
       </c>
-      <c r="AA204" t="n">
-        <v>8.47181736794987</v>
-      </c>
+      <c r="AA204"/>
     </row>
     <row r="205">
       <c r="A205" t="s">
@@ -17295,7 +17191,7 @@
         <v>1.6</v>
       </c>
       <c r="AA205" t="n">
-        <v>8.47181736794987</v>
+        <v>8.33713686414433</v>
       </c>
     </row>
     <row r="206">
@@ -17378,7 +17274,7 @@
         <v>1.46</v>
       </c>
       <c r="AA206" t="n">
-        <v>8.47181736794987</v>
+        <v>8.33359751272842</v>
       </c>
     </row>
     <row r="207">
@@ -17461,7 +17357,7 @@
         <v>3.26</v>
       </c>
       <c r="AA207" t="n">
-        <v>8.47181736794987</v>
+        <v>8.43261301169017</v>
       </c>
     </row>
     <row r="208">
@@ -17544,7 +17440,7 @@
         <v>3.26</v>
       </c>
       <c r="AA208" t="n">
-        <v>8.47181736794987</v>
+        <v>8.42055556433266</v>
       </c>
     </row>
     <row r="209">
@@ -17624,9 +17520,7 @@
       <c r="Z209" t="n">
         <v>3.02</v>
       </c>
-      <c r="AA209" t="n">
-        <v>8.47181736794987</v>
-      </c>
+      <c r="AA209"/>
     </row>
     <row r="210">
       <c r="A210" t="s">
@@ -17708,7 +17602,7 @@
         <v>1.44</v>
       </c>
       <c r="AA210" t="n">
-        <v>8.47181736794987</v>
+        <v>8.50029992712722</v>
       </c>
     </row>
     <row r="211">
@@ -17791,7 +17685,7 @@
         <v>1.36</v>
       </c>
       <c r="AA211" t="n">
-        <v>8.47181736794987</v>
+        <v>8.2037630374212</v>
       </c>
     </row>
     <row r="212">
@@ -17874,7 +17768,7 @@
         <v>1.5</v>
       </c>
       <c r="AA212" t="n">
-        <v>8.47181736794987</v>
+        <v>8.30533800681298</v>
       </c>
     </row>
     <row r="213">
@@ -17957,7 +17851,7 @@
         <v>1.48</v>
       </c>
       <c r="AA213" t="n">
-        <v>8.47181736794987</v>
+        <v>8.33633020527515</v>
       </c>
     </row>
     <row r="214">
@@ -18040,7 +17934,7 @@
         <v>1.5</v>
       </c>
       <c r="AA214" t="n">
-        <v>8.47181736794987</v>
+        <v>8.26815323411506</v>
       </c>
     </row>
     <row r="215">
@@ -18123,7 +18017,7 @@
         <v>1.32</v>
       </c>
       <c r="AA215" t="n">
-        <v>8.47181736794987</v>
+        <v>8.5213471075732</v>
       </c>
     </row>
     <row r="216">
@@ -18206,7 +18100,7 @@
         <v>3.26</v>
       </c>
       <c r="AA216" t="n">
-        <v>8.47181736794987</v>
+        <v>8.40681576169717</v>
       </c>
     </row>
     <row r="217">
@@ -18289,7 +18183,7 @@
         <v>3.04</v>
       </c>
       <c r="AA217" t="n">
-        <v>8.47181736794987</v>
+        <v>8.36936731390925</v>
       </c>
     </row>
     <row r="218">
@@ -18372,7 +18266,7 @@
         <v>1.44</v>
       </c>
       <c r="AA218" t="n">
-        <v>8.47181736794987</v>
+        <v>8.39639592392332</v>
       </c>
     </row>
     <row r="219">
@@ -18455,7 +18349,7 @@
         <v>1.38</v>
       </c>
       <c r="AA219" t="n">
-        <v>8.47181736794987</v>
+        <v>8.33483317851866</v>
       </c>
     </row>
     <row r="220">
@@ -18538,7 +18432,7 @@
         <v>3.38</v>
       </c>
       <c r="AA220" t="n">
-        <v>8.47181736794987</v>
+        <v>8.59806738043462</v>
       </c>
     </row>
     <row r="221">
@@ -18621,7 +18515,7 @@
         <v>3.4</v>
       </c>
       <c r="AA221" t="n">
-        <v>8.47181736794987</v>
+        <v>8.51997434934029</v>
       </c>
     </row>
     <row r="222">
@@ -18704,7 +18598,7 @@
         <v>1.3</v>
       </c>
       <c r="AA222" t="n">
-        <v>8.47181736794987</v>
+        <v>8.56291956528042</v>
       </c>
     </row>
     <row r="223">
@@ -18787,7 +18681,7 @@
         <v>1.36</v>
       </c>
       <c r="AA223" t="n">
-        <v>8.47181736794987</v>
+        <v>8.52223251911122</v>
       </c>
     </row>
     <row r="224">
@@ -18870,7 +18764,7 @@
         <v>1.36</v>
       </c>
       <c r="AA224" t="n">
-        <v>8.47181736794987</v>
+        <v>8.45005478634382</v>
       </c>
     </row>
     <row r="225">
@@ -18953,7 +18847,7 @@
         <v>1.82</v>
       </c>
       <c r="AA225" t="n">
-        <v>8.47181736794987</v>
+        <v>8.43165222270397</v>
       </c>
     </row>
     <row r="226">
@@ -19036,7 +18930,7 @@
         <v>3.42</v>
       </c>
       <c r="AA226" t="n">
-        <v>8.47181736794987</v>
+        <v>8.5855031097942</v>
       </c>
     </row>
     <row r="227">
@@ -19119,7 +19013,7 @@
         <v>3.3</v>
       </c>
       <c r="AA227" t="n">
-        <v>8.47181736794987</v>
+        <v>8.56992611686586</v>
       </c>
     </row>
     <row r="228">
@@ -19197,9 +19091,7 @@
       <c r="Z228" t="n">
         <v>1.44</v>
       </c>
-      <c r="AA228" t="n">
-        <v>8.47181736794987</v>
-      </c>
+      <c r="AA228"/>
     </row>
     <row r="229">
       <c r="A229" t="s">
@@ -19281,7 +19173,7 @@
         <v>1.3</v>
       </c>
       <c r="AA229" t="n">
-        <v>8.47181736794987</v>
+        <v>8.42123163979496</v>
       </c>
     </row>
     <row r="230">
@@ -19364,7 +19256,7 @@
         <v>1.36</v>
       </c>
       <c r="AA230" t="n">
-        <v>8.47181736794987</v>
+        <v>8.51047007052118</v>
       </c>
     </row>
     <row r="231">
@@ -19447,7 +19339,7 @@
         <v>1.36</v>
       </c>
       <c r="AA231" t="n">
-        <v>8.47181736794987</v>
+        <v>8.47778671411669</v>
       </c>
     </row>
     <row r="232">
@@ -19530,7 +19422,7 @@
         <v>1.36</v>
       </c>
       <c r="AA232" t="n">
-        <v>8.47181736794987</v>
+        <v>8.50106918168182</v>
       </c>
     </row>
     <row r="233">
@@ -19610,9 +19502,7 @@
       <c r="Z233" t="n">
         <v>1.36</v>
       </c>
-      <c r="AA233" t="n">
-        <v>8.47181736794987</v>
-      </c>
+      <c r="AA233"/>
     </row>
     <row r="234">
       <c r="A234" t="s">
@@ -19694,7 +19584,7 @@
         <v>1.36</v>
       </c>
       <c r="AA234" t="n">
-        <v>8.47181736794987</v>
+        <v>8.50684680326685</v>
       </c>
     </row>
     <row r="235">
@@ -19777,7 +19667,7 @@
         <v>3.42</v>
       </c>
       <c r="AA235" t="n">
-        <v>8.47181736794987</v>
+        <v>8.54577077989214</v>
       </c>
     </row>
     <row r="236">
@@ -19860,7 +19750,7 @@
         <v>3.38</v>
       </c>
       <c r="AA236" t="n">
-        <v>8.47181736794987</v>
+        <v>8.5204067480663</v>
       </c>
     </row>
     <row r="237">
@@ -19943,7 +19833,7 @@
         <v>1.62</v>
       </c>
       <c r="AA237" t="n">
-        <v>8.47181736794987</v>
+        <v>8.44714697273557</v>
       </c>
     </row>
     <row r="238">
@@ -20026,7 +19916,7 @@
         <v>1.32</v>
       </c>
       <c r="AA238" t="n">
-        <v>8.47181736794987</v>
+        <v>8.62246459852199</v>
       </c>
     </row>
     <row r="239">
@@ -20109,7 +19999,7 @@
         <v>1.34</v>
       </c>
       <c r="AA239" t="n">
-        <v>8.47181736794987</v>
+        <v>8.60148866998948</v>
       </c>
     </row>
     <row r="240">
@@ -20192,7 +20082,7 @@
         <v>1.5</v>
       </c>
       <c r="AA240" t="n">
-        <v>8.47181736794987</v>
+        <v>8.51597477929676</v>
       </c>
     </row>
     <row r="241">
@@ -20275,7 +20165,7 @@
         <v>1.38</v>
       </c>
       <c r="AA241" t="n">
-        <v>8.47181736794987</v>
+        <v>8.50447743742535</v>
       </c>
     </row>
     <row r="242">
@@ -20358,7 +20248,7 @@
         <v>1.38</v>
       </c>
       <c r="AA242" t="n">
-        <v>8.47181736794987</v>
+        <v>8.49324189109285</v>
       </c>
     </row>
     <row r="243">
@@ -20441,7 +20331,7 @@
         <v>3.42</v>
       </c>
       <c r="AA243" t="n">
-        <v>8.47181736794987</v>
+        <v>8.58135005109809</v>
       </c>
     </row>
     <row r="244">
@@ -20521,9 +20411,7 @@
       <c r="Z244" t="n">
         <v>3.42</v>
       </c>
-      <c r="AA244" t="n">
-        <v>8.47181736794987</v>
-      </c>
+      <c r="AA244"/>
     </row>
     <row r="245">
       <c r="A245" t="s">
@@ -20605,7 +20493,7 @@
         <v>3.34</v>
       </c>
       <c r="AA245" t="n">
-        <v>8.47181736794987</v>
+        <v>8.54893663778594</v>
       </c>
     </row>
     <row r="246">
@@ -20688,7 +20576,7 @@
         <v>1.44</v>
       </c>
       <c r="AA246" t="n">
-        <v>8.47181736794987</v>
+        <v>8.43374803626653</v>
       </c>
     </row>
     <row r="247">
@@ -20771,7 +20659,7 @@
         <v>1.44</v>
       </c>
       <c r="AA247" t="n">
-        <v>8.47181736794987</v>
+        <v>8.38099506376005</v>
       </c>
     </row>
     <row r="248">
@@ -20854,7 +20742,7 @@
         <v>1.46</v>
       </c>
       <c r="AA248" t="n">
-        <v>8.47181736794987</v>
+        <v>8.49901765253033</v>
       </c>
     </row>
     <row r="249">
@@ -20937,7 +20825,7 @@
         <v>3.36</v>
       </c>
       <c r="AA249" t="n">
-        <v>8.47181736794987</v>
+        <v>8.55433001572202</v>
       </c>
     </row>
     <row r="250">
@@ -21015,9 +20903,7 @@
       <c r="Z250" t="n">
         <v>3.42</v>
       </c>
-      <c r="AA250" t="n">
-        <v>8.47181736794987</v>
-      </c>
+      <c r="AA250"/>
     </row>
     <row r="251">
       <c r="A251" t="s">
@@ -21099,7 +20985,7 @@
         <v>1.5</v>
       </c>
       <c r="AA251" t="n">
-        <v>8.47181736794987</v>
+        <v>8.58866508374119</v>
       </c>
     </row>
     <row r="252">
@@ -21179,9 +21065,7 @@
       <c r="Z252" t="n">
         <v>1.44</v>
       </c>
-      <c r="AA252" t="n">
-        <v>8.47181736794987</v>
-      </c>
+      <c r="AA252"/>
     </row>
     <row r="253">
       <c r="A253" t="s">
@@ -21263,7 +21147,7 @@
         <v>1.48</v>
       </c>
       <c r="AA253" t="n">
-        <v>8.47181736794987</v>
+        <v>8.50644761888913</v>
       </c>
     </row>
     <row r="254">
@@ -21341,9 +21225,7 @@
       <c r="Z254" t="n">
         <v>1.38</v>
       </c>
-      <c r="AA254" t="n">
-        <v>8.47181736794987</v>
-      </c>
+      <c r="AA254"/>
     </row>
     <row r="255">
       <c r="A255" t="s">
@@ -21425,7 +21307,7 @@
         <v>3.28</v>
       </c>
       <c r="AA255" t="n">
-        <v>8.47181736794987</v>
+        <v>8.48335668818597</v>
       </c>
     </row>
     <row r="256">
@@ -21508,7 +21390,7 @@
         <v>3.32</v>
       </c>
       <c r="AA256" t="n">
-        <v>8.47181736794987</v>
+        <v>8.58189346187544</v>
       </c>
     </row>
     <row r="257">
@@ -21584,9 +21466,7 @@
       <c r="Z257" t="n">
         <v>0</v>
       </c>
-      <c r="AA257" t="n">
-        <v>8.47181736794987</v>
-      </c>
+      <c r="AA257"/>
     </row>
     <row r="258">
       <c r="A258" t="s">
@@ -21668,7 +21548,7 @@
         <v>1.52</v>
       </c>
       <c r="AA258" t="n">
-        <v>8.47181736794987</v>
+        <v>8.15440687814768</v>
       </c>
     </row>
     <row r="259">
@@ -21751,7 +21631,7 @@
         <v>3.32</v>
       </c>
       <c r="AA259" t="n">
-        <v>8.47181736794987</v>
+        <v>8.73428481620205</v>
       </c>
     </row>
     <row r="260">
@@ -21834,7 +21714,7 @@
         <v>1.44</v>
       </c>
       <c r="AA260" t="n">
-        <v>8.47181736794987</v>
+        <v>8.60884981243333</v>
       </c>
     </row>
     <row r="261">
@@ -21917,7 +21797,7 @@
         <v>1.38</v>
       </c>
       <c r="AA261" t="n">
-        <v>8.47181736794987</v>
+        <v>8.53755917778794</v>
       </c>
     </row>
     <row r="262">
@@ -22000,7 +21880,7 @@
         <v>3.3</v>
       </c>
       <c r="AA262" t="n">
-        <v>8.47181736794987</v>
+        <v>8.53565844786758</v>
       </c>
     </row>
     <row r="263">
@@ -22083,7 +21963,7 @@
         <v>3.38</v>
       </c>
       <c r="AA263" t="n">
-        <v>8.47181736794987</v>
+        <v>8.55087914511495</v>
       </c>
     </row>
     <row r="264">
@@ -22166,7 +22046,7 @@
         <v>1.46</v>
       </c>
       <c r="AA264" t="n">
-        <v>8.47181736794987</v>
+        <v>8.55588540176421</v>
       </c>
     </row>
     <row r="265">
@@ -22249,7 +22129,7 @@
         <v>3.36</v>
       </c>
       <c r="AA265" t="n">
-        <v>8.47181736794987</v>
+        <v>8.58271032138033</v>
       </c>
     </row>
     <row r="266">
@@ -22332,7 +22212,7 @@
         <v>1.62</v>
       </c>
       <c r="AA266" t="n">
-        <v>8.47181736794987</v>
+        <v>8.27473597015653</v>
       </c>
     </row>
     <row r="267">
@@ -22415,7 +22295,7 @@
         <v>1.62</v>
       </c>
       <c r="AA267" t="n">
-        <v>8.47181736794987</v>
+        <v>8.29427919454792</v>
       </c>
     </row>
     <row r="268">
@@ -22498,7 +22378,7 @@
         <v>1.62</v>
       </c>
       <c r="AA268" t="n">
-        <v>8.47181736794987</v>
+        <v>8.25589786314811</v>
       </c>
     </row>
   </sheetData>

--- a/Project2/TestData.xlsx
+++ b/Project2/TestData.xlsx
@@ -599,7 +599,9 @@
       <c r="Z2" t="n">
         <v>1.48</v>
       </c>
-      <c r="AA2"/>
+      <c r="AA2" t="n">
+        <v>8.5375</v>
+      </c>
     </row>
     <row r="3">
       <c r="A3" t="s">
@@ -681,7 +683,7 @@
         <v>3.04</v>
       </c>
       <c r="AA3" t="n">
-        <v>8.49675691783226</v>
+        <v>8.52</v>
       </c>
     </row>
     <row r="4">
@@ -764,7 +766,7 @@
         <v>1.46</v>
       </c>
       <c r="AA4" t="n">
-        <v>8.56951625909576</v>
+        <v>8.535</v>
       </c>
     </row>
     <row r="5">
@@ -840,7 +842,9 @@
       <c r="Z5" t="n">
         <v>1.48</v>
       </c>
-      <c r="AA5"/>
+      <c r="AA5" t="n">
+        <v>8.4825</v>
+      </c>
     </row>
     <row r="6">
       <c r="A6" t="s">
@@ -922,7 +926,7 @@
         <v>1.46</v>
       </c>
       <c r="AA6" t="n">
-        <v>8.59978411962992</v>
+        <v>8.42428571428571</v>
       </c>
     </row>
     <row r="7">
@@ -1002,7 +1006,9 @@
       <c r="Z7" t="n">
         <v>1.44</v>
       </c>
-      <c r="AA7"/>
+      <c r="AA7" t="n">
+        <v>8.535</v>
+      </c>
     </row>
     <row r="8">
       <c r="A8" t="s">
@@ -1084,7 +1090,7 @@
         <v>3.02</v>
       </c>
       <c r="AA8" t="n">
-        <v>8.46981155603752</v>
+        <v>8.432</v>
       </c>
     </row>
     <row r="9">
@@ -1160,7 +1166,9 @@
       <c r="Z9" t="n">
         <v>3</v>
       </c>
-      <c r="AA9"/>
+      <c r="AA9" t="n">
+        <v>8.4825</v>
+      </c>
     </row>
     <row r="10">
       <c r="A10" t="s">
@@ -1242,7 +1250,7 @@
         <v>3.1</v>
       </c>
       <c r="AA10" t="n">
-        <v>8.5760933889697</v>
+        <v>8.39666666666667</v>
       </c>
     </row>
     <row r="11">
@@ -1322,7 +1330,9 @@
       <c r="Z11" t="n">
         <v>3.12</v>
       </c>
-      <c r="AA11"/>
+      <c r="AA11" t="n">
+        <v>8.4825</v>
+      </c>
     </row>
     <row r="12">
       <c r="A12" t="s">
@@ -1399,7 +1409,9 @@
       <c r="Z12" t="n">
         <v>1.38</v>
       </c>
-      <c r="AA12"/>
+      <c r="AA12" t="n">
+        <v>8.47846153846154</v>
+      </c>
     </row>
     <row r="13">
       <c r="A13" t="s">
@@ -1481,7 +1493,7 @@
         <v>1.42</v>
       </c>
       <c r="AA13" t="n">
-        <v>8.5281865733287</v>
+        <v>8.47846153846154</v>
       </c>
     </row>
     <row r="14">
@@ -1564,7 +1576,7 @@
         <v>1.46</v>
       </c>
       <c r="AA14" t="n">
-        <v>8.59110149678337</v>
+        <v>8.47846153846154</v>
       </c>
     </row>
     <row r="15">
@@ -1647,7 +1659,7 @@
         <v>1.44</v>
       </c>
       <c r="AA15" t="n">
-        <v>8.67465314367232</v>
+        <v>8.6875</v>
       </c>
     </row>
     <row r="16">
@@ -1730,7 +1742,7 @@
         <v>1.6</v>
       </c>
       <c r="AA16" t="n">
-        <v>8.34455076819022</v>
+        <v>8.16571428571429</v>
       </c>
     </row>
     <row r="17">
@@ -1808,7 +1820,9 @@
       <c r="Z17" t="n">
         <v>1.6</v>
       </c>
-      <c r="AA17"/>
+      <c r="AA17" t="n">
+        <v>8.6875</v>
+      </c>
     </row>
     <row r="18">
       <c r="A18" t="s">
@@ -1890,7 +1904,7 @@
         <v>1.4</v>
       </c>
       <c r="AA18" t="n">
-        <v>8.61767550373145</v>
+        <v>8.63125</v>
       </c>
     </row>
     <row r="19">
@@ -1973,7 +1987,7 @@
         <v>1.44</v>
       </c>
       <c r="AA19" t="n">
-        <v>8.61491970470748</v>
+        <v>8.45666666666667</v>
       </c>
     </row>
     <row r="20">
@@ -2056,7 +2070,7 @@
         <v>3.16</v>
       </c>
       <c r="AA20" t="n">
-        <v>8.64886178827138</v>
+        <v>8.4475</v>
       </c>
     </row>
     <row r="21">
@@ -2139,7 +2153,7 @@
         <v>1.46</v>
       </c>
       <c r="AA21" t="n">
-        <v>8.64858591706506</v>
+        <v>8.63125</v>
       </c>
     </row>
     <row r="22">
@@ -2222,7 +2236,7 @@
         <v>1.46</v>
       </c>
       <c r="AA22" t="n">
-        <v>8.63215186127351</v>
+        <v>8.63125</v>
       </c>
     </row>
     <row r="23">
@@ -2302,7 +2316,9 @@
       <c r="Z23" t="n">
         <v>1.36</v>
       </c>
-      <c r="AA23"/>
+      <c r="AA23" t="n">
+        <v>8.78266666666667</v>
+      </c>
     </row>
     <row r="24">
       <c r="A24" t="s">
@@ -2379,7 +2395,9 @@
       <c r="Z24" t="n">
         <v>3.18</v>
       </c>
-      <c r="AA24"/>
+      <c r="AA24" t="n">
+        <v>8.52</v>
+      </c>
     </row>
     <row r="25">
       <c r="A25" t="s">
@@ -2461,7 +2479,7 @@
         <v>1.4</v>
       </c>
       <c r="AA25" t="n">
-        <v>8.65317633501332</v>
+        <v>8.77818181818182</v>
       </c>
     </row>
     <row r="26">
@@ -2544,7 +2562,7 @@
         <v>1.4</v>
       </c>
       <c r="AA26" t="n">
-        <v>8.69522712553604</v>
+        <v>8.77818181818182</v>
       </c>
     </row>
     <row r="27">
@@ -2627,7 +2645,7 @@
         <v>1.4</v>
       </c>
       <c r="AA27" t="n">
-        <v>8.42264429263807</v>
+        <v>8.532</v>
       </c>
     </row>
     <row r="28">
@@ -2710,7 +2728,7 @@
         <v>1.52</v>
       </c>
       <c r="AA28" t="n">
-        <v>8.45755396200021</v>
+        <v>8.532</v>
       </c>
     </row>
     <row r="29">
@@ -2793,7 +2811,7 @@
         <v>3.28</v>
       </c>
       <c r="AA29" t="n">
-        <v>8.63938762426326</v>
+        <v>8.65789473684211</v>
       </c>
     </row>
     <row r="30">
@@ -2873,7 +2891,9 @@
       <c r="Z30" t="n">
         <v>3.24</v>
       </c>
-      <c r="AA30"/>
+      <c r="AA30" t="n">
+        <v>8.65789473684211</v>
+      </c>
     </row>
     <row r="31">
       <c r="A31" t="s">
@@ -2955,7 +2975,7 @@
         <v>3.26</v>
       </c>
       <c r="AA31" t="n">
-        <v>8.69315098092205</v>
+        <v>8.77818181818182</v>
       </c>
     </row>
     <row r="32">
@@ -3038,7 +3058,7 @@
         <v>3.28</v>
       </c>
       <c r="AA32" t="n">
-        <v>8.65776109336521</v>
+        <v>8.65789473684211</v>
       </c>
     </row>
     <row r="33">
@@ -3118,7 +3138,9 @@
       <c r="Z33" t="n">
         <v>3.28</v>
       </c>
-      <c r="AA33"/>
+      <c r="AA33" t="n">
+        <v>8.78266666666667</v>
+      </c>
     </row>
     <row r="34">
       <c r="A34" t="s">
@@ -3197,7 +3219,9 @@
       <c r="Z34" t="n">
         <v>1.5</v>
       </c>
-      <c r="AA34"/>
+      <c r="AA34" t="n">
+        <v>8.65789473684211</v>
+      </c>
     </row>
     <row r="35">
       <c r="A35" t="s">
@@ -3276,7 +3300,9 @@
       <c r="Z35" t="n">
         <v>1.52</v>
       </c>
-      <c r="AA35"/>
+      <c r="AA35" t="n">
+        <v>8.77818181818182</v>
+      </c>
     </row>
     <row r="36">
       <c r="A36" t="s">
@@ -3355,7 +3381,9 @@
       <c r="Z36" t="n">
         <v>1.56</v>
       </c>
-      <c r="AA36"/>
+      <c r="AA36" t="n">
+        <v>8.63125</v>
+      </c>
     </row>
     <row r="37">
       <c r="A37" t="s">
@@ -3437,7 +3465,7 @@
         <v>3</v>
       </c>
       <c r="AA37" t="n">
-        <v>8.56281377709984</v>
+        <v>8.532</v>
       </c>
     </row>
     <row r="38">
@@ -3520,7 +3548,7 @@
         <v>3.08</v>
       </c>
       <c r="AA38" t="n">
-        <v>8.4692758492285</v>
+        <v>8.52</v>
       </c>
     </row>
     <row r="39">
@@ -3603,7 +3631,7 @@
         <v>3.06</v>
       </c>
       <c r="AA39" t="n">
-        <v>8.49918243272193</v>
+        <v>8.52</v>
       </c>
     </row>
     <row r="40">
@@ -3686,7 +3714,7 @@
         <v>3.32</v>
       </c>
       <c r="AA40" t="n">
-        <v>8.66864349276404</v>
+        <v>8.82</v>
       </c>
     </row>
     <row r="41">
@@ -3766,7 +3794,9 @@
       <c r="Z41" t="n">
         <v>3.32</v>
       </c>
-      <c r="AA41"/>
+      <c r="AA41" t="n">
+        <v>8.82</v>
+      </c>
     </row>
     <row r="42">
       <c r="A42" t="s">
@@ -3848,7 +3878,7 @@
         <v>3.34</v>
       </c>
       <c r="AA42" t="n">
-        <v>8.71991039520407</v>
+        <v>8.82</v>
       </c>
     </row>
     <row r="43">
@@ -3928,7 +3958,9 @@
       <c r="Z43" t="n">
         <v>1.38</v>
       </c>
-      <c r="AA43"/>
+      <c r="AA43" t="n">
+        <v>8.57333333333333</v>
+      </c>
     </row>
     <row r="44">
       <c r="A44" t="s">
@@ -4010,7 +4042,7 @@
         <v>1.34</v>
       </c>
       <c r="AA44" t="n">
-        <v>8.58707468511913</v>
+        <v>8.16571428571429</v>
       </c>
     </row>
     <row r="45">
@@ -4093,7 +4125,7 @@
         <v>1.38</v>
       </c>
       <c r="AA45" t="n">
-        <v>8.51190031458737</v>
+        <v>8.16571428571429</v>
       </c>
     </row>
     <row r="46">
@@ -4176,7 +4208,7 @@
         <v>1.42</v>
       </c>
       <c r="AA46" t="n">
-        <v>8.63950050117556</v>
+        <v>8.72272727272727</v>
       </c>
     </row>
     <row r="47">
@@ -4259,7 +4291,7 @@
         <v>3.28</v>
       </c>
       <c r="AA47" t="n">
-        <v>8.65002901184126</v>
+        <v>8.76736842105263</v>
       </c>
     </row>
     <row r="48">
@@ -4342,7 +4374,7 @@
         <v>3.3</v>
       </c>
       <c r="AA48" t="n">
-        <v>8.69274342496967</v>
+        <v>8.76736842105263</v>
       </c>
     </row>
     <row r="49">
@@ -4425,7 +4457,7 @@
         <v>1.48</v>
       </c>
       <c r="AA49" t="n">
-        <v>8.62890557584753</v>
+        <v>8.72272727272727</v>
       </c>
     </row>
     <row r="50">
@@ -4508,7 +4540,7 @@
         <v>3.1</v>
       </c>
       <c r="AA50" t="n">
-        <v>8.64874461248575</v>
+        <v>8.75333333333333</v>
       </c>
     </row>
     <row r="51">
@@ -4591,7 +4623,7 @@
         <v>3.06</v>
       </c>
       <c r="AA51" t="n">
-        <v>8.640919123476</v>
+        <v>8.75333333333333</v>
       </c>
     </row>
     <row r="52">
@@ -4669,7 +4701,9 @@
       <c r="Z52" t="n">
         <v>3.38</v>
       </c>
-      <c r="AA52"/>
+      <c r="AA52" t="n">
+        <v>8.67818181818182</v>
+      </c>
     </row>
     <row r="53">
       <c r="A53" t="s">
@@ -4751,7 +4785,7 @@
         <v>1.42</v>
       </c>
       <c r="AA53" t="n">
-        <v>8.62838595273049</v>
+        <v>8.65789473684211</v>
       </c>
     </row>
     <row r="54">
@@ -4831,7 +4865,9 @@
       <c r="Z54" t="n">
         <v>1.48</v>
       </c>
-      <c r="AA54"/>
+      <c r="AA54" t="n">
+        <v>8.68666666666667</v>
+      </c>
     </row>
     <row r="55">
       <c r="A55" t="s">
@@ -4910,7 +4946,9 @@
       <c r="Z55" t="n">
         <v>1.48</v>
       </c>
-      <c r="AA55"/>
+      <c r="AA55" t="n">
+        <v>8.76736842105263</v>
+      </c>
     </row>
     <row r="56">
       <c r="A56" t="s">
@@ -4992,7 +5030,7 @@
         <v>1.48</v>
       </c>
       <c r="AA56" t="n">
-        <v>8.70261225173995</v>
+        <v>8.76736842105263</v>
       </c>
     </row>
     <row r="57">
@@ -5075,7 +5113,7 @@
         <v>3.28</v>
       </c>
       <c r="AA57" t="n">
-        <v>8.65864115724544</v>
+        <v>8.76736842105263</v>
       </c>
     </row>
     <row r="58">
@@ -5158,7 +5196,7 @@
         <v>1.32</v>
       </c>
       <c r="AA58" t="n">
-        <v>8.46358617345583</v>
+        <v>8.16571428571429</v>
       </c>
     </row>
     <row r="59">
@@ -5241,7 +5279,7 @@
         <v>1.48</v>
       </c>
       <c r="AA59" t="n">
-        <v>8.51627587836069</v>
+        <v>8.67428571428571</v>
       </c>
     </row>
     <row r="60">
@@ -5324,7 +5362,7 @@
         <v>1.38</v>
       </c>
       <c r="AA60" t="n">
-        <v>8.63604076895127</v>
+        <v>8.62</v>
       </c>
     </row>
     <row r="61">
@@ -5407,7 +5445,7 @@
         <v>1.42</v>
       </c>
       <c r="AA61" t="n">
-        <v>8.67948628598496</v>
+        <v>8.83348837209303</v>
       </c>
     </row>
     <row r="62">
@@ -5490,7 +5528,7 @@
         <v>1.42</v>
       </c>
       <c r="AA62" t="n">
-        <v>8.70393112366738</v>
+        <v>8.74628571428572</v>
       </c>
     </row>
     <row r="63">
@@ -5573,7 +5611,7 @@
         <v>1.44</v>
       </c>
       <c r="AA63" t="n">
-        <v>8.67703061352684</v>
+        <v>8.74628571428572</v>
       </c>
     </row>
     <row r="64">
@@ -5656,7 +5694,7 @@
         <v>3.26</v>
       </c>
       <c r="AA64" t="n">
-        <v>8.69563402736558</v>
+        <v>8.83348837209303</v>
       </c>
     </row>
     <row r="65">
@@ -5739,7 +5777,7 @@
         <v>1.44</v>
       </c>
       <c r="AA65" t="n">
-        <v>8.73284496244665</v>
+        <v>8.68</v>
       </c>
     </row>
     <row r="66">
@@ -5822,7 +5860,7 @@
         <v>1.54</v>
       </c>
       <c r="AA66" t="n">
-        <v>8.69393980609786</v>
+        <v>8.83348837209303</v>
       </c>
     </row>
     <row r="67">
@@ -5905,7 +5943,7 @@
         <v>1.5</v>
       </c>
       <c r="AA67" t="n">
-        <v>8.67705358509629</v>
+        <v>8.74628571428572</v>
       </c>
     </row>
     <row r="68">
@@ -5988,7 +6026,7 @@
         <v>1.44</v>
       </c>
       <c r="AA68" t="n">
-        <v>8.64820883666257</v>
+        <v>8.56842105263158</v>
       </c>
     </row>
     <row r="69">
@@ -6071,7 +6109,7 @@
         <v>1.46</v>
       </c>
       <c r="AA69" t="n">
-        <v>8.65065034575394</v>
+        <v>8.67818181818182</v>
       </c>
     </row>
     <row r="70">
@@ -6154,7 +6192,7 @@
         <v>1.44</v>
       </c>
       <c r="AA70" t="n">
-        <v>8.66991401409323</v>
+        <v>8.58571428571429</v>
       </c>
     </row>
     <row r="71">
@@ -6237,7 +6275,7 @@
         <v>1.44</v>
       </c>
       <c r="AA71" t="n">
-        <v>8.62257722459344</v>
+        <v>8.56842105263158</v>
       </c>
     </row>
     <row r="72">
@@ -6320,7 +6358,7 @@
         <v>1.32</v>
       </c>
       <c r="AA72" t="n">
-        <v>8.39436161170638</v>
+        <v>8.46285714285714</v>
       </c>
     </row>
     <row r="73">
@@ -6403,7 +6441,7 @@
         <v>1.42</v>
       </c>
       <c r="AA73" t="n">
-        <v>8.50750643884669</v>
+        <v>8.39666666666667</v>
       </c>
     </row>
     <row r="74">
@@ -6486,7 +6524,7 @@
         <v>3.32</v>
       </c>
       <c r="AA74" t="n">
-        <v>8.68867521125907</v>
+        <v>8.53063829787234</v>
       </c>
     </row>
     <row r="75">
@@ -6569,7 +6607,7 @@
         <v>3.34</v>
       </c>
       <c r="AA75" t="n">
-        <v>8.62108682258905</v>
+        <v>8.53063829787234</v>
       </c>
     </row>
     <row r="76">
@@ -6652,7 +6690,7 @@
         <v>3.26</v>
       </c>
       <c r="AA76" t="n">
-        <v>8.58388250730951</v>
+        <v>8.52</v>
       </c>
     </row>
     <row r="77">
@@ -6735,7 +6773,7 @@
         <v>3.14</v>
       </c>
       <c r="AA77" t="n">
-        <v>8.52134474384746</v>
+        <v>8.52</v>
       </c>
     </row>
     <row r="78">
@@ -6815,7 +6853,9 @@
       <c r="Z78" t="n">
         <v>3.36</v>
       </c>
-      <c r="AA78"/>
+      <c r="AA78" t="n">
+        <v>8.6675</v>
+      </c>
     </row>
     <row r="79">
       <c r="A79" t="s">
@@ -6897,7 +6937,7 @@
         <v>1.36</v>
       </c>
       <c r="AA79" t="n">
-        <v>8.72178625695351</v>
+        <v>8.6025</v>
       </c>
     </row>
     <row r="80">
@@ -6980,7 +7020,7 @@
         <v>3.24</v>
       </c>
       <c r="AA80" t="n">
-        <v>8.69349402293119</v>
+        <v>8.76736842105263</v>
       </c>
     </row>
     <row r="81">
@@ -7063,7 +7103,7 @@
         <v>3.3</v>
       </c>
       <c r="AA81" t="n">
-        <v>8.65421210717093</v>
+        <v>8.78266666666667</v>
       </c>
     </row>
     <row r="82">
@@ -7146,7 +7186,7 @@
         <v>1.38</v>
       </c>
       <c r="AA82" t="n">
-        <v>8.74420482104936</v>
+        <v>8.78266666666667</v>
       </c>
     </row>
     <row r="83">
@@ -7229,7 +7269,7 @@
         <v>1.26</v>
       </c>
       <c r="AA83" t="n">
-        <v>8.65718667376539</v>
+        <v>8.76307692307692</v>
       </c>
     </row>
     <row r="84">
@@ -7312,7 +7352,7 @@
         <v>1.26</v>
       </c>
       <c r="AA84" t="n">
-        <v>8.65176508836113</v>
+        <v>8.76307692307692</v>
       </c>
     </row>
     <row r="85">
@@ -7395,7 +7435,7 @@
         <v>1.32</v>
       </c>
       <c r="AA85" t="n">
-        <v>8.64305526362458</v>
+        <v>8.76307692307692</v>
       </c>
     </row>
     <row r="86">
@@ -7469,7 +7509,9 @@
       <c r="Z86" t="n">
         <v>1.44</v>
       </c>
-      <c r="AA86"/>
+      <c r="AA86" t="n">
+        <v>8.83348837209303</v>
+      </c>
     </row>
     <row r="87">
       <c r="A87" t="s">
@@ -7548,7 +7590,9 @@
       <c r="Z87" t="n">
         <v>1.42</v>
       </c>
-      <c r="AA87"/>
+      <c r="AA87" t="n">
+        <v>8.71628571428572</v>
+      </c>
     </row>
     <row r="88">
       <c r="A88" t="s">
@@ -7630,7 +7674,7 @@
         <v>3.18</v>
       </c>
       <c r="AA88" t="n">
-        <v>8.7884094802602</v>
+        <v>8.76736842105263</v>
       </c>
     </row>
     <row r="89">
@@ -7713,7 +7757,7 @@
         <v>1.44</v>
       </c>
       <c r="AA89" t="n">
-        <v>8.6745082114023</v>
+        <v>8.70740740740741</v>
       </c>
     </row>
     <row r="90">
@@ -7796,7 +7840,7 @@
         <v>2.86</v>
       </c>
       <c r="AA90" t="n">
-        <v>8.49623063578359</v>
+        <v>8.76307692307692</v>
       </c>
     </row>
     <row r="91">
@@ -7879,7 +7923,7 @@
         <v>1.4</v>
       </c>
       <c r="AA91" t="n">
-        <v>8.75270065726259</v>
+        <v>8.68666666666667</v>
       </c>
     </row>
     <row r="92">
@@ -7959,7 +8003,9 @@
       <c r="Z92" t="n">
         <v>2.84</v>
       </c>
-      <c r="AA92"/>
+      <c r="AA92" t="n">
+        <v>8.52</v>
+      </c>
     </row>
     <row r="93">
       <c r="A93" t="s">
@@ -8016,7 +8062,9 @@
       <c r="Z93" t="n">
         <v>0</v>
       </c>
-      <c r="AA93"/>
+      <c r="AA93" t="n">
+        <v>8.16571428571429</v>
+      </c>
     </row>
     <row r="94">
       <c r="A94" t="s">
@@ -8098,7 +8146,7 @@
         <v>3</v>
       </c>
       <c r="AA94" t="n">
-        <v>8.49778391324989</v>
+        <v>8.52</v>
       </c>
     </row>
     <row r="95">
@@ -8178,7 +8226,9 @@
       <c r="Z95" t="n">
         <v>3</v>
       </c>
-      <c r="AA95"/>
+      <c r="AA95" t="n">
+        <v>8.52</v>
+      </c>
     </row>
     <row r="96">
       <c r="A96" t="s">
@@ -8257,7 +8307,9 @@
       <c r="Z96" t="n">
         <v>3.28</v>
       </c>
-      <c r="AA96"/>
+      <c r="AA96" t="n">
+        <v>8.56842105263158</v>
+      </c>
     </row>
     <row r="97">
       <c r="A97" t="s">
@@ -8339,7 +8391,7 @@
         <v>1.48</v>
       </c>
       <c r="AA97" t="n">
-        <v>8.69986678484706</v>
+        <v>8.76736842105263</v>
       </c>
     </row>
     <row r="98">
@@ -8417,7 +8469,9 @@
       <c r="Z98" t="n">
         <v>3.26</v>
       </c>
-      <c r="AA98"/>
+      <c r="AA98" t="n">
+        <v>8.6675</v>
+      </c>
     </row>
     <row r="99">
       <c r="A99" t="s">
@@ -8499,7 +8553,7 @@
         <v>1.44</v>
       </c>
       <c r="AA99" t="n">
-        <v>8.67875215669445</v>
+        <v>8.71628571428572</v>
       </c>
     </row>
     <row r="100">
@@ -8579,7 +8633,9 @@
       <c r="Z100" t="n">
         <v>3.04</v>
       </c>
-      <c r="AA100"/>
+      <c r="AA100" t="n">
+        <v>8.52</v>
+      </c>
     </row>
     <row r="101">
       <c r="A101" t="s">
@@ -8661,7 +8717,7 @@
         <v>3.04</v>
       </c>
       <c r="AA101" t="n">
-        <v>8.63676802810687</v>
+        <v>8.52</v>
       </c>
     </row>
     <row r="102">
@@ -8741,7 +8797,9 @@
       <c r="Z102" t="n">
         <v>3.24</v>
       </c>
-      <c r="AA102"/>
+      <c r="AA102" t="n">
+        <v>8.76736842105263</v>
+      </c>
     </row>
     <row r="103">
       <c r="A103" t="s">
@@ -8823,7 +8881,7 @@
         <v>3.1</v>
       </c>
       <c r="AA103" t="n">
-        <v>8.73339178576497</v>
+        <v>8.72947368421053</v>
       </c>
     </row>
     <row r="104">
@@ -8906,7 +8964,7 @@
         <v>1.44</v>
       </c>
       <c r="AA104" t="n">
-        <v>8.66102628356343</v>
+        <v>8.68666666666667</v>
       </c>
     </row>
     <row r="105">
@@ -8989,7 +9047,7 @@
         <v>1.36</v>
       </c>
       <c r="AA105" t="n">
-        <v>8.69510197880299</v>
+        <v>8.68666666666667</v>
       </c>
     </row>
     <row r="106">
@@ -9072,7 +9130,7 @@
         <v>1.42</v>
       </c>
       <c r="AA106" t="n">
-        <v>8.74373494014374</v>
+        <v>8.74628571428572</v>
       </c>
     </row>
     <row r="107">
@@ -9155,7 +9213,7 @@
         <v>1.36</v>
       </c>
       <c r="AA107" t="n">
-        <v>8.76471957039628</v>
+        <v>8.83348837209303</v>
       </c>
     </row>
     <row r="108">
@@ -9238,7 +9296,7 @@
         <v>1.38</v>
       </c>
       <c r="AA108" t="n">
-        <v>8.46800197684118</v>
+        <v>8.67428571428571</v>
       </c>
     </row>
     <row r="109">
@@ -9321,7 +9379,7 @@
         <v>1.44</v>
       </c>
       <c r="AA109" t="n">
-        <v>8.61252960458937</v>
+        <v>8.49375</v>
       </c>
     </row>
     <row r="110">
@@ -9404,7 +9462,7 @@
         <v>1.38</v>
       </c>
       <c r="AA110" t="n">
-        <v>8.57567846311134</v>
+        <v>8.49375</v>
       </c>
     </row>
     <row r="111">
@@ -9484,7 +9542,9 @@
       <c r="Z111" t="n">
         <v>1.5</v>
       </c>
-      <c r="AA111"/>
+      <c r="AA111" t="n">
+        <v>8.46285714285714</v>
+      </c>
     </row>
     <row r="112">
       <c r="A112" t="s">
@@ -9566,7 +9626,7 @@
         <v>1.34</v>
       </c>
       <c r="AA112" t="n">
-        <v>8.6005010137282</v>
+        <v>8.70740740740741</v>
       </c>
     </row>
     <row r="113">
@@ -9649,7 +9709,7 @@
         <v>1.34</v>
       </c>
       <c r="AA113" t="n">
-        <v>8.64651579761498</v>
+        <v>8.70740740740741</v>
       </c>
     </row>
     <row r="114">
@@ -9732,7 +9792,7 @@
         <v>3.08</v>
       </c>
       <c r="AA114" t="n">
-        <v>8.66742861294619</v>
+        <v>8.60571428571428</v>
       </c>
     </row>
     <row r="115">
@@ -9815,7 +9875,7 @@
         <v>3.04</v>
       </c>
       <c r="AA115" t="n">
-        <v>8.73797499083812</v>
+        <v>8.71628571428572</v>
       </c>
     </row>
     <row r="116">
@@ -9893,7 +9953,9 @@
       <c r="Z116" t="n">
         <v>1.26</v>
       </c>
-      <c r="AA116"/>
+      <c r="AA116" t="n">
+        <v>8.58571428571429</v>
+      </c>
     </row>
     <row r="117">
       <c r="A117" t="s">
@@ -9975,7 +10037,7 @@
         <v>1.38</v>
       </c>
       <c r="AA117" t="n">
-        <v>8.70296471496862</v>
+        <v>8.73444444444444</v>
       </c>
     </row>
     <row r="118">
@@ -10058,7 +10120,7 @@
         <v>1.4</v>
       </c>
       <c r="AA118" t="n">
-        <v>8.67374044853215</v>
+        <v>8.76222222222222</v>
       </c>
     </row>
     <row r="119">
@@ -10138,7 +10200,9 @@
       <c r="Z119" t="n">
         <v>3.16</v>
       </c>
-      <c r="AA119"/>
+      <c r="AA119" t="n">
+        <v>8.71628571428572</v>
+      </c>
     </row>
     <row r="120">
       <c r="A120" t="s">
@@ -10220,7 +10284,7 @@
         <v>1.36</v>
       </c>
       <c r="AA120" t="n">
-        <v>8.76458333032576</v>
+        <v>8.76222222222222</v>
       </c>
     </row>
     <row r="121">
@@ -10303,7 +10367,7 @@
         <v>1.44</v>
       </c>
       <c r="AA121" t="n">
-        <v>8.7626581851208</v>
+        <v>8.74628571428572</v>
       </c>
     </row>
     <row r="122">
@@ -10383,7 +10447,9 @@
       <c r="Z122" t="n">
         <v>1.46</v>
       </c>
-      <c r="AA122"/>
+      <c r="AA122" t="n">
+        <v>8.71628571428572</v>
+      </c>
     </row>
     <row r="123">
       <c r="A123" t="s">
@@ -10465,7 +10531,7 @@
         <v>1.38</v>
       </c>
       <c r="AA123" t="n">
-        <v>8.62571875797661</v>
+        <v>8.70740740740741</v>
       </c>
     </row>
     <row r="124">
@@ -10548,7 +10614,7 @@
         <v>1.38</v>
       </c>
       <c r="AA124" t="n">
-        <v>8.69953930180564</v>
+        <v>8.70740740740741</v>
       </c>
     </row>
     <row r="125">
@@ -10631,7 +10697,7 @@
         <v>1.36</v>
       </c>
       <c r="AA125" t="n">
-        <v>8.55968929120194</v>
+        <v>8.67925925925926</v>
       </c>
     </row>
     <row r="126">
@@ -10714,7 +10780,7 @@
         <v>1.32</v>
       </c>
       <c r="AA126" t="n">
-        <v>8.56004371794556</v>
+        <v>8.49487179487179</v>
       </c>
     </row>
     <row r="127">
@@ -10797,7 +10863,7 @@
         <v>2.96</v>
       </c>
       <c r="AA127" t="n">
-        <v>8.4467256252008</v>
+        <v>8.4528813559322</v>
       </c>
     </row>
     <row r="128">
@@ -10880,7 +10946,7 @@
         <v>1.46</v>
       </c>
       <c r="AA128" t="n">
-        <v>8.42093048625359</v>
+        <v>8.51555555555556</v>
       </c>
     </row>
     <row r="129">
@@ -10960,7 +11026,9 @@
       <c r="Z129" t="n">
         <v>1.64</v>
       </c>
-      <c r="AA129"/>
+      <c r="AA129" t="n">
+        <v>8.29555555555556</v>
+      </c>
     </row>
     <row r="130">
       <c r="A130" t="s">
@@ -11042,7 +11110,7 @@
         <v>3.04</v>
       </c>
       <c r="AA130" t="n">
-        <v>8.56466667449775</v>
+        <v>8.471</v>
       </c>
     </row>
     <row r="131">
@@ -11125,7 +11193,7 @@
         <v>3.06</v>
       </c>
       <c r="AA131" t="n">
-        <v>8.50411465939708</v>
+        <v>8.471</v>
       </c>
     </row>
     <row r="132">
@@ -11205,7 +11273,9 @@
       <c r="Z132" t="n">
         <v>1.22</v>
       </c>
-      <c r="AA132"/>
+      <c r="AA132" t="n">
+        <v>8.67925925925926</v>
+      </c>
     </row>
     <row r="133">
       <c r="A133" t="s">
@@ -11284,7 +11354,9 @@
       <c r="Z133" t="n">
         <v>1.3</v>
       </c>
-      <c r="AA133"/>
+      <c r="AA133" t="n">
+        <v>8.67925925925926</v>
+      </c>
     </row>
     <row r="134">
       <c r="A134" t="s">
@@ -11363,7 +11435,9 @@
       <c r="Z134" t="n">
         <v>3.06</v>
       </c>
-      <c r="AA134"/>
+      <c r="AA134" t="n">
+        <v>8.58625</v>
+      </c>
     </row>
     <row r="135">
       <c r="A135" t="s">
@@ -11440,7 +11514,9 @@
       <c r="Z135" t="n">
         <v>1.44</v>
       </c>
-      <c r="AA135"/>
+      <c r="AA135" t="n">
+        <v>8.32526315789474</v>
+      </c>
     </row>
     <row r="136">
       <c r="A136" t="s">
@@ -11522,7 +11598,7 @@
         <v>2.98</v>
       </c>
       <c r="AA136" t="n">
-        <v>8.40803095525683</v>
+        <v>8.4225</v>
       </c>
     </row>
     <row r="137">
@@ -11605,7 +11681,7 @@
         <v>2.96</v>
       </c>
       <c r="AA137" t="n">
-        <v>8.49881539820162</v>
+        <v>8.53739130434783</v>
       </c>
     </row>
     <row r="138">
@@ -11683,7 +11759,9 @@
       <c r="Z138" t="n">
         <v>3.02</v>
       </c>
-      <c r="AA138"/>
+      <c r="AA138" t="n">
+        <v>8.416</v>
+      </c>
     </row>
     <row r="139">
       <c r="A139" t="s">
@@ -11762,7 +11840,9 @@
       <c r="Z139" t="n">
         <v>3.08</v>
       </c>
-      <c r="AA139"/>
+      <c r="AA139" t="n">
+        <v>8.416</v>
+      </c>
     </row>
     <row r="140">
       <c r="A140" t="s">
@@ -11841,7 +11921,9 @@
       <c r="Z140" t="n">
         <v>3.04</v>
       </c>
-      <c r="AA140"/>
+      <c r="AA140" t="n">
+        <v>8.416</v>
+      </c>
     </row>
     <row r="141">
       <c r="A141" t="s">
@@ -11920,7 +12002,9 @@
       <c r="Z141" t="n">
         <v>3.08</v>
       </c>
-      <c r="AA141"/>
+      <c r="AA141" t="n">
+        <v>8.416</v>
+      </c>
     </row>
     <row r="142">
       <c r="A142" t="s">
@@ -12002,7 +12086,7 @@
         <v>1.34</v>
       </c>
       <c r="AA142" t="n">
-        <v>8.46140326712927</v>
+        <v>8.49487179487179</v>
       </c>
     </row>
     <row r="143">
@@ -12085,7 +12169,7 @@
         <v>1.32</v>
       </c>
       <c r="AA143" t="n">
-        <v>8.57138015118186</v>
+        <v>8.523</v>
       </c>
     </row>
     <row r="144">
@@ -12168,7 +12252,7 @@
         <v>1.34</v>
       </c>
       <c r="AA144" t="n">
-        <v>8.43531473223141</v>
+        <v>8.523</v>
       </c>
     </row>
     <row r="145">
@@ -12251,7 +12335,7 @@
         <v>0</v>
       </c>
       <c r="AA145" t="n">
-        <v>8.49981335955473</v>
+        <v>8.523</v>
       </c>
     </row>
     <row r="146">
@@ -12334,7 +12418,7 @@
         <v>3.06</v>
       </c>
       <c r="AA146" t="n">
-        <v>8.30534878386048</v>
+        <v>8.272</v>
       </c>
     </row>
     <row r="147">
@@ -12417,7 +12501,7 @@
         <v>3.1</v>
       </c>
       <c r="AA147" t="n">
-        <v>8.39642409753845</v>
+        <v>8.53739130434783</v>
       </c>
     </row>
     <row r="148">
@@ -12500,7 +12584,7 @@
         <v>3.08</v>
       </c>
       <c r="AA148" t="n">
-        <v>8.33272653664148</v>
+        <v>8.53739130434783</v>
       </c>
     </row>
     <row r="149">
@@ -12583,7 +12667,7 @@
         <v>1.38</v>
       </c>
       <c r="AA149" t="n">
-        <v>8.57729679173214</v>
+        <v>8.523</v>
       </c>
     </row>
     <row r="150">
@@ -12663,7 +12747,9 @@
       <c r="Z150" t="n">
         <v>1.36</v>
       </c>
-      <c r="AA150"/>
+      <c r="AA150" t="n">
+        <v>8.322</v>
+      </c>
     </row>
     <row r="151">
       <c r="A151" t="s">
@@ -12745,7 +12831,7 @@
         <v>1.36</v>
       </c>
       <c r="AA151" t="n">
-        <v>8.55395979576564</v>
+        <v>8.55882352941176</v>
       </c>
     </row>
     <row r="152">
@@ -12828,7 +12914,7 @@
         <v>1.3</v>
       </c>
       <c r="AA152" t="n">
-        <v>8.59242728499506</v>
+        <v>8.55882352941176</v>
       </c>
     </row>
     <row r="153">
@@ -12911,7 +12997,7 @@
         <v>1.42</v>
       </c>
       <c r="AA153" t="n">
-        <v>8.54075334285909</v>
+        <v>8.44363636363637</v>
       </c>
     </row>
     <row r="154">
@@ -12994,7 +13080,7 @@
         <v>2.98</v>
       </c>
       <c r="AA154" t="n">
-        <v>8.37712350068096</v>
+        <v>8.44363636363637</v>
       </c>
     </row>
     <row r="155">
@@ -13077,7 +13163,7 @@
         <v>1.32</v>
       </c>
       <c r="AA155" t="n">
-        <v>8.650193736842</v>
+        <v>8.56</v>
       </c>
     </row>
     <row r="156">
@@ -13160,7 +13246,7 @@
         <v>1.68</v>
       </c>
       <c r="AA156" t="n">
-        <v>8.36624927138643</v>
+        <v>8.44363636363637</v>
       </c>
     </row>
     <row r="157">
@@ -13243,7 +13329,7 @@
         <v>1.66</v>
       </c>
       <c r="AA157" t="n">
-        <v>8.50139278684718</v>
+        <v>8.44363636363637</v>
       </c>
     </row>
     <row r="158">
@@ -13326,7 +13412,7 @@
         <v>1.72</v>
       </c>
       <c r="AA158" t="n">
-        <v>8.53962184841737</v>
+        <v>8.44363636363637</v>
       </c>
     </row>
     <row r="159">
@@ -13409,7 +13495,7 @@
         <v>1.36</v>
       </c>
       <c r="AA159" t="n">
-        <v>8.53778722929381</v>
+        <v>8.50333333333333</v>
       </c>
     </row>
     <row r="160">
@@ -13492,7 +13578,7 @@
         <v>1.32</v>
       </c>
       <c r="AA160" t="n">
-        <v>8.54458100255043</v>
+        <v>8.56</v>
       </c>
     </row>
     <row r="161">
@@ -13575,7 +13661,7 @@
         <v>1.36</v>
       </c>
       <c r="AA161" t="n">
-        <v>8.54657375764272</v>
+        <v>8.49487179487179</v>
       </c>
     </row>
     <row r="162">
@@ -13655,7 +13741,9 @@
       <c r="Z162" t="n">
         <v>1.3</v>
       </c>
-      <c r="AA162"/>
+      <c r="AA162" t="n">
+        <v>8.523</v>
+      </c>
     </row>
     <row r="163">
       <c r="A163" t="s">
@@ -13734,7 +13822,9 @@
       <c r="Z163" t="n">
         <v>3.2</v>
       </c>
-      <c r="AA163"/>
+      <c r="AA163" t="n">
+        <v>8.50666666666666</v>
+      </c>
     </row>
     <row r="164">
       <c r="A164" t="s">
@@ -13816,7 +13906,7 @@
         <v>1.32</v>
       </c>
       <c r="AA164" t="n">
-        <v>8.55482386155371</v>
+        <v>8.67925925925926</v>
       </c>
     </row>
     <row r="165">
@@ -13899,7 +13989,7 @@
         <v>1.28</v>
       </c>
       <c r="AA165" t="n">
-        <v>8.4655009192977</v>
+        <v>8.523</v>
       </c>
     </row>
     <row r="166">
@@ -13982,7 +14072,7 @@
         <v>1.3</v>
       </c>
       <c r="AA166" t="n">
-        <v>8.5275271423948</v>
+        <v>8.67925925925926</v>
       </c>
     </row>
     <row r="167">
@@ -14062,7 +14152,9 @@
       <c r="Z167" t="n">
         <v>1.28</v>
       </c>
-      <c r="AA167"/>
+      <c r="AA167" t="n">
+        <v>8.523</v>
+      </c>
     </row>
     <row r="168">
       <c r="A168" t="s">
@@ -14144,7 +14236,7 @@
         <v>1.38</v>
       </c>
       <c r="AA168" t="n">
-        <v>8.44286572263398</v>
+        <v>8.49487179487179</v>
       </c>
     </row>
     <row r="169">
@@ -14227,7 +14319,7 @@
         <v>3.14</v>
       </c>
       <c r="AA169" t="n">
-        <v>8.56748058574861</v>
+        <v>8.76857142857143</v>
       </c>
     </row>
     <row r="170">
@@ -14310,7 +14402,7 @@
         <v>3.2</v>
       </c>
       <c r="AA170" t="n">
-        <v>8.57710519274459</v>
+        <v>8.52666666666667</v>
       </c>
     </row>
     <row r="171">
@@ -14393,7 +14485,7 @@
         <v>3.04</v>
       </c>
       <c r="AA171" t="n">
-        <v>8.53945873076904</v>
+        <v>8.76857142857143</v>
       </c>
     </row>
     <row r="172">
@@ -14473,7 +14565,9 @@
       <c r="Z172" t="n">
         <v>1.34</v>
       </c>
-      <c r="AA172"/>
+      <c r="AA172" t="n">
+        <v>8.49487179487179</v>
+      </c>
     </row>
     <row r="173">
       <c r="A173" t="s">
@@ -14552,7 +14646,9 @@
       <c r="Z173" t="n">
         <v>1.38</v>
       </c>
-      <c r="AA173"/>
+      <c r="AA173" t="n">
+        <v>8.49487179487179</v>
+      </c>
     </row>
     <row r="174">
       <c r="A174" t="s">
@@ -14634,7 +14730,7 @@
         <v>1.44</v>
       </c>
       <c r="AA174" t="n">
-        <v>8.47178137517216</v>
+        <v>8.29285714285714</v>
       </c>
     </row>
     <row r="175">
@@ -14717,7 +14813,7 @@
         <v>1.42</v>
       </c>
       <c r="AA175" t="n">
-        <v>8.53635255155205</v>
+        <v>8.44363636363637</v>
       </c>
     </row>
     <row r="176">
@@ -14800,7 +14896,7 @@
         <v>1.36</v>
       </c>
       <c r="AA176" t="n">
-        <v>8.55568772284082</v>
+        <v>8.59333333333333</v>
       </c>
     </row>
     <row r="177">
@@ -14883,7 +14979,7 @@
         <v>1.3</v>
       </c>
       <c r="AA177" t="n">
-        <v>8.61357005348383</v>
+        <v>8.67925925925926</v>
       </c>
     </row>
     <row r="178">
@@ -14966,7 +15062,7 @@
         <v>1.42</v>
       </c>
       <c r="AA178" t="n">
-        <v>8.48559849140015</v>
+        <v>8.44363636363637</v>
       </c>
     </row>
     <row r="179">
@@ -15049,7 +15145,7 @@
         <v>1.44</v>
       </c>
       <c r="AA179" t="n">
-        <v>8.51704267491467</v>
+        <v>8.44363636363637</v>
       </c>
     </row>
     <row r="180">
@@ -15129,7 +15225,9 @@
       <c r="Z180" t="n">
         <v>3.12</v>
       </c>
-      <c r="AA180"/>
+      <c r="AA180" t="n">
+        <v>8.44</v>
+      </c>
     </row>
     <row r="181">
       <c r="A181" t="s">
@@ -15211,7 +15309,7 @@
         <v>1.3</v>
       </c>
       <c r="AA181" t="n">
-        <v>8.40265077447373</v>
+        <v>8.4325</v>
       </c>
     </row>
     <row r="182">
@@ -15294,7 +15392,7 @@
         <v>1.38</v>
       </c>
       <c r="AA182" t="n">
-        <v>8.4290668059272</v>
+        <v>8.50333333333333</v>
       </c>
     </row>
     <row r="183">
@@ -15377,7 +15475,7 @@
         <v>3.2</v>
       </c>
       <c r="AA183" t="n">
-        <v>8.49956073872227</v>
+        <v>8.50666666666666</v>
       </c>
     </row>
     <row r="184">
@@ -15460,7 +15558,7 @@
         <v>1.36</v>
       </c>
       <c r="AA184" t="n">
-        <v>8.48242412908409</v>
+        <v>8.50333333333333</v>
       </c>
     </row>
     <row r="185">
@@ -15543,7 +15641,7 @@
         <v>1.34</v>
       </c>
       <c r="AA185" t="n">
-        <v>8.48308571314856</v>
+        <v>8.50333333333333</v>
       </c>
     </row>
     <row r="186">
@@ -15623,7 +15721,9 @@
       <c r="Z186" t="n">
         <v>1.34</v>
       </c>
-      <c r="AA186"/>
+      <c r="AA186" t="n">
+        <v>8.50333333333333</v>
+      </c>
     </row>
     <row r="187">
       <c r="A187" t="s">
@@ -15705,7 +15805,7 @@
         <v>1.56</v>
       </c>
       <c r="AA187" t="n">
-        <v>8.33387310914056</v>
+        <v>8.29285714285714</v>
       </c>
     </row>
     <row r="188">
@@ -15788,7 +15888,7 @@
         <v>1.84</v>
       </c>
       <c r="AA188" t="n">
-        <v>8.373036365641</v>
+        <v>8.32526315789474</v>
       </c>
     </row>
     <row r="189">
@@ -15871,7 +15971,7 @@
         <v>3.18</v>
       </c>
       <c r="AA189" t="n">
-        <v>8.55139998050446</v>
+        <v>8.50666666666666</v>
       </c>
     </row>
     <row r="190">
@@ -15954,7 +16054,7 @@
         <v>1.36</v>
       </c>
       <c r="AA190" t="n">
-        <v>8.4512637913786</v>
+        <v>8.50333333333333</v>
       </c>
     </row>
     <row r="191">
@@ -16037,7 +16137,7 @@
         <v>3.08</v>
       </c>
       <c r="AA191" t="n">
-        <v>8.40660323800523</v>
+        <v>8.29285714285714</v>
       </c>
     </row>
     <row r="192">
@@ -16120,7 +16220,7 @@
         <v>3.06</v>
       </c>
       <c r="AA192" t="n">
-        <v>8.44449783409622</v>
+        <v>8.29285714285714</v>
       </c>
     </row>
     <row r="193">
@@ -16203,7 +16303,7 @@
         <v>1.38</v>
       </c>
       <c r="AA193" t="n">
-        <v>8.57427558752688</v>
+        <v>8.48142857142857</v>
       </c>
     </row>
     <row r="194">
@@ -16286,7 +16386,7 @@
         <v>3.18</v>
       </c>
       <c r="AA194" t="n">
-        <v>8.56329334179787</v>
+        <v>8.50666666666666</v>
       </c>
     </row>
     <row r="195">
@@ -16366,7 +16466,9 @@
       <c r="Z195" t="n">
         <v>3.22</v>
       </c>
-      <c r="AA195"/>
+      <c r="AA195" t="n">
+        <v>8.50666666666666</v>
+      </c>
     </row>
     <row r="196">
       <c r="A196" t="s">
@@ -16448,7 +16550,7 @@
         <v>3.32</v>
       </c>
       <c r="AA196" t="n">
-        <v>8.54637208668893</v>
+        <v>8.416</v>
       </c>
     </row>
     <row r="197">
@@ -16531,7 +16633,7 @@
         <v>1.46</v>
       </c>
       <c r="AA197" t="n">
-        <v>8.39173589658441</v>
+        <v>8.29285714285714</v>
       </c>
     </row>
     <row r="198">
@@ -16614,7 +16716,7 @@
         <v>2.98</v>
       </c>
       <c r="AA198" t="n">
-        <v>8.35542499361046</v>
+        <v>8.29285714285714</v>
       </c>
     </row>
     <row r="199">
@@ -16697,7 +16799,7 @@
         <v>2.92</v>
       </c>
       <c r="AA199" t="n">
-        <v>8.4009425671777</v>
+        <v>8.2775</v>
       </c>
     </row>
     <row r="200">
@@ -16780,7 +16882,7 @@
         <v>1.42</v>
       </c>
       <c r="AA200" t="n">
-        <v>8.42564312954685</v>
+        <v>8.29285714285714</v>
       </c>
     </row>
     <row r="201">
@@ -16863,7 +16965,7 @@
         <v>1.4</v>
       </c>
       <c r="AA201" t="n">
-        <v>8.5401067057268</v>
+        <v>8.44</v>
       </c>
     </row>
     <row r="202">
@@ -16946,7 +17048,7 @@
         <v>3.32</v>
       </c>
       <c r="AA202" t="n">
-        <v>8.48155690894847</v>
+        <v>8.416</v>
       </c>
     </row>
     <row r="203">
@@ -17029,7 +17131,7 @@
         <v>3.28</v>
       </c>
       <c r="AA203" t="n">
-        <v>8.53814366315824</v>
+        <v>8.50666666666666</v>
       </c>
     </row>
     <row r="204">
@@ -17109,7 +17211,9 @@
       <c r="Z204" t="n">
         <v>1.4</v>
       </c>
-      <c r="AA204"/>
+      <c r="AA204" t="n">
+        <v>8.21846153846154</v>
+      </c>
     </row>
     <row r="205">
       <c r="A205" t="s">
@@ -17191,7 +17295,7 @@
         <v>1.6</v>
       </c>
       <c r="AA205" t="n">
-        <v>8.33713686414433</v>
+        <v>8.43818181818182</v>
       </c>
     </row>
     <row r="206">
@@ -17274,7 +17378,7 @@
         <v>1.46</v>
       </c>
       <c r="AA206" t="n">
-        <v>8.33359751272842</v>
+        <v>8.51666666666667</v>
       </c>
     </row>
     <row r="207">
@@ -17357,7 +17461,7 @@
         <v>3.26</v>
       </c>
       <c r="AA207" t="n">
-        <v>8.43261301169017</v>
+        <v>8.50666666666666</v>
       </c>
     </row>
     <row r="208">
@@ -17440,7 +17544,7 @@
         <v>3.26</v>
       </c>
       <c r="AA208" t="n">
-        <v>8.42055556433266</v>
+        <v>8.50666666666666</v>
       </c>
     </row>
     <row r="209">
@@ -17520,7 +17624,9 @@
       <c r="Z209" t="n">
         <v>3.02</v>
       </c>
-      <c r="AA209"/>
+      <c r="AA209" t="n">
+        <v>8.29285714285714</v>
+      </c>
     </row>
     <row r="210">
       <c r="A210" t="s">
@@ -17602,7 +17708,7 @@
         <v>1.44</v>
       </c>
       <c r="AA210" t="n">
-        <v>8.50029992712722</v>
+        <v>8.59333333333334</v>
       </c>
     </row>
     <row r="211">
@@ -17685,7 +17791,7 @@
         <v>1.36</v>
       </c>
       <c r="AA211" t="n">
-        <v>8.2037630374212</v>
+        <v>8.322</v>
       </c>
     </row>
     <row r="212">
@@ -17768,7 +17874,7 @@
         <v>1.5</v>
       </c>
       <c r="AA212" t="n">
-        <v>8.30533800681298</v>
+        <v>8.29285714285714</v>
       </c>
     </row>
     <row r="213">
@@ -17851,7 +17957,7 @@
         <v>1.48</v>
       </c>
       <c r="AA213" t="n">
-        <v>8.33633020527515</v>
+        <v>8.29285714285714</v>
       </c>
     </row>
     <row r="214">
@@ -17934,7 +18040,7 @@
         <v>1.5</v>
       </c>
       <c r="AA214" t="n">
-        <v>8.26815323411506</v>
+        <v>8.42571428571428</v>
       </c>
     </row>
     <row r="215">
@@ -18017,7 +18123,7 @@
         <v>1.32</v>
       </c>
       <c r="AA215" t="n">
-        <v>8.5213471075732</v>
+        <v>8.33166666666667</v>
       </c>
     </row>
     <row r="216">
@@ -18100,7 +18206,7 @@
         <v>3.26</v>
       </c>
       <c r="AA216" t="n">
-        <v>8.40681576169717</v>
+        <v>8.52857142857143</v>
       </c>
     </row>
     <row r="217">
@@ -18183,7 +18289,7 @@
         <v>3.04</v>
       </c>
       <c r="AA217" t="n">
-        <v>8.36936731390925</v>
+        <v>8.29285714285714</v>
       </c>
     </row>
     <row r="218">
@@ -18266,7 +18372,7 @@
         <v>1.44</v>
       </c>
       <c r="AA218" t="n">
-        <v>8.39639592392332</v>
+        <v>8.29285714285714</v>
       </c>
     </row>
     <row r="219">
@@ -18349,7 +18455,7 @@
         <v>1.38</v>
       </c>
       <c r="AA219" t="n">
-        <v>8.33483317851866</v>
+        <v>8.33166666666667</v>
       </c>
     </row>
     <row r="220">
@@ -18432,7 +18538,7 @@
         <v>3.38</v>
       </c>
       <c r="AA220" t="n">
-        <v>8.59806738043462</v>
+        <v>8.53757575757576</v>
       </c>
     </row>
     <row r="221">
@@ -18515,7 +18621,7 @@
         <v>3.4</v>
       </c>
       <c r="AA221" t="n">
-        <v>8.51997434934029</v>
+        <v>8.471</v>
       </c>
     </row>
     <row r="222">
@@ -18598,7 +18704,7 @@
         <v>1.3</v>
       </c>
       <c r="AA222" t="n">
-        <v>8.56291956528042</v>
+        <v>8.48142857142857</v>
       </c>
     </row>
     <row r="223">
@@ -18681,7 +18787,7 @@
         <v>1.36</v>
       </c>
       <c r="AA223" t="n">
-        <v>8.52223251911122</v>
+        <v>8.54727272727273</v>
       </c>
     </row>
     <row r="224">
@@ -18764,7 +18870,7 @@
         <v>1.36</v>
       </c>
       <c r="AA224" t="n">
-        <v>8.45005478634382</v>
+        <v>8.54727272727273</v>
       </c>
     </row>
     <row r="225">
@@ -18847,7 +18953,7 @@
         <v>1.82</v>
       </c>
       <c r="AA225" t="n">
-        <v>8.43165222270397</v>
+        <v>8.29555555555556</v>
       </c>
     </row>
     <row r="226">
@@ -18930,7 +19036,7 @@
         <v>3.42</v>
       </c>
       <c r="AA226" t="n">
-        <v>8.5855031097942</v>
+        <v>8.62717948717949</v>
       </c>
     </row>
     <row r="227">
@@ -19013,7 +19119,7 @@
         <v>3.3</v>
       </c>
       <c r="AA227" t="n">
-        <v>8.56992611686586</v>
+        <v>8.39217391304348</v>
       </c>
     </row>
     <row r="228">
@@ -19091,7 +19197,9 @@
       <c r="Z228" t="n">
         <v>1.44</v>
       </c>
-      <c r="AA228"/>
+      <c r="AA228" t="n">
+        <v>8.4528813559322</v>
+      </c>
     </row>
     <row r="229">
       <c r="A229" t="s">
@@ -19173,7 +19281,7 @@
         <v>1.3</v>
       </c>
       <c r="AA229" t="n">
-        <v>8.42123163979496</v>
+        <v>8.48142857142857</v>
       </c>
     </row>
     <row r="230">
@@ -19256,7 +19364,7 @@
         <v>1.36</v>
       </c>
       <c r="AA230" t="n">
-        <v>8.51047007052118</v>
+        <v>8.48142857142857</v>
       </c>
     </row>
     <row r="231">
@@ -19339,7 +19447,7 @@
         <v>1.36</v>
       </c>
       <c r="AA231" t="n">
-        <v>8.47778671411669</v>
+        <v>8.48142857142857</v>
       </c>
     </row>
     <row r="232">
@@ -19422,7 +19530,7 @@
         <v>1.36</v>
       </c>
       <c r="AA232" t="n">
-        <v>8.50106918168182</v>
+        <v>8.48142857142857</v>
       </c>
     </row>
     <row r="233">
@@ -19502,7 +19610,9 @@
       <c r="Z233" t="n">
         <v>1.36</v>
       </c>
-      <c r="AA233"/>
+      <c r="AA233" t="n">
+        <v>8.48142857142857</v>
+      </c>
     </row>
     <row r="234">
       <c r="A234" t="s">
@@ -19584,7 +19694,7 @@
         <v>1.36</v>
       </c>
       <c r="AA234" t="n">
-        <v>8.50684680326685</v>
+        <v>8.54727272727273</v>
       </c>
     </row>
     <row r="235">
@@ -19667,7 +19777,7 @@
         <v>3.42</v>
       </c>
       <c r="AA235" t="n">
-        <v>8.54577077989214</v>
+        <v>8.53757575757576</v>
       </c>
     </row>
     <row r="236">
@@ -19750,7 +19860,7 @@
         <v>3.38</v>
       </c>
       <c r="AA236" t="n">
-        <v>8.5204067480663</v>
+        <v>8.52833333333333</v>
       </c>
     </row>
     <row r="237">
@@ -19833,7 +19943,7 @@
         <v>1.62</v>
       </c>
       <c r="AA237" t="n">
-        <v>8.44714697273557</v>
+        <v>8.59333333333334</v>
       </c>
     </row>
     <row r="238">
@@ -19916,7 +20026,7 @@
         <v>1.32</v>
       </c>
       <c r="AA238" t="n">
-        <v>8.62246459852199</v>
+        <v>8.688</v>
       </c>
     </row>
     <row r="239">
@@ -19999,7 +20109,7 @@
         <v>1.34</v>
       </c>
       <c r="AA239" t="n">
-        <v>8.60148866998948</v>
+        <v>8.688</v>
       </c>
     </row>
     <row r="240">
@@ -20082,7 +20192,7 @@
         <v>1.5</v>
       </c>
       <c r="AA240" t="n">
-        <v>8.51597477929676</v>
+        <v>8.4528813559322</v>
       </c>
     </row>
     <row r="241">
@@ -20165,7 +20275,7 @@
         <v>1.38</v>
       </c>
       <c r="AA241" t="n">
-        <v>8.50447743742535</v>
+        <v>8.48142857142857</v>
       </c>
     </row>
     <row r="242">
@@ -20248,7 +20358,7 @@
         <v>1.38</v>
       </c>
       <c r="AA242" t="n">
-        <v>8.49324189109285</v>
+        <v>8.48142857142857</v>
       </c>
     </row>
     <row r="243">
@@ -20331,7 +20441,7 @@
         <v>3.42</v>
       </c>
       <c r="AA243" t="n">
-        <v>8.58135005109809</v>
+        <v>8.53757575757576</v>
       </c>
     </row>
     <row r="244">
@@ -20411,7 +20521,9 @@
       <c r="Z244" t="n">
         <v>3.42</v>
       </c>
-      <c r="AA244"/>
+      <c r="AA244" t="n">
+        <v>8.50666666666666</v>
+      </c>
     </row>
     <row r="245">
       <c r="A245" t="s">
@@ -20493,7 +20605,7 @@
         <v>3.34</v>
       </c>
       <c r="AA245" t="n">
-        <v>8.54893663778594</v>
+        <v>8.59333333333333</v>
       </c>
     </row>
     <row r="246">
@@ -20576,7 +20688,7 @@
         <v>1.44</v>
       </c>
       <c r="AA246" t="n">
-        <v>8.43374803626653</v>
+        <v>8.4528813559322</v>
       </c>
     </row>
     <row r="247">
@@ -20659,7 +20771,7 @@
         <v>1.44</v>
       </c>
       <c r="AA247" t="n">
-        <v>8.38099506376005</v>
+        <v>8.4528813559322</v>
       </c>
     </row>
     <row r="248">
@@ -20742,7 +20854,7 @@
         <v>1.46</v>
       </c>
       <c r="AA248" t="n">
-        <v>8.49901765253033</v>
+        <v>8.4528813559322</v>
       </c>
     </row>
     <row r="249">
@@ -20825,7 +20937,7 @@
         <v>3.36</v>
       </c>
       <c r="AA249" t="n">
-        <v>8.55433001572202</v>
+        <v>8.53757575757576</v>
       </c>
     </row>
     <row r="250">
@@ -20903,7 +21015,9 @@
       <c r="Z250" t="n">
         <v>3.42</v>
       </c>
-      <c r="AA250"/>
+      <c r="AA250" t="n">
+        <v>8.58625</v>
+      </c>
     </row>
     <row r="251">
       <c r="A251" t="s">
@@ -20985,7 +21099,7 @@
         <v>1.5</v>
       </c>
       <c r="AA251" t="n">
-        <v>8.58866508374119</v>
+        <v>8.4528813559322</v>
       </c>
     </row>
     <row r="252">
@@ -21065,7 +21179,9 @@
       <c r="Z252" t="n">
         <v>1.44</v>
       </c>
-      <c r="AA252"/>
+      <c r="AA252" t="n">
+        <v>8.4528813559322</v>
+      </c>
     </row>
     <row r="253">
       <c r="A253" t="s">
@@ -21147,7 +21263,7 @@
         <v>1.48</v>
       </c>
       <c r="AA253" t="n">
-        <v>8.50644761888913</v>
+        <v>8.39217391304348</v>
       </c>
     </row>
     <row r="254">
@@ -21225,7 +21341,9 @@
       <c r="Z254" t="n">
         <v>1.38</v>
       </c>
-      <c r="AA254"/>
+      <c r="AA254" t="n">
+        <v>8.54727272727273</v>
+      </c>
     </row>
     <row r="255">
       <c r="A255" t="s">
@@ -21307,7 +21425,7 @@
         <v>3.28</v>
       </c>
       <c r="AA255" t="n">
-        <v>8.48335668818597</v>
+        <v>8.52833333333333</v>
       </c>
     </row>
     <row r="256">
@@ -21390,7 +21508,7 @@
         <v>3.32</v>
       </c>
       <c r="AA256" t="n">
-        <v>8.58189346187544</v>
+        <v>8.53757575757576</v>
       </c>
     </row>
     <row r="257">
@@ -21466,7 +21584,9 @@
       <c r="Z257" t="n">
         <v>0</v>
       </c>
-      <c r="AA257"/>
+      <c r="AA257" t="n">
+        <v>8.688</v>
+      </c>
     </row>
     <row r="258">
       <c r="A258" t="s">
@@ -21548,7 +21668,7 @@
         <v>1.52</v>
       </c>
       <c r="AA258" t="n">
-        <v>8.15440687814768</v>
+        <v>8.39217391304348</v>
       </c>
     </row>
     <row r="259">
@@ -21631,7 +21751,7 @@
         <v>3.32</v>
       </c>
       <c r="AA259" t="n">
-        <v>8.73428481620205</v>
+        <v>8.62717948717949</v>
       </c>
     </row>
     <row r="260">
@@ -21714,7 +21834,7 @@
         <v>1.44</v>
       </c>
       <c r="AA260" t="n">
-        <v>8.60884981243333</v>
+        <v>8.39217391304348</v>
       </c>
     </row>
     <row r="261">
@@ -21797,7 +21917,7 @@
         <v>1.38</v>
       </c>
       <c r="AA261" t="n">
-        <v>8.53755917778794</v>
+        <v>8.48142857142857</v>
       </c>
     </row>
     <row r="262">
@@ -21880,7 +22000,7 @@
         <v>3.3</v>
       </c>
       <c r="AA262" t="n">
-        <v>8.53565844786758</v>
+        <v>8.62717948717949</v>
       </c>
     </row>
     <row r="263">
@@ -21963,7 +22083,7 @@
         <v>3.38</v>
       </c>
       <c r="AA263" t="n">
-        <v>8.55087914511495</v>
+        <v>8.62717948717949</v>
       </c>
     </row>
     <row r="264">
@@ -22046,7 +22166,7 @@
         <v>1.46</v>
       </c>
       <c r="AA264" t="n">
-        <v>8.55588540176421</v>
+        <v>8.4528813559322</v>
       </c>
     </row>
     <row r="265">
@@ -22129,7 +22249,7 @@
         <v>3.36</v>
       </c>
       <c r="AA265" t="n">
-        <v>8.58271032138033</v>
+        <v>8.62717948717949</v>
       </c>
     </row>
     <row r="266">
@@ -22212,7 +22332,7 @@
         <v>1.62</v>
       </c>
       <c r="AA266" t="n">
-        <v>8.27473597015653</v>
+        <v>8.29555555555556</v>
       </c>
     </row>
     <row r="267">
@@ -22295,7 +22415,7 @@
         <v>1.62</v>
       </c>
       <c r="AA267" t="n">
-        <v>8.29427919454792</v>
+        <v>8.32526315789474</v>
       </c>
     </row>
     <row r="268">
@@ -22378,7 +22498,7 @@
         <v>1.62</v>
       </c>
       <c r="AA268" t="n">
-        <v>8.25589786314811</v>
+        <v>8.21846153846154</v>
       </c>
     </row>
   </sheetData>

--- a/Project2/TestData.xlsx
+++ b/Project2/TestData.xlsx
@@ -600,7 +600,7 @@
         <v>1.48</v>
       </c>
       <c r="AA2" t="n">
-        <v>8.5375</v>
+        <v>-0.0106408706558393</v>
       </c>
     </row>
     <row r="3">
@@ -683,7 +683,7 @@
         <v>3.04</v>
       </c>
       <c r="AA3" t="n">
-        <v>8.52</v>
+        <v>-0.0106408706558393</v>
       </c>
     </row>
     <row r="4">
@@ -766,7 +766,7 @@
         <v>1.46</v>
       </c>
       <c r="AA4" t="n">
-        <v>8.535</v>
+        <v>-0.0106408706558393</v>
       </c>
     </row>
     <row r="5">
@@ -843,7 +843,7 @@
         <v>1.48</v>
       </c>
       <c r="AA5" t="n">
-        <v>8.4825</v>
+        <v>-0.0106408706558393</v>
       </c>
     </row>
     <row r="6">
@@ -926,7 +926,7 @@
         <v>1.46</v>
       </c>
       <c r="AA6" t="n">
-        <v>8.42428571428571</v>
+        <v>-0.0106408706558393</v>
       </c>
     </row>
     <row r="7">
@@ -1007,7 +1007,7 @@
         <v>1.44</v>
       </c>
       <c r="AA7" t="n">
-        <v>8.535</v>
+        <v>-0.0106408706558393</v>
       </c>
     </row>
     <row r="8">
@@ -1090,7 +1090,7 @@
         <v>3.02</v>
       </c>
       <c r="AA8" t="n">
-        <v>8.432</v>
+        <v>-0.0106408706558393</v>
       </c>
     </row>
     <row r="9">
@@ -1167,7 +1167,7 @@
         <v>3</v>
       </c>
       <c r="AA9" t="n">
-        <v>8.4825</v>
+        <v>-0.0106408706558393</v>
       </c>
     </row>
     <row r="10">
@@ -1250,7 +1250,7 @@
         <v>3.1</v>
       </c>
       <c r="AA10" t="n">
-        <v>8.39666666666667</v>
+        <v>-0.0106408706558393</v>
       </c>
     </row>
     <row r="11">
@@ -1331,7 +1331,7 @@
         <v>3.12</v>
       </c>
       <c r="AA11" t="n">
-        <v>8.4825</v>
+        <v>-0.0106408706558393</v>
       </c>
     </row>
     <row r="12">
@@ -1410,7 +1410,7 @@
         <v>1.38</v>
       </c>
       <c r="AA12" t="n">
-        <v>8.47846153846154</v>
+        <v>-0.0106408706558393</v>
       </c>
     </row>
     <row r="13">
@@ -1493,7 +1493,7 @@
         <v>1.42</v>
       </c>
       <c r="AA13" t="n">
-        <v>8.47846153846154</v>
+        <v>-0.0106408706558393</v>
       </c>
     </row>
     <row r="14">
@@ -1576,7 +1576,7 @@
         <v>1.46</v>
       </c>
       <c r="AA14" t="n">
-        <v>8.47846153846154</v>
+        <v>-0.0106408706558393</v>
       </c>
     </row>
     <row r="15">
@@ -1659,7 +1659,7 @@
         <v>1.44</v>
       </c>
       <c r="AA15" t="n">
-        <v>8.6875</v>
+        <v>-0.0106408706558393</v>
       </c>
     </row>
     <row r="16">
@@ -1742,7 +1742,7 @@
         <v>1.6</v>
       </c>
       <c r="AA16" t="n">
-        <v>8.16571428571429</v>
+        <v>-0.0106408706558393</v>
       </c>
     </row>
     <row r="17">
@@ -1821,7 +1821,7 @@
         <v>1.6</v>
       </c>
       <c r="AA17" t="n">
-        <v>8.6875</v>
+        <v>-0.0106408706558393</v>
       </c>
     </row>
     <row r="18">
@@ -1904,7 +1904,7 @@
         <v>1.4</v>
       </c>
       <c r="AA18" t="n">
-        <v>8.63125</v>
+        <v>-0.0106408706558393</v>
       </c>
     </row>
     <row r="19">
@@ -1987,7 +1987,7 @@
         <v>1.44</v>
       </c>
       <c r="AA19" t="n">
-        <v>8.45666666666667</v>
+        <v>-0.0106408706558393</v>
       </c>
     </row>
     <row r="20">
@@ -2070,7 +2070,7 @@
         <v>3.16</v>
       </c>
       <c r="AA20" t="n">
-        <v>8.4475</v>
+        <v>-0.0106408706558393</v>
       </c>
     </row>
     <row r="21">
@@ -2153,7 +2153,7 @@
         <v>1.46</v>
       </c>
       <c r="AA21" t="n">
-        <v>8.63125</v>
+        <v>-0.0106408706558393</v>
       </c>
     </row>
     <row r="22">
@@ -2236,7 +2236,7 @@
         <v>1.46</v>
       </c>
       <c r="AA22" t="n">
-        <v>8.63125</v>
+        <v>-0.0106408706558393</v>
       </c>
     </row>
     <row r="23">
@@ -2317,7 +2317,7 @@
         <v>1.36</v>
       </c>
       <c r="AA23" t="n">
-        <v>8.78266666666667</v>
+        <v>-0.0106408706558393</v>
       </c>
     </row>
     <row r="24">
@@ -2396,7 +2396,7 @@
         <v>3.18</v>
       </c>
       <c r="AA24" t="n">
-        <v>8.52</v>
+        <v>-0.0106408706558393</v>
       </c>
     </row>
     <row r="25">
@@ -2479,7 +2479,7 @@
         <v>1.4</v>
       </c>
       <c r="AA25" t="n">
-        <v>8.77818181818182</v>
+        <v>-0.0106408706558393</v>
       </c>
     </row>
     <row r="26">
@@ -2562,7 +2562,7 @@
         <v>1.4</v>
       </c>
       <c r="AA26" t="n">
-        <v>8.77818181818182</v>
+        <v>-0.0106408706558393</v>
       </c>
     </row>
     <row r="27">
@@ -2645,7 +2645,7 @@
         <v>1.4</v>
       </c>
       <c r="AA27" t="n">
-        <v>8.532</v>
+        <v>-0.0106408706558393</v>
       </c>
     </row>
     <row r="28">
@@ -2728,7 +2728,7 @@
         <v>1.52</v>
       </c>
       <c r="AA28" t="n">
-        <v>8.532</v>
+        <v>-0.0106408706558393</v>
       </c>
     </row>
     <row r="29">
@@ -2811,7 +2811,7 @@
         <v>3.28</v>
       </c>
       <c r="AA29" t="n">
-        <v>8.65789473684211</v>
+        <v>-0.0106408706558393</v>
       </c>
     </row>
     <row r="30">
@@ -2892,7 +2892,7 @@
         <v>3.24</v>
       </c>
       <c r="AA30" t="n">
-        <v>8.65789473684211</v>
+        <v>-0.0106408706558393</v>
       </c>
     </row>
     <row r="31">
@@ -2975,7 +2975,7 @@
         <v>3.26</v>
       </c>
       <c r="AA31" t="n">
-        <v>8.77818181818182</v>
+        <v>-0.0106408706558393</v>
       </c>
     </row>
     <row r="32">
@@ -3058,7 +3058,7 @@
         <v>3.28</v>
       </c>
       <c r="AA32" t="n">
-        <v>8.65789473684211</v>
+        <v>-0.0106408706558393</v>
       </c>
     </row>
     <row r="33">
@@ -3139,7 +3139,7 @@
         <v>3.28</v>
       </c>
       <c r="AA33" t="n">
-        <v>8.78266666666667</v>
+        <v>-0.0106408706558393</v>
       </c>
     </row>
     <row r="34">
@@ -3220,7 +3220,7 @@
         <v>1.5</v>
       </c>
       <c r="AA34" t="n">
-        <v>8.65789473684211</v>
+        <v>-0.0106408706558393</v>
       </c>
     </row>
     <row r="35">
@@ -3301,7 +3301,7 @@
         <v>1.52</v>
       </c>
       <c r="AA35" t="n">
-        <v>8.77818181818182</v>
+        <v>-0.0106408706558393</v>
       </c>
     </row>
     <row r="36">
@@ -3382,7 +3382,7 @@
         <v>1.56</v>
       </c>
       <c r="AA36" t="n">
-        <v>8.63125</v>
+        <v>-0.0106408706558393</v>
       </c>
     </row>
     <row r="37">
@@ -3465,7 +3465,7 @@
         <v>3</v>
       </c>
       <c r="AA37" t="n">
-        <v>8.532</v>
+        <v>-0.0106408706558393</v>
       </c>
     </row>
     <row r="38">
@@ -3548,7 +3548,7 @@
         <v>3.08</v>
       </c>
       <c r="AA38" t="n">
-        <v>8.52</v>
+        <v>-0.0106408706558393</v>
       </c>
     </row>
     <row r="39">
@@ -3631,7 +3631,7 @@
         <v>3.06</v>
       </c>
       <c r="AA39" t="n">
-        <v>8.52</v>
+        <v>-0.0106408706558393</v>
       </c>
     </row>
     <row r="40">
@@ -3714,7 +3714,7 @@
         <v>3.32</v>
       </c>
       <c r="AA40" t="n">
-        <v>8.82</v>
+        <v>-0.0106408706558393</v>
       </c>
     </row>
     <row r="41">
@@ -3795,7 +3795,7 @@
         <v>3.32</v>
       </c>
       <c r="AA41" t="n">
-        <v>8.82</v>
+        <v>-0.0106408706558393</v>
       </c>
     </row>
     <row r="42">
@@ -3878,7 +3878,7 @@
         <v>3.34</v>
       </c>
       <c r="AA42" t="n">
-        <v>8.82</v>
+        <v>-0.0106408706558393</v>
       </c>
     </row>
     <row r="43">
@@ -3959,7 +3959,7 @@
         <v>1.38</v>
       </c>
       <c r="AA43" t="n">
-        <v>8.57333333333333</v>
+        <v>-0.0106408706558393</v>
       </c>
     </row>
     <row r="44">
@@ -4042,7 +4042,7 @@
         <v>1.34</v>
       </c>
       <c r="AA44" t="n">
-        <v>8.16571428571429</v>
+        <v>-0.0106408706558393</v>
       </c>
     </row>
     <row r="45">
@@ -4125,7 +4125,7 @@
         <v>1.38</v>
       </c>
       <c r="AA45" t="n">
-        <v>8.16571428571429</v>
+        <v>-0.0106408706558393</v>
       </c>
     </row>
     <row r="46">
@@ -4208,7 +4208,7 @@
         <v>1.42</v>
       </c>
       <c r="AA46" t="n">
-        <v>8.72272727272727</v>
+        <v>-0.0106408706558393</v>
       </c>
     </row>
     <row r="47">
@@ -4291,7 +4291,7 @@
         <v>3.28</v>
       </c>
       <c r="AA47" t="n">
-        <v>8.76736842105263</v>
+        <v>-0.0106408706558393</v>
       </c>
     </row>
     <row r="48">
@@ -4374,7 +4374,7 @@
         <v>3.3</v>
       </c>
       <c r="AA48" t="n">
-        <v>8.76736842105263</v>
+        <v>-0.0106408706558393</v>
       </c>
     </row>
     <row r="49">
@@ -4457,7 +4457,7 @@
         <v>1.48</v>
       </c>
       <c r="AA49" t="n">
-        <v>8.72272727272727</v>
+        <v>-0.0106408706558393</v>
       </c>
     </row>
     <row r="50">
@@ -4540,7 +4540,7 @@
         <v>3.1</v>
       </c>
       <c r="AA50" t="n">
-        <v>8.75333333333333</v>
+        <v>-0.0106408706558393</v>
       </c>
     </row>
     <row r="51">
@@ -4623,7 +4623,7 @@
         <v>3.06</v>
       </c>
       <c r="AA51" t="n">
-        <v>8.75333333333333</v>
+        <v>-0.0106408706558393</v>
       </c>
     </row>
     <row r="52">
@@ -4702,7 +4702,7 @@
         <v>3.38</v>
       </c>
       <c r="AA52" t="n">
-        <v>8.67818181818182</v>
+        <v>-0.0106408706558393</v>
       </c>
     </row>
     <row r="53">
@@ -4785,7 +4785,7 @@
         <v>1.42</v>
       </c>
       <c r="AA53" t="n">
-        <v>8.65789473684211</v>
+        <v>-0.0106408706558393</v>
       </c>
     </row>
     <row r="54">
@@ -4866,7 +4866,7 @@
         <v>1.48</v>
       </c>
       <c r="AA54" t="n">
-        <v>8.68666666666667</v>
+        <v>-0.0106408706558393</v>
       </c>
     </row>
     <row r="55">
@@ -4947,7 +4947,7 @@
         <v>1.48</v>
       </c>
       <c r="AA55" t="n">
-        <v>8.76736842105263</v>
+        <v>-0.0106408706558393</v>
       </c>
     </row>
     <row r="56">
@@ -5030,7 +5030,7 @@
         <v>1.48</v>
       </c>
       <c r="AA56" t="n">
-        <v>8.76736842105263</v>
+        <v>-0.0106408706558393</v>
       </c>
     </row>
     <row r="57">
@@ -5113,7 +5113,7 @@
         <v>3.28</v>
       </c>
       <c r="AA57" t="n">
-        <v>8.76736842105263</v>
+        <v>-0.0106408706558393</v>
       </c>
     </row>
     <row r="58">
@@ -5196,7 +5196,7 @@
         <v>1.32</v>
       </c>
       <c r="AA58" t="n">
-        <v>8.16571428571429</v>
+        <v>-0.0106408706558393</v>
       </c>
     </row>
     <row r="59">
@@ -5279,7 +5279,7 @@
         <v>1.48</v>
       </c>
       <c r="AA59" t="n">
-        <v>8.67428571428571</v>
+        <v>-0.0106408706558393</v>
       </c>
     </row>
     <row r="60">
@@ -5362,7 +5362,7 @@
         <v>1.38</v>
       </c>
       <c r="AA60" t="n">
-        <v>8.62</v>
+        <v>-0.0106408706558393</v>
       </c>
     </row>
     <row r="61">
@@ -5445,7 +5445,7 @@
         <v>1.42</v>
       </c>
       <c r="AA61" t="n">
-        <v>8.83348837209303</v>
+        <v>-0.0106408706558393</v>
       </c>
     </row>
     <row r="62">
@@ -5528,7 +5528,7 @@
         <v>1.42</v>
       </c>
       <c r="AA62" t="n">
-        <v>8.74628571428572</v>
+        <v>-0.0106408706558393</v>
       </c>
     </row>
     <row r="63">
@@ -5611,7 +5611,7 @@
         <v>1.44</v>
       </c>
       <c r="AA63" t="n">
-        <v>8.74628571428572</v>
+        <v>-0.0106408706558393</v>
       </c>
     </row>
     <row r="64">
@@ -5694,7 +5694,7 @@
         <v>3.26</v>
       </c>
       <c r="AA64" t="n">
-        <v>8.83348837209303</v>
+        <v>-0.0106408706558393</v>
       </c>
     </row>
     <row r="65">
@@ -5777,7 +5777,7 @@
         <v>1.44</v>
       </c>
       <c r="AA65" t="n">
-        <v>8.68</v>
+        <v>-0.0106408706558393</v>
       </c>
     </row>
     <row r="66">
@@ -5860,7 +5860,7 @@
         <v>1.54</v>
       </c>
       <c r="AA66" t="n">
-        <v>8.83348837209303</v>
+        <v>-0.0106408706558393</v>
       </c>
     </row>
     <row r="67">
@@ -5943,7 +5943,7 @@
         <v>1.5</v>
       </c>
       <c r="AA67" t="n">
-        <v>8.74628571428572</v>
+        <v>-0.0106408706558393</v>
       </c>
     </row>
     <row r="68">
@@ -6026,7 +6026,7 @@
         <v>1.44</v>
       </c>
       <c r="AA68" t="n">
-        <v>8.56842105263158</v>
+        <v>-0.0106408706558393</v>
       </c>
     </row>
     <row r="69">
@@ -6109,7 +6109,7 @@
         <v>1.46</v>
       </c>
       <c r="AA69" t="n">
-        <v>8.67818181818182</v>
+        <v>-0.0106408706558393</v>
       </c>
     </row>
     <row r="70">
@@ -6192,7 +6192,7 @@
         <v>1.44</v>
       </c>
       <c r="AA70" t="n">
-        <v>8.58571428571429</v>
+        <v>-0.0106408706558393</v>
       </c>
     </row>
     <row r="71">
@@ -6275,7 +6275,7 @@
         <v>1.44</v>
       </c>
       <c r="AA71" t="n">
-        <v>8.56842105263158</v>
+        <v>-0.0106408706558393</v>
       </c>
     </row>
     <row r="72">
@@ -6358,7 +6358,7 @@
         <v>1.32</v>
       </c>
       <c r="AA72" t="n">
-        <v>8.46285714285714</v>
+        <v>-0.0106408706558393</v>
       </c>
     </row>
     <row r="73">
@@ -6441,7 +6441,7 @@
         <v>1.42</v>
       </c>
       <c r="AA73" t="n">
-        <v>8.39666666666667</v>
+        <v>-0.0106408706558393</v>
       </c>
     </row>
     <row r="74">
@@ -6524,7 +6524,7 @@
         <v>3.32</v>
       </c>
       <c r="AA74" t="n">
-        <v>8.53063829787234</v>
+        <v>-0.0106408706558393</v>
       </c>
     </row>
     <row r="75">
@@ -6607,7 +6607,7 @@
         <v>3.34</v>
       </c>
       <c r="AA75" t="n">
-        <v>8.53063829787234</v>
+        <v>-0.0106408706558393</v>
       </c>
     </row>
     <row r="76">
@@ -6690,7 +6690,7 @@
         <v>3.26</v>
       </c>
       <c r="AA76" t="n">
-        <v>8.52</v>
+        <v>-0.0106408706558393</v>
       </c>
     </row>
     <row r="77">
@@ -6773,7 +6773,7 @@
         <v>3.14</v>
       </c>
       <c r="AA77" t="n">
-        <v>8.52</v>
+        <v>-0.0106408706558393</v>
       </c>
     </row>
     <row r="78">
@@ -6854,7 +6854,7 @@
         <v>3.36</v>
       </c>
       <c r="AA78" t="n">
-        <v>8.6675</v>
+        <v>-0.0106408706558393</v>
       </c>
     </row>
     <row r="79">
@@ -6937,7 +6937,7 @@
         <v>1.36</v>
       </c>
       <c r="AA79" t="n">
-        <v>8.6025</v>
+        <v>-0.0106408706558393</v>
       </c>
     </row>
     <row r="80">
@@ -7020,7 +7020,7 @@
         <v>3.24</v>
       </c>
       <c r="AA80" t="n">
-        <v>8.76736842105263</v>
+        <v>-0.0106408706558393</v>
       </c>
     </row>
     <row r="81">
@@ -7103,7 +7103,7 @@
         <v>3.3</v>
       </c>
       <c r="AA81" t="n">
-        <v>8.78266666666667</v>
+        <v>-0.0106408706558393</v>
       </c>
     </row>
     <row r="82">
@@ -7186,7 +7186,7 @@
         <v>1.38</v>
       </c>
       <c r="AA82" t="n">
-        <v>8.78266666666667</v>
+        <v>-0.0106408706558393</v>
       </c>
     </row>
     <row r="83">
@@ -7269,7 +7269,7 @@
         <v>1.26</v>
       </c>
       <c r="AA83" t="n">
-        <v>8.76307692307692</v>
+        <v>-0.0106408706558393</v>
       </c>
     </row>
     <row r="84">
@@ -7352,7 +7352,7 @@
         <v>1.26</v>
       </c>
       <c r="AA84" t="n">
-        <v>8.76307692307692</v>
+        <v>-0.0106408706558393</v>
       </c>
     </row>
     <row r="85">
@@ -7435,7 +7435,7 @@
         <v>1.32</v>
       </c>
       <c r="AA85" t="n">
-        <v>8.76307692307692</v>
+        <v>-0.0106408706558393</v>
       </c>
     </row>
     <row r="86">
@@ -7510,7 +7510,7 @@
         <v>1.44</v>
       </c>
       <c r="AA86" t="n">
-        <v>8.83348837209303</v>
+        <v>-0.0106408706558393</v>
       </c>
     </row>
     <row r="87">
@@ -7591,7 +7591,7 @@
         <v>1.42</v>
       </c>
       <c r="AA87" t="n">
-        <v>8.71628571428572</v>
+        <v>-0.0106408706558393</v>
       </c>
     </row>
     <row r="88">
@@ -7674,7 +7674,7 @@
         <v>3.18</v>
       </c>
       <c r="AA88" t="n">
-        <v>8.76736842105263</v>
+        <v>-0.0106408706558393</v>
       </c>
     </row>
     <row r="89">
@@ -7757,7 +7757,7 @@
         <v>1.44</v>
       </c>
       <c r="AA89" t="n">
-        <v>8.70740740740741</v>
+        <v>-0.0106408706558393</v>
       </c>
     </row>
     <row r="90">
@@ -7840,7 +7840,7 @@
         <v>2.86</v>
       </c>
       <c r="AA90" t="n">
-        <v>8.76307692307692</v>
+        <v>-0.0106408706558393</v>
       </c>
     </row>
     <row r="91">
@@ -7923,7 +7923,7 @@
         <v>1.4</v>
       </c>
       <c r="AA91" t="n">
-        <v>8.68666666666667</v>
+        <v>-0.0106408706558393</v>
       </c>
     </row>
     <row r="92">
@@ -8004,7 +8004,7 @@
         <v>2.84</v>
       </c>
       <c r="AA92" t="n">
-        <v>8.52</v>
+        <v>-0.0106408706558393</v>
       </c>
     </row>
     <row r="93">
@@ -8063,7 +8063,7 @@
         <v>0</v>
       </c>
       <c r="AA93" t="n">
-        <v>8.16571428571429</v>
+        <v>0.185029942143253</v>
       </c>
     </row>
     <row r="94">
@@ -8146,7 +8146,7 @@
         <v>3</v>
       </c>
       <c r="AA94" t="n">
-        <v>8.52</v>
+        <v>-0.0106408706558393</v>
       </c>
     </row>
     <row r="95">
@@ -8227,7 +8227,7 @@
         <v>3</v>
       </c>
       <c r="AA95" t="n">
-        <v>8.52</v>
+        <v>-0.0106408706558393</v>
       </c>
     </row>
     <row r="96">
@@ -8308,7 +8308,7 @@
         <v>3.28</v>
       </c>
       <c r="AA96" t="n">
-        <v>8.56842105263158</v>
+        <v>-0.0106408706558393</v>
       </c>
     </row>
     <row r="97">
@@ -8391,7 +8391,7 @@
         <v>1.48</v>
       </c>
       <c r="AA97" t="n">
-        <v>8.76736842105263</v>
+        <v>-0.0106408706558393</v>
       </c>
     </row>
     <row r="98">
@@ -8470,7 +8470,7 @@
         <v>3.26</v>
       </c>
       <c r="AA98" t="n">
-        <v>8.6675</v>
+        <v>-0.0106408706558393</v>
       </c>
     </row>
     <row r="99">
@@ -8553,7 +8553,7 @@
         <v>1.44</v>
       </c>
       <c r="AA99" t="n">
-        <v>8.71628571428572</v>
+        <v>-0.0106408706558393</v>
       </c>
     </row>
     <row r="100">
@@ -8634,7 +8634,7 @@
         <v>3.04</v>
       </c>
       <c r="AA100" t="n">
-        <v>8.52</v>
+        <v>-0.0106408706558393</v>
       </c>
     </row>
     <row r="101">
@@ -8717,7 +8717,7 @@
         <v>3.04</v>
       </c>
       <c r="AA101" t="n">
-        <v>8.52</v>
+        <v>-0.0106408706558393</v>
       </c>
     </row>
     <row r="102">
@@ -8798,7 +8798,7 @@
         <v>3.24</v>
       </c>
       <c r="AA102" t="n">
-        <v>8.76736842105263</v>
+        <v>-0.0106408706558393</v>
       </c>
     </row>
     <row r="103">
@@ -8881,7 +8881,7 @@
         <v>3.1</v>
       </c>
       <c r="AA103" t="n">
-        <v>8.72947368421053</v>
+        <v>-0.0106408706558393</v>
       </c>
     </row>
     <row r="104">
@@ -8964,7 +8964,7 @@
         <v>1.44</v>
       </c>
       <c r="AA104" t="n">
-        <v>8.68666666666667</v>
+        <v>-0.0106408706558393</v>
       </c>
     </row>
     <row r="105">
@@ -9047,7 +9047,7 @@
         <v>1.36</v>
       </c>
       <c r="AA105" t="n">
-        <v>8.68666666666667</v>
+        <v>-0.0106408706558393</v>
       </c>
     </row>
     <row r="106">
@@ -9130,7 +9130,7 @@
         <v>1.42</v>
       </c>
       <c r="AA106" t="n">
-        <v>8.74628571428572</v>
+        <v>-0.0106408706558393</v>
       </c>
     </row>
     <row r="107">
@@ -9213,7 +9213,7 @@
         <v>1.36</v>
       </c>
       <c r="AA107" t="n">
-        <v>8.83348837209303</v>
+        <v>-0.0106408706558393</v>
       </c>
     </row>
     <row r="108">
@@ -9296,7 +9296,7 @@
         <v>1.38</v>
       </c>
       <c r="AA108" t="n">
-        <v>8.67428571428571</v>
+        <v>-0.0106408706558393</v>
       </c>
     </row>
     <row r="109">
@@ -9379,7 +9379,7 @@
         <v>1.44</v>
       </c>
       <c r="AA109" t="n">
-        <v>8.49375</v>
+        <v>-0.0106408706558393</v>
       </c>
     </row>
     <row r="110">
@@ -9462,7 +9462,7 @@
         <v>1.38</v>
       </c>
       <c r="AA110" t="n">
-        <v>8.49375</v>
+        <v>-0.0106408706558393</v>
       </c>
     </row>
     <row r="111">
@@ -9543,7 +9543,7 @@
         <v>1.5</v>
       </c>
       <c r="AA111" t="n">
-        <v>8.46285714285714</v>
+        <v>-0.0106408706558393</v>
       </c>
     </row>
     <row r="112">
@@ -9626,7 +9626,7 @@
         <v>1.34</v>
       </c>
       <c r="AA112" t="n">
-        <v>8.70740740740741</v>
+        <v>-0.0106408706558393</v>
       </c>
     </row>
     <row r="113">
@@ -9709,7 +9709,7 @@
         <v>1.34</v>
       </c>
       <c r="AA113" t="n">
-        <v>8.70740740740741</v>
+        <v>-0.0106408706558393</v>
       </c>
     </row>
     <row r="114">
@@ -9792,7 +9792,7 @@
         <v>3.08</v>
       </c>
       <c r="AA114" t="n">
-        <v>8.60571428571428</v>
+        <v>-0.0106408706558393</v>
       </c>
     </row>
     <row r="115">
@@ -9875,7 +9875,7 @@
         <v>3.04</v>
       </c>
       <c r="AA115" t="n">
-        <v>8.71628571428572</v>
+        <v>-0.0106408706558393</v>
       </c>
     </row>
     <row r="116">
@@ -9954,7 +9954,7 @@
         <v>1.26</v>
       </c>
       <c r="AA116" t="n">
-        <v>8.58571428571429</v>
+        <v>-0.0106408706558393</v>
       </c>
     </row>
     <row r="117">
@@ -10037,7 +10037,7 @@
         <v>1.38</v>
       </c>
       <c r="AA117" t="n">
-        <v>8.73444444444444</v>
+        <v>-0.0106408706558393</v>
       </c>
     </row>
     <row r="118">
@@ -10120,7 +10120,7 @@
         <v>1.4</v>
       </c>
       <c r="AA118" t="n">
-        <v>8.76222222222222</v>
+        <v>-0.0106408706558393</v>
       </c>
     </row>
     <row r="119">
@@ -10201,7 +10201,7 @@
         <v>3.16</v>
       </c>
       <c r="AA119" t="n">
-        <v>8.71628571428572</v>
+        <v>-0.0106408706558393</v>
       </c>
     </row>
     <row r="120">
@@ -10284,7 +10284,7 @@
         <v>1.36</v>
       </c>
       <c r="AA120" t="n">
-        <v>8.76222222222222</v>
+        <v>-0.0106408706558393</v>
       </c>
     </row>
     <row r="121">
@@ -10367,7 +10367,7 @@
         <v>1.44</v>
       </c>
       <c r="AA121" t="n">
-        <v>8.74628571428572</v>
+        <v>-0.0106408706558393</v>
       </c>
     </row>
     <row r="122">
@@ -10448,7 +10448,7 @@
         <v>1.46</v>
       </c>
       <c r="AA122" t="n">
-        <v>8.71628571428572</v>
+        <v>-0.559441500493019</v>
       </c>
     </row>
     <row r="123">
@@ -10531,7 +10531,7 @@
         <v>1.38</v>
       </c>
       <c r="AA123" t="n">
-        <v>8.70740740740741</v>
+        <v>-0.0106408706558393</v>
       </c>
     </row>
     <row r="124">
@@ -10614,7 +10614,7 @@
         <v>1.38</v>
       </c>
       <c r="AA124" t="n">
-        <v>8.70740740740741</v>
+        <v>-0.0106408706558393</v>
       </c>
     </row>
     <row r="125">
@@ -10697,7 +10697,7 @@
         <v>1.36</v>
       </c>
       <c r="AA125" t="n">
-        <v>8.67925925925926</v>
+        <v>-0.886773145508688</v>
       </c>
     </row>
     <row r="126">
@@ -10780,7 +10780,7 @@
         <v>1.32</v>
       </c>
       <c r="AA126" t="n">
-        <v>8.49487179487179</v>
+        <v>-0.886773145508688</v>
       </c>
     </row>
     <row r="127">
@@ -10863,7 +10863,7 @@
         <v>2.96</v>
       </c>
       <c r="AA127" t="n">
-        <v>8.4528813559322</v>
+        <v>-0.886773145508688</v>
       </c>
     </row>
     <row r="128">
@@ -10946,7 +10946,7 @@
         <v>1.46</v>
       </c>
       <c r="AA128" t="n">
-        <v>8.51555555555556</v>
+        <v>-0.886773145508688</v>
       </c>
     </row>
     <row r="129">
@@ -11027,7 +11027,7 @@
         <v>1.64</v>
       </c>
       <c r="AA129" t="n">
-        <v>8.29555555555556</v>
+        <v>-0.886773145508688</v>
       </c>
     </row>
     <row r="130">
@@ -11110,7 +11110,7 @@
         <v>3.04</v>
       </c>
       <c r="AA130" t="n">
-        <v>8.471</v>
+        <v>-0.886773145508688</v>
       </c>
     </row>
     <row r="131">
@@ -11193,7 +11193,7 @@
         <v>3.06</v>
       </c>
       <c r="AA131" t="n">
-        <v>8.471</v>
+        <v>-0.886773145508688</v>
       </c>
     </row>
     <row r="132">
@@ -11274,7 +11274,7 @@
         <v>1.22</v>
       </c>
       <c r="AA132" t="n">
-        <v>8.67925925925926</v>
+        <v>-0.886773145508688</v>
       </c>
     </row>
     <row r="133">
@@ -11355,7 +11355,7 @@
         <v>1.3</v>
       </c>
       <c r="AA133" t="n">
-        <v>8.67925925925926</v>
+        <v>-0.886773145508688</v>
       </c>
     </row>
     <row r="134">
@@ -11436,7 +11436,7 @@
         <v>3.06</v>
       </c>
       <c r="AA134" t="n">
-        <v>8.58625</v>
+        <v>-0.886773145508688</v>
       </c>
     </row>
     <row r="135">
@@ -11515,7 +11515,7 @@
         <v>1.44</v>
       </c>
       <c r="AA135" t="n">
-        <v>8.32526315789474</v>
+        <v>-0.886773145508688</v>
       </c>
     </row>
     <row r="136">
@@ -11598,7 +11598,7 @@
         <v>2.98</v>
       </c>
       <c r="AA136" t="n">
-        <v>8.4225</v>
+        <v>-0.886773145508688</v>
       </c>
     </row>
     <row r="137">
@@ -11681,7 +11681,7 @@
         <v>2.96</v>
       </c>
       <c r="AA137" t="n">
-        <v>8.53739130434783</v>
+        <v>-0.886773145508688</v>
       </c>
     </row>
     <row r="138">
@@ -11760,7 +11760,7 @@
         <v>3.02</v>
       </c>
       <c r="AA138" t="n">
-        <v>8.416</v>
+        <v>-0.235299952017758</v>
       </c>
     </row>
     <row r="139">
@@ -11841,7 +11841,7 @@
         <v>3.08</v>
       </c>
       <c r="AA139" t="n">
-        <v>8.416</v>
+        <v>-0.886773145508688</v>
       </c>
     </row>
     <row r="140">
@@ -11922,7 +11922,7 @@
         <v>3.04</v>
       </c>
       <c r="AA140" t="n">
-        <v>8.416</v>
+        <v>-0.886773145508688</v>
       </c>
     </row>
     <row r="141">
@@ -12003,7 +12003,7 @@
         <v>3.08</v>
       </c>
       <c r="AA141" t="n">
-        <v>8.416</v>
+        <v>-0.886773145508688</v>
       </c>
     </row>
     <row r="142">
@@ -12086,7 +12086,7 @@
         <v>1.34</v>
       </c>
       <c r="AA142" t="n">
-        <v>8.49487179487179</v>
+        <v>-0.886773145508688</v>
       </c>
     </row>
     <row r="143">
@@ -12169,7 +12169,7 @@
         <v>1.32</v>
       </c>
       <c r="AA143" t="n">
-        <v>8.523</v>
+        <v>-0.886773145508688</v>
       </c>
     </row>
     <row r="144">
@@ -12252,7 +12252,7 @@
         <v>1.34</v>
       </c>
       <c r="AA144" t="n">
-        <v>8.523</v>
+        <v>-0.886773145508688</v>
       </c>
     </row>
     <row r="145">
@@ -12335,7 +12335,7 @@
         <v>0</v>
       </c>
       <c r="AA145" t="n">
-        <v>8.523</v>
+        <v>0.185029942143253</v>
       </c>
     </row>
     <row r="146">
@@ -12418,7 +12418,7 @@
         <v>3.06</v>
       </c>
       <c r="AA146" t="n">
-        <v>8.272</v>
+        <v>-0.886773145508688</v>
       </c>
     </row>
     <row r="147">
@@ -12501,7 +12501,7 @@
         <v>3.1</v>
       </c>
       <c r="AA147" t="n">
-        <v>8.53739130434783</v>
+        <v>-0.886773145508688</v>
       </c>
     </row>
     <row r="148">
@@ -12584,7 +12584,7 @@
         <v>3.08</v>
       </c>
       <c r="AA148" t="n">
-        <v>8.53739130434783</v>
+        <v>-0.886773145508688</v>
       </c>
     </row>
     <row r="149">
@@ -12667,7 +12667,7 @@
         <v>1.38</v>
       </c>
       <c r="AA149" t="n">
-        <v>8.523</v>
+        <v>-0.886773145508688</v>
       </c>
     </row>
     <row r="150">
@@ -12748,7 +12748,7 @@
         <v>1.36</v>
       </c>
       <c r="AA150" t="n">
-        <v>8.322</v>
+        <v>-0.886773145508688</v>
       </c>
     </row>
     <row r="151">
@@ -12831,7 +12831,7 @@
         <v>1.36</v>
       </c>
       <c r="AA151" t="n">
-        <v>8.55882352941176</v>
+        <v>-0.886773145508688</v>
       </c>
     </row>
     <row r="152">
@@ -12914,7 +12914,7 @@
         <v>1.3</v>
       </c>
       <c r="AA152" t="n">
-        <v>8.55882352941176</v>
+        <v>-0.886773145508688</v>
       </c>
     </row>
     <row r="153">
@@ -12997,7 +12997,7 @@
         <v>1.42</v>
       </c>
       <c r="AA153" t="n">
-        <v>8.44363636363637</v>
+        <v>-0.886773145508688</v>
       </c>
     </row>
     <row r="154">
@@ -13080,7 +13080,7 @@
         <v>2.98</v>
       </c>
       <c r="AA154" t="n">
-        <v>8.44363636363637</v>
+        <v>-0.886773145508688</v>
       </c>
     </row>
     <row r="155">
@@ -13163,7 +13163,7 @@
         <v>1.32</v>
       </c>
       <c r="AA155" t="n">
-        <v>8.56</v>
+        <v>-0.886773145508688</v>
       </c>
     </row>
     <row r="156">
@@ -13246,7 +13246,7 @@
         <v>1.68</v>
       </c>
       <c r="AA156" t="n">
-        <v>8.44363636363637</v>
+        <v>-0.886773145508688</v>
       </c>
     </row>
     <row r="157">
@@ -13329,7 +13329,7 @@
         <v>1.66</v>
       </c>
       <c r="AA157" t="n">
-        <v>8.44363636363637</v>
+        <v>-0.886773145508688</v>
       </c>
     </row>
     <row r="158">
@@ -13412,7 +13412,7 @@
         <v>1.72</v>
       </c>
       <c r="AA158" t="n">
-        <v>8.44363636363637</v>
+        <v>-0.886773145508688</v>
       </c>
     </row>
     <row r="159">
@@ -13495,7 +13495,7 @@
         <v>1.36</v>
       </c>
       <c r="AA159" t="n">
-        <v>8.50333333333333</v>
+        <v>-0.886773145508688</v>
       </c>
     </row>
     <row r="160">
@@ -13578,7 +13578,7 @@
         <v>1.32</v>
       </c>
       <c r="AA160" t="n">
-        <v>8.56</v>
+        <v>-0.886773145508688</v>
       </c>
     </row>
     <row r="161">
@@ -13661,7 +13661,7 @@
         <v>1.36</v>
       </c>
       <c r="AA161" t="n">
-        <v>8.49487179487179</v>
+        <v>-0.886773145508688</v>
       </c>
     </row>
     <row r="162">
@@ -13742,7 +13742,7 @@
         <v>1.3</v>
       </c>
       <c r="AA162" t="n">
-        <v>8.523</v>
+        <v>0.431430224927291</v>
       </c>
     </row>
     <row r="163">
@@ -13823,7 +13823,7 @@
         <v>3.2</v>
       </c>
       <c r="AA163" t="n">
-        <v>8.50666666666666</v>
+        <v>-0.886773145508688</v>
       </c>
     </row>
     <row r="164">
@@ -13906,7 +13906,7 @@
         <v>1.32</v>
       </c>
       <c r="AA164" t="n">
-        <v>8.67925925925926</v>
+        <v>-0.886773145508688</v>
       </c>
     </row>
     <row r="165">
@@ -13989,7 +13989,7 @@
         <v>1.28</v>
       </c>
       <c r="AA165" t="n">
-        <v>8.523</v>
+        <v>-0.886773145508688</v>
       </c>
     </row>
     <row r="166">
@@ -14072,7 +14072,7 @@
         <v>1.3</v>
       </c>
       <c r="AA166" t="n">
-        <v>8.67925925925926</v>
+        <v>-0.886773145508688</v>
       </c>
     </row>
     <row r="167">
@@ -14153,7 +14153,7 @@
         <v>1.28</v>
       </c>
       <c r="AA167" t="n">
-        <v>8.523</v>
+        <v>-0.886773145508688</v>
       </c>
     </row>
     <row r="168">
@@ -14236,7 +14236,7 @@
         <v>1.38</v>
       </c>
       <c r="AA168" t="n">
-        <v>8.49487179487179</v>
+        <v>-0.886773145508688</v>
       </c>
     </row>
     <row r="169">
@@ -14319,7 +14319,7 @@
         <v>3.14</v>
       </c>
       <c r="AA169" t="n">
-        <v>8.76857142857143</v>
+        <v>-0.886773145508688</v>
       </c>
     </row>
     <row r="170">
@@ -14402,7 +14402,7 @@
         <v>3.2</v>
       </c>
       <c r="AA170" t="n">
-        <v>8.52666666666667</v>
+        <v>-0.886773145508688</v>
       </c>
     </row>
     <row r="171">
@@ -14485,7 +14485,7 @@
         <v>3.04</v>
       </c>
       <c r="AA171" t="n">
-        <v>8.76857142857143</v>
+        <v>-0.886773145508688</v>
       </c>
     </row>
     <row r="172">
@@ -14566,7 +14566,7 @@
         <v>1.34</v>
       </c>
       <c r="AA172" t="n">
-        <v>8.49487179487179</v>
+        <v>-0.886773145508688</v>
       </c>
     </row>
     <row r="173">
@@ -14647,7 +14647,7 @@
         <v>1.38</v>
       </c>
       <c r="AA173" t="n">
-        <v>8.49487179487179</v>
+        <v>-0.886773145508688</v>
       </c>
     </row>
     <row r="174">
@@ -14730,7 +14730,7 @@
         <v>1.44</v>
       </c>
       <c r="AA174" t="n">
-        <v>8.29285714285714</v>
+        <v>-0.886773145508688</v>
       </c>
     </row>
     <row r="175">
@@ -14813,7 +14813,7 @@
         <v>1.42</v>
       </c>
       <c r="AA175" t="n">
-        <v>8.44363636363637</v>
+        <v>-0.886773145508688</v>
       </c>
     </row>
     <row r="176">
@@ -14896,7 +14896,7 @@
         <v>1.36</v>
       </c>
       <c r="AA176" t="n">
-        <v>8.59333333333333</v>
+        <v>-0.886773145508688</v>
       </c>
     </row>
     <row r="177">
@@ -14979,7 +14979,7 @@
         <v>1.3</v>
       </c>
       <c r="AA177" t="n">
-        <v>8.67925925925926</v>
+        <v>-0.886773145508688</v>
       </c>
     </row>
     <row r="178">
@@ -15062,7 +15062,7 @@
         <v>1.42</v>
       </c>
       <c r="AA178" t="n">
-        <v>8.44363636363637</v>
+        <v>-0.886773145508688</v>
       </c>
     </row>
     <row r="179">
@@ -15145,7 +15145,7 @@
         <v>1.44</v>
       </c>
       <c r="AA179" t="n">
-        <v>8.44363636363637</v>
+        <v>-0.886773145508688</v>
       </c>
     </row>
     <row r="180">
@@ -15226,7 +15226,7 @@
         <v>3.12</v>
       </c>
       <c r="AA180" t="n">
-        <v>8.44</v>
+        <v>-0.886773145508688</v>
       </c>
     </row>
     <row r="181">
@@ -15309,7 +15309,7 @@
         <v>1.3</v>
       </c>
       <c r="AA181" t="n">
-        <v>8.4325</v>
+        <v>-0.886773145508688</v>
       </c>
     </row>
     <row r="182">
@@ -15392,7 +15392,7 @@
         <v>1.38</v>
       </c>
       <c r="AA182" t="n">
-        <v>8.50333333333333</v>
+        <v>-0.886773145508688</v>
       </c>
     </row>
     <row r="183">
@@ -15475,7 +15475,7 @@
         <v>3.2</v>
       </c>
       <c r="AA183" t="n">
-        <v>8.50666666666666</v>
+        <v>-0.886773145508688</v>
       </c>
     </row>
     <row r="184">
@@ -15558,7 +15558,7 @@
         <v>1.36</v>
       </c>
       <c r="AA184" t="n">
-        <v>8.50333333333333</v>
+        <v>-0.886773145508688</v>
       </c>
     </row>
     <row r="185">
@@ -15641,7 +15641,7 @@
         <v>1.34</v>
       </c>
       <c r="AA185" t="n">
-        <v>8.50333333333333</v>
+        <v>-0.886773145508688</v>
       </c>
     </row>
     <row r="186">
@@ -15722,7 +15722,7 @@
         <v>1.34</v>
       </c>
       <c r="AA186" t="n">
-        <v>8.50333333333333</v>
+        <v>-0.886773145508688</v>
       </c>
     </row>
     <row r="187">
@@ -15805,7 +15805,7 @@
         <v>1.56</v>
       </c>
       <c r="AA187" t="n">
-        <v>8.29285714285714</v>
+        <v>-0.886773145508688</v>
       </c>
     </row>
     <row r="188">
@@ -15888,7 +15888,7 @@
         <v>1.84</v>
       </c>
       <c r="AA188" t="n">
-        <v>8.32526315789474</v>
+        <v>-0.886773145508688</v>
       </c>
     </row>
     <row r="189">
@@ -15971,7 +15971,7 @@
         <v>3.18</v>
       </c>
       <c r="AA189" t="n">
-        <v>8.50666666666666</v>
+        <v>-0.886773145508688</v>
       </c>
     </row>
     <row r="190">
@@ -16054,7 +16054,7 @@
         <v>1.36</v>
       </c>
       <c r="AA190" t="n">
-        <v>8.50333333333333</v>
+        <v>-0.886773145508688</v>
       </c>
     </row>
     <row r="191">
@@ -16137,7 +16137,7 @@
         <v>3.08</v>
       </c>
       <c r="AA191" t="n">
-        <v>8.29285714285714</v>
+        <v>-0.886773145508688</v>
       </c>
     </row>
     <row r="192">
@@ -16220,7 +16220,7 @@
         <v>3.06</v>
       </c>
       <c r="AA192" t="n">
-        <v>8.29285714285714</v>
+        <v>-0.886773145508688</v>
       </c>
     </row>
     <row r="193">
@@ -16303,7 +16303,7 @@
         <v>1.38</v>
       </c>
       <c r="AA193" t="n">
-        <v>8.48142857142857</v>
+        <v>-0.886773145508688</v>
       </c>
     </row>
     <row r="194">
@@ -16386,7 +16386,7 @@
         <v>3.18</v>
       </c>
       <c r="AA194" t="n">
-        <v>8.50666666666666</v>
+        <v>-0.886773145508688</v>
       </c>
     </row>
     <row r="195">
@@ -16467,7 +16467,7 @@
         <v>3.22</v>
       </c>
       <c r="AA195" t="n">
-        <v>8.50666666666666</v>
+        <v>-0.886773145508688</v>
       </c>
     </row>
     <row r="196">
@@ -16550,7 +16550,7 @@
         <v>3.32</v>
       </c>
       <c r="AA196" t="n">
-        <v>8.416</v>
+        <v>-0.886773145508688</v>
       </c>
     </row>
     <row r="197">
@@ -16633,7 +16633,7 @@
         <v>1.46</v>
       </c>
       <c r="AA197" t="n">
-        <v>8.29285714285714</v>
+        <v>-0.886773145508688</v>
       </c>
     </row>
     <row r="198">
@@ -16716,7 +16716,7 @@
         <v>2.98</v>
       </c>
       <c r="AA198" t="n">
-        <v>8.29285714285714</v>
+        <v>-0.886773145508688</v>
       </c>
     </row>
     <row r="199">
@@ -16799,7 +16799,7 @@
         <v>2.92</v>
       </c>
       <c r="AA199" t="n">
-        <v>8.2775</v>
+        <v>-0.886773145508688</v>
       </c>
     </row>
     <row r="200">
@@ -16882,7 +16882,7 @@
         <v>1.42</v>
       </c>
       <c r="AA200" t="n">
-        <v>8.29285714285714</v>
+        <v>-0.886773145508688</v>
       </c>
     </row>
     <row r="201">
@@ -16965,7 +16965,7 @@
         <v>1.4</v>
       </c>
       <c r="AA201" t="n">
-        <v>8.44</v>
+        <v>-0.886773145508688</v>
       </c>
     </row>
     <row r="202">
@@ -17048,7 +17048,7 @@
         <v>3.32</v>
       </c>
       <c r="AA202" t="n">
-        <v>8.416</v>
+        <v>-0.886773145508688</v>
       </c>
     </row>
     <row r="203">
@@ -17131,7 +17131,7 @@
         <v>3.28</v>
       </c>
       <c r="AA203" t="n">
-        <v>8.50666666666666</v>
+        <v>-0.886773145508688</v>
       </c>
     </row>
     <row r="204">
@@ -17212,7 +17212,7 @@
         <v>1.4</v>
       </c>
       <c r="AA204" t="n">
-        <v>8.21846153846154</v>
+        <v>-0.886773145508688</v>
       </c>
     </row>
     <row r="205">
@@ -17295,7 +17295,7 @@
         <v>1.6</v>
       </c>
       <c r="AA205" t="n">
-        <v>8.43818181818182</v>
+        <v>-0.886773145508688</v>
       </c>
     </row>
     <row r="206">
@@ -17378,7 +17378,7 @@
         <v>1.46</v>
       </c>
       <c r="AA206" t="n">
-        <v>8.51666666666667</v>
+        <v>-0.886773145508688</v>
       </c>
     </row>
     <row r="207">
@@ -17461,7 +17461,7 @@
         <v>3.26</v>
       </c>
       <c r="AA207" t="n">
-        <v>8.50666666666666</v>
+        <v>-0.886773145508688</v>
       </c>
     </row>
     <row r="208">
@@ -17544,7 +17544,7 @@
         <v>3.26</v>
       </c>
       <c r="AA208" t="n">
-        <v>8.50666666666666</v>
+        <v>-0.886773145508688</v>
       </c>
     </row>
     <row r="209">
@@ -17625,7 +17625,7 @@
         <v>3.02</v>
       </c>
       <c r="AA209" t="n">
-        <v>8.29285714285714</v>
+        <v>-0.886773145508688</v>
       </c>
     </row>
     <row r="210">
@@ -17708,7 +17708,7 @@
         <v>1.44</v>
       </c>
       <c r="AA210" t="n">
-        <v>8.59333333333334</v>
+        <v>-0.886773145508688</v>
       </c>
     </row>
     <row r="211">
@@ -17791,7 +17791,7 @@
         <v>1.36</v>
       </c>
       <c r="AA211" t="n">
-        <v>8.322</v>
+        <v>-0.886773145508688</v>
       </c>
     </row>
     <row r="212">
@@ -17874,7 +17874,7 @@
         <v>1.5</v>
       </c>
       <c r="AA212" t="n">
-        <v>8.29285714285714</v>
+        <v>-0.886773145508688</v>
       </c>
     </row>
     <row r="213">
@@ -17957,7 +17957,7 @@
         <v>1.48</v>
       </c>
       <c r="AA213" t="n">
-        <v>8.29285714285714</v>
+        <v>-0.886773145508688</v>
       </c>
     </row>
     <row r="214">
@@ -18040,7 +18040,7 @@
         <v>1.5</v>
       </c>
       <c r="AA214" t="n">
-        <v>8.42571428571428</v>
+        <v>-0.886773145508688</v>
       </c>
     </row>
     <row r="215">
@@ -18123,7 +18123,7 @@
         <v>1.32</v>
       </c>
       <c r="AA215" t="n">
-        <v>8.33166666666667</v>
+        <v>-0.886773145508688</v>
       </c>
     </row>
     <row r="216">
@@ -18206,7 +18206,7 @@
         <v>3.26</v>
       </c>
       <c r="AA216" t="n">
-        <v>8.52857142857143</v>
+        <v>-0.886773145508688</v>
       </c>
     </row>
     <row r="217">
@@ -18289,7 +18289,7 @@
         <v>3.04</v>
       </c>
       <c r="AA217" t="n">
-        <v>8.29285714285714</v>
+        <v>-0.886773145508688</v>
       </c>
     </row>
     <row r="218">
@@ -18372,7 +18372,7 @@
         <v>1.44</v>
       </c>
       <c r="AA218" t="n">
-        <v>8.29285714285714</v>
+        <v>-0.886773145508688</v>
       </c>
     </row>
     <row r="219">
@@ -18455,7 +18455,7 @@
         <v>1.38</v>
       </c>
       <c r="AA219" t="n">
-        <v>8.33166666666667</v>
+        <v>-0.886773145508688</v>
       </c>
     </row>
     <row r="220">
@@ -18538,7 +18538,7 @@
         <v>3.38</v>
       </c>
       <c r="AA220" t="n">
-        <v>8.53757575757576</v>
+        <v>-0.886773145508688</v>
       </c>
     </row>
     <row r="221">
@@ -18621,7 +18621,7 @@
         <v>3.4</v>
       </c>
       <c r="AA221" t="n">
-        <v>8.471</v>
+        <v>-0.886773145508688</v>
       </c>
     </row>
     <row r="222">
@@ -18704,7 +18704,7 @@
         <v>1.3</v>
       </c>
       <c r="AA222" t="n">
-        <v>8.48142857142857</v>
+        <v>-0.886773145508688</v>
       </c>
     </row>
     <row r="223">
@@ -18787,7 +18787,7 @@
         <v>1.36</v>
       </c>
       <c r="AA223" t="n">
-        <v>8.54727272727273</v>
+        <v>-0.886773145508688</v>
       </c>
     </row>
     <row r="224">
@@ -18870,7 +18870,7 @@
         <v>1.36</v>
       </c>
       <c r="AA224" t="n">
-        <v>8.54727272727273</v>
+        <v>-0.886773145508688</v>
       </c>
     </row>
     <row r="225">
@@ -18953,7 +18953,7 @@
         <v>1.82</v>
       </c>
       <c r="AA225" t="n">
-        <v>8.29555555555556</v>
+        <v>-0.886773145508688</v>
       </c>
     </row>
     <row r="226">
@@ -19036,7 +19036,7 @@
         <v>3.42</v>
       </c>
       <c r="AA226" t="n">
-        <v>8.62717948717949</v>
+        <v>-0.886773145508688</v>
       </c>
     </row>
     <row r="227">
@@ -19119,7 +19119,7 @@
         <v>3.3</v>
       </c>
       <c r="AA227" t="n">
-        <v>8.39217391304348</v>
+        <v>-0.886773145508688</v>
       </c>
     </row>
     <row r="228">
@@ -19198,7 +19198,7 @@
         <v>1.44</v>
       </c>
       <c r="AA228" t="n">
-        <v>8.4528813559322</v>
+        <v>-0.235299952017758</v>
       </c>
     </row>
     <row r="229">
@@ -19281,7 +19281,7 @@
         <v>1.3</v>
       </c>
       <c r="AA229" t="n">
-        <v>8.48142857142857</v>
+        <v>-0.886773145508688</v>
       </c>
     </row>
     <row r="230">
@@ -19364,7 +19364,7 @@
         <v>1.36</v>
       </c>
       <c r="AA230" t="n">
-        <v>8.48142857142857</v>
+        <v>-0.886773145508688</v>
       </c>
     </row>
     <row r="231">
@@ -19447,7 +19447,7 @@
         <v>1.36</v>
       </c>
       <c r="AA231" t="n">
-        <v>8.48142857142857</v>
+        <v>-0.886773145508688</v>
       </c>
     </row>
     <row r="232">
@@ -19530,7 +19530,7 @@
         <v>1.36</v>
       </c>
       <c r="AA232" t="n">
-        <v>8.48142857142857</v>
+        <v>-0.886773145508688</v>
       </c>
     </row>
     <row r="233">
@@ -19611,7 +19611,7 @@
         <v>1.36</v>
       </c>
       <c r="AA233" t="n">
-        <v>8.48142857142857</v>
+        <v>-0.886773145508688</v>
       </c>
     </row>
     <row r="234">
@@ -19694,7 +19694,7 @@
         <v>1.36</v>
       </c>
       <c r="AA234" t="n">
-        <v>8.54727272727273</v>
+        <v>-0.886773145508688</v>
       </c>
     </row>
     <row r="235">
@@ -19777,7 +19777,7 @@
         <v>3.42</v>
       </c>
       <c r="AA235" t="n">
-        <v>8.53757575757576</v>
+        <v>-0.886773145508688</v>
       </c>
     </row>
     <row r="236">
@@ -19860,7 +19860,7 @@
         <v>3.38</v>
       </c>
       <c r="AA236" t="n">
-        <v>8.52833333333333</v>
+        <v>-0.886773145508688</v>
       </c>
     </row>
     <row r="237">
@@ -19943,7 +19943,7 @@
         <v>1.62</v>
       </c>
       <c r="AA237" t="n">
-        <v>8.59333333333334</v>
+        <v>-0.886773145508688</v>
       </c>
     </row>
     <row r="238">
@@ -20026,7 +20026,7 @@
         <v>1.32</v>
       </c>
       <c r="AA238" t="n">
-        <v>8.688</v>
+        <v>-0.886773145508688</v>
       </c>
     </row>
     <row r="239">
@@ -20109,7 +20109,7 @@
         <v>1.34</v>
       </c>
       <c r="AA239" t="n">
-        <v>8.688</v>
+        <v>-0.886773145508688</v>
       </c>
     </row>
     <row r="240">
@@ -20192,7 +20192,7 @@
         <v>1.5</v>
       </c>
       <c r="AA240" t="n">
-        <v>8.4528813559322</v>
+        <v>-0.886773145508688</v>
       </c>
     </row>
     <row r="241">
@@ -20275,7 +20275,7 @@
         <v>1.38</v>
       </c>
       <c r="AA241" t="n">
-        <v>8.48142857142857</v>
+        <v>-0.886773145508688</v>
       </c>
     </row>
     <row r="242">
@@ -20358,7 +20358,7 @@
         <v>1.38</v>
       </c>
       <c r="AA242" t="n">
-        <v>8.48142857142857</v>
+        <v>-0.886773145508688</v>
       </c>
     </row>
     <row r="243">
@@ -20441,7 +20441,7 @@
         <v>3.42</v>
       </c>
       <c r="AA243" t="n">
-        <v>8.53757575757576</v>
+        <v>-0.886773145508688</v>
       </c>
     </row>
     <row r="244">
@@ -20522,7 +20522,7 @@
         <v>3.42</v>
       </c>
       <c r="AA244" t="n">
-        <v>8.50666666666666</v>
+        <v>-0.886773145508688</v>
       </c>
     </row>
     <row r="245">
@@ -20605,7 +20605,7 @@
         <v>3.34</v>
       </c>
       <c r="AA245" t="n">
-        <v>8.59333333333333</v>
+        <v>-0.886773145508688</v>
       </c>
     </row>
     <row r="246">
@@ -20688,7 +20688,7 @@
         <v>1.44</v>
       </c>
       <c r="AA246" t="n">
-        <v>8.4528813559322</v>
+        <v>-0.886773145508688</v>
       </c>
     </row>
     <row r="247">
@@ -20771,7 +20771,7 @@
         <v>1.44</v>
       </c>
       <c r="AA247" t="n">
-        <v>8.4528813559322</v>
+        <v>-0.886773145508688</v>
       </c>
     </row>
     <row r="248">
@@ -20854,7 +20854,7 @@
         <v>1.46</v>
       </c>
       <c r="AA248" t="n">
-        <v>8.4528813559322</v>
+        <v>-0.886773145508688</v>
       </c>
     </row>
     <row r="249">
@@ -20937,7 +20937,7 @@
         <v>3.36</v>
       </c>
       <c r="AA249" t="n">
-        <v>8.53757575757576</v>
+        <v>-0.886773145508688</v>
       </c>
     </row>
     <row r="250">
@@ -21016,7 +21016,7 @@
         <v>3.42</v>
       </c>
       <c r="AA250" t="n">
-        <v>8.58625</v>
+        <v>-0.886773145508688</v>
       </c>
     </row>
     <row r="251">
@@ -21099,7 +21099,7 @@
         <v>1.5</v>
       </c>
       <c r="AA251" t="n">
-        <v>8.4528813559322</v>
+        <v>-0.886773145508688</v>
       </c>
     </row>
     <row r="252">
@@ -21180,7 +21180,7 @@
         <v>1.44</v>
       </c>
       <c r="AA252" t="n">
-        <v>8.4528813559322</v>
+        <v>-0.886773145508688</v>
       </c>
     </row>
     <row r="253">
@@ -21263,7 +21263,7 @@
         <v>1.48</v>
       </c>
       <c r="AA253" t="n">
-        <v>8.39217391304348</v>
+        <v>-0.886773145508688</v>
       </c>
     </row>
     <row r="254">
@@ -21342,7 +21342,7 @@
         <v>1.38</v>
       </c>
       <c r="AA254" t="n">
-        <v>8.54727272727273</v>
+        <v>0.431430224927291</v>
       </c>
     </row>
     <row r="255">
@@ -21425,7 +21425,7 @@
         <v>3.28</v>
       </c>
       <c r="AA255" t="n">
-        <v>8.52833333333333</v>
+        <v>-0.886773145508688</v>
       </c>
     </row>
     <row r="256">
@@ -21508,7 +21508,7 @@
         <v>3.32</v>
       </c>
       <c r="AA256" t="n">
-        <v>8.53757575757576</v>
+        <v>-0.886773145508688</v>
       </c>
     </row>
     <row r="257">
@@ -21585,7 +21585,7 @@
         <v>0</v>
       </c>
       <c r="AA257" t="n">
-        <v>8.688</v>
+        <v>-1.21299519172769</v>
       </c>
     </row>
     <row r="258">
@@ -21668,7 +21668,7 @@
         <v>1.52</v>
       </c>
       <c r="AA258" t="n">
-        <v>8.39217391304348</v>
+        <v>-0.886773145508688</v>
       </c>
     </row>
     <row r="259">
@@ -21751,7 +21751,7 @@
         <v>3.32</v>
       </c>
       <c r="AA259" t="n">
-        <v>8.62717948717949</v>
+        <v>-0.886773145508688</v>
       </c>
     </row>
     <row r="260">
@@ -21834,7 +21834,7 @@
         <v>1.44</v>
       </c>
       <c r="AA260" t="n">
-        <v>8.39217391304348</v>
+        <v>-0.886773145508688</v>
       </c>
     </row>
     <row r="261">
@@ -21917,7 +21917,7 @@
         <v>1.38</v>
       </c>
       <c r="AA261" t="n">
-        <v>8.48142857142857</v>
+        <v>-0.886773145508688</v>
       </c>
     </row>
     <row r="262">
@@ -22000,7 +22000,7 @@
         <v>3.3</v>
       </c>
       <c r="AA262" t="n">
-        <v>8.62717948717949</v>
+        <v>-0.886773145508688</v>
       </c>
     </row>
     <row r="263">
@@ -22083,7 +22083,7 @@
         <v>3.38</v>
       </c>
       <c r="AA263" t="n">
-        <v>8.62717948717949</v>
+        <v>-0.886773145508688</v>
       </c>
     </row>
     <row r="264">
@@ -22166,7 +22166,7 @@
         <v>1.46</v>
       </c>
       <c r="AA264" t="n">
-        <v>8.4528813559322</v>
+        <v>-0.886773145508688</v>
       </c>
     </row>
     <row r="265">
@@ -22249,7 +22249,7 @@
         <v>3.36</v>
       </c>
       <c r="AA265" t="n">
-        <v>8.62717948717949</v>
+        <v>-0.886773145508688</v>
       </c>
     </row>
     <row r="266">
@@ -22332,7 +22332,7 @@
         <v>1.62</v>
       </c>
       <c r="AA266" t="n">
-        <v>8.29555555555556</v>
+        <v>-0.886773145508688</v>
       </c>
     </row>
     <row r="267">
@@ -22415,7 +22415,7 @@
         <v>1.62</v>
       </c>
       <c r="AA267" t="n">
-        <v>8.32526315789474</v>
+        <v>-0.886773145508688</v>
       </c>
     </row>
     <row r="268">
@@ -22498,7 +22498,7 @@
         <v>1.62</v>
       </c>
       <c r="AA268" t="n">
-        <v>8.21846153846154</v>
+        <v>-0.886773145508688</v>
       </c>
     </row>
   </sheetData>

--- a/Project2/TestData.xlsx
+++ b/Project2/TestData.xlsx
@@ -600,7 +600,7 @@
         <v>1.48</v>
       </c>
       <c r="AA2" t="n">
-        <v>-0.0106408706558393</v>
+        <v>8.5375</v>
       </c>
     </row>
     <row r="3">
@@ -683,7 +683,7 @@
         <v>3.04</v>
       </c>
       <c r="AA3" t="n">
-        <v>-0.0106408706558393</v>
+        <v>8.52</v>
       </c>
     </row>
     <row r="4">
@@ -766,7 +766,7 @@
         <v>1.46</v>
       </c>
       <c r="AA4" t="n">
-        <v>-0.0106408706558393</v>
+        <v>8.535</v>
       </c>
     </row>
     <row r="5">
@@ -843,7 +843,7 @@
         <v>1.48</v>
       </c>
       <c r="AA5" t="n">
-        <v>-0.0106408706558393</v>
+        <v>8.4825</v>
       </c>
     </row>
     <row r="6">
@@ -926,7 +926,7 @@
         <v>1.46</v>
       </c>
       <c r="AA6" t="n">
-        <v>-0.0106408706558393</v>
+        <v>8.42428571428571</v>
       </c>
     </row>
     <row r="7">
@@ -1007,7 +1007,7 @@
         <v>1.44</v>
       </c>
       <c r="AA7" t="n">
-        <v>-0.0106408706558393</v>
+        <v>8.535</v>
       </c>
     </row>
     <row r="8">
@@ -1090,7 +1090,7 @@
         <v>3.02</v>
       </c>
       <c r="AA8" t="n">
-        <v>-0.0106408706558393</v>
+        <v>8.432</v>
       </c>
     </row>
     <row r="9">
@@ -1167,7 +1167,7 @@
         <v>3</v>
       </c>
       <c r="AA9" t="n">
-        <v>-0.0106408706558393</v>
+        <v>8.4825</v>
       </c>
     </row>
     <row r="10">
@@ -1250,7 +1250,7 @@
         <v>3.1</v>
       </c>
       <c r="AA10" t="n">
-        <v>-0.0106408706558393</v>
+        <v>8.39666666666667</v>
       </c>
     </row>
     <row r="11">
@@ -1331,7 +1331,7 @@
         <v>3.12</v>
       </c>
       <c r="AA11" t="n">
-        <v>-0.0106408706558393</v>
+        <v>8.4825</v>
       </c>
     </row>
     <row r="12">
@@ -1410,7 +1410,7 @@
         <v>1.38</v>
       </c>
       <c r="AA12" t="n">
-        <v>-0.0106408706558393</v>
+        <v>8.47846153846154</v>
       </c>
     </row>
     <row r="13">
@@ -1493,7 +1493,7 @@
         <v>1.42</v>
       </c>
       <c r="AA13" t="n">
-        <v>-0.0106408706558393</v>
+        <v>8.47846153846154</v>
       </c>
     </row>
     <row r="14">
@@ -1576,7 +1576,7 @@
         <v>1.46</v>
       </c>
       <c r="AA14" t="n">
-        <v>-0.0106408706558393</v>
+        <v>8.47846153846154</v>
       </c>
     </row>
     <row r="15">
@@ -1659,7 +1659,7 @@
         <v>1.44</v>
       </c>
       <c r="AA15" t="n">
-        <v>-0.0106408706558393</v>
+        <v>8.6875</v>
       </c>
     </row>
     <row r="16">
@@ -1742,7 +1742,7 @@
         <v>1.6</v>
       </c>
       <c r="AA16" t="n">
-        <v>-0.0106408706558393</v>
+        <v>8.16571428571429</v>
       </c>
     </row>
     <row r="17">
@@ -1821,7 +1821,7 @@
         <v>1.6</v>
       </c>
       <c r="AA17" t="n">
-        <v>-0.0106408706558393</v>
+        <v>8.6875</v>
       </c>
     </row>
     <row r="18">
@@ -1904,7 +1904,7 @@
         <v>1.4</v>
       </c>
       <c r="AA18" t="n">
-        <v>-0.0106408706558393</v>
+        <v>8.63125</v>
       </c>
     </row>
     <row r="19">
@@ -1987,7 +1987,7 @@
         <v>1.44</v>
       </c>
       <c r="AA19" t="n">
-        <v>-0.0106408706558393</v>
+        <v>8.45666666666667</v>
       </c>
     </row>
     <row r="20">
@@ -2070,7 +2070,7 @@
         <v>3.16</v>
       </c>
       <c r="AA20" t="n">
-        <v>-0.0106408706558393</v>
+        <v>8.4475</v>
       </c>
     </row>
     <row r="21">
@@ -2153,7 +2153,7 @@
         <v>1.46</v>
       </c>
       <c r="AA21" t="n">
-        <v>-0.0106408706558393</v>
+        <v>8.63125</v>
       </c>
     </row>
     <row r="22">
@@ -2236,7 +2236,7 @@
         <v>1.46</v>
       </c>
       <c r="AA22" t="n">
-        <v>-0.0106408706558393</v>
+        <v>8.63125</v>
       </c>
     </row>
     <row r="23">
@@ -2317,7 +2317,7 @@
         <v>1.36</v>
       </c>
       <c r="AA23" t="n">
-        <v>-0.0106408706558393</v>
+        <v>8.78266666666667</v>
       </c>
     </row>
     <row r="24">
@@ -2396,7 +2396,7 @@
         <v>3.18</v>
       </c>
       <c r="AA24" t="n">
-        <v>-0.0106408706558393</v>
+        <v>8.52</v>
       </c>
     </row>
     <row r="25">
@@ -2479,7 +2479,7 @@
         <v>1.4</v>
       </c>
       <c r="AA25" t="n">
-        <v>-0.0106408706558393</v>
+        <v>8.77818181818182</v>
       </c>
     </row>
     <row r="26">
@@ -2562,7 +2562,7 @@
         <v>1.4</v>
       </c>
       <c r="AA26" t="n">
-        <v>-0.0106408706558393</v>
+        <v>8.77818181818182</v>
       </c>
     </row>
     <row r="27">
@@ -2645,7 +2645,7 @@
         <v>1.4</v>
       </c>
       <c r="AA27" t="n">
-        <v>-0.0106408706558393</v>
+        <v>8.532</v>
       </c>
     </row>
     <row r="28">
@@ -2728,7 +2728,7 @@
         <v>1.52</v>
       </c>
       <c r="AA28" t="n">
-        <v>-0.0106408706558393</v>
+        <v>8.532</v>
       </c>
     </row>
     <row r="29">
@@ -2811,7 +2811,7 @@
         <v>3.28</v>
       </c>
       <c r="AA29" t="n">
-        <v>-0.0106408706558393</v>
+        <v>8.65789473684211</v>
       </c>
     </row>
     <row r="30">
@@ -2892,7 +2892,7 @@
         <v>3.24</v>
       </c>
       <c r="AA30" t="n">
-        <v>-0.0106408706558393</v>
+        <v>8.65789473684211</v>
       </c>
     </row>
     <row r="31">
@@ -2975,7 +2975,7 @@
         <v>3.26</v>
       </c>
       <c r="AA31" t="n">
-        <v>-0.0106408706558393</v>
+        <v>8.77818181818182</v>
       </c>
     </row>
     <row r="32">
@@ -3058,7 +3058,7 @@
         <v>3.28</v>
       </c>
       <c r="AA32" t="n">
-        <v>-0.0106408706558393</v>
+        <v>8.65789473684211</v>
       </c>
     </row>
     <row r="33">
@@ -3139,7 +3139,7 @@
         <v>3.28</v>
       </c>
       <c r="AA33" t="n">
-        <v>-0.0106408706558393</v>
+        <v>8.78266666666667</v>
       </c>
     </row>
     <row r="34">
@@ -3220,7 +3220,7 @@
         <v>1.5</v>
       </c>
       <c r="AA34" t="n">
-        <v>-0.0106408706558393</v>
+        <v>8.65789473684211</v>
       </c>
     </row>
     <row r="35">
@@ -3301,7 +3301,7 @@
         <v>1.52</v>
       </c>
       <c r="AA35" t="n">
-        <v>-0.0106408706558393</v>
+        <v>8.77818181818182</v>
       </c>
     </row>
     <row r="36">
@@ -3382,7 +3382,7 @@
         <v>1.56</v>
       </c>
       <c r="AA36" t="n">
-        <v>-0.0106408706558393</v>
+        <v>8.63125</v>
       </c>
     </row>
     <row r="37">
@@ -3465,7 +3465,7 @@
         <v>3</v>
       </c>
       <c r="AA37" t="n">
-        <v>-0.0106408706558393</v>
+        <v>8.532</v>
       </c>
     </row>
     <row r="38">
@@ -3548,7 +3548,7 @@
         <v>3.08</v>
       </c>
       <c r="AA38" t="n">
-        <v>-0.0106408706558393</v>
+        <v>8.52</v>
       </c>
     </row>
     <row r="39">
@@ -3631,7 +3631,7 @@
         <v>3.06</v>
       </c>
       <c r="AA39" t="n">
-        <v>-0.0106408706558393</v>
+        <v>8.52</v>
       </c>
     </row>
     <row r="40">
@@ -3714,7 +3714,7 @@
         <v>3.32</v>
       </c>
       <c r="AA40" t="n">
-        <v>-0.0106408706558393</v>
+        <v>8.82</v>
       </c>
     </row>
     <row r="41">
@@ -3795,7 +3795,7 @@
         <v>3.32</v>
       </c>
       <c r="AA41" t="n">
-        <v>-0.0106408706558393</v>
+        <v>8.82</v>
       </c>
     </row>
     <row r="42">
@@ -3878,7 +3878,7 @@
         <v>3.34</v>
       </c>
       <c r="AA42" t="n">
-        <v>-0.0106408706558393</v>
+        <v>8.82</v>
       </c>
     </row>
     <row r="43">
@@ -3959,7 +3959,7 @@
         <v>1.38</v>
       </c>
       <c r="AA43" t="n">
-        <v>-0.0106408706558393</v>
+        <v>8.57333333333333</v>
       </c>
     </row>
     <row r="44">
@@ -4042,7 +4042,7 @@
         <v>1.34</v>
       </c>
       <c r="AA44" t="n">
-        <v>-0.0106408706558393</v>
+        <v>8.16571428571429</v>
       </c>
     </row>
     <row r="45">
@@ -4125,7 +4125,7 @@
         <v>1.38</v>
       </c>
       <c r="AA45" t="n">
-        <v>-0.0106408706558393</v>
+        <v>8.16571428571429</v>
       </c>
     </row>
     <row r="46">
@@ -4208,7 +4208,7 @@
         <v>1.42</v>
       </c>
       <c r="AA46" t="n">
-        <v>-0.0106408706558393</v>
+        <v>8.72272727272727</v>
       </c>
     </row>
     <row r="47">
@@ -4291,7 +4291,7 @@
         <v>3.28</v>
       </c>
       <c r="AA47" t="n">
-        <v>-0.0106408706558393</v>
+        <v>8.76736842105263</v>
       </c>
     </row>
     <row r="48">
@@ -4374,7 +4374,7 @@
         <v>3.3</v>
       </c>
       <c r="AA48" t="n">
-        <v>-0.0106408706558393</v>
+        <v>8.76736842105263</v>
       </c>
     </row>
     <row r="49">
@@ -4457,7 +4457,7 @@
         <v>1.48</v>
       </c>
       <c r="AA49" t="n">
-        <v>-0.0106408706558393</v>
+        <v>8.72272727272727</v>
       </c>
     </row>
     <row r="50">
@@ -4540,7 +4540,7 @@
         <v>3.1</v>
       </c>
       <c r="AA50" t="n">
-        <v>-0.0106408706558393</v>
+        <v>8.75333333333333</v>
       </c>
     </row>
     <row r="51">
@@ -4623,7 +4623,7 @@
         <v>3.06</v>
       </c>
       <c r="AA51" t="n">
-        <v>-0.0106408706558393</v>
+        <v>8.75333333333333</v>
       </c>
     </row>
     <row r="52">
@@ -4702,7 +4702,7 @@
         <v>3.38</v>
       </c>
       <c r="AA52" t="n">
-        <v>-0.0106408706558393</v>
+        <v>8.67818181818182</v>
       </c>
     </row>
     <row r="53">
@@ -4785,7 +4785,7 @@
         <v>1.42</v>
       </c>
       <c r="AA53" t="n">
-        <v>-0.0106408706558393</v>
+        <v>8.65789473684211</v>
       </c>
     </row>
     <row r="54">
@@ -4866,7 +4866,7 @@
         <v>1.48</v>
       </c>
       <c r="AA54" t="n">
-        <v>-0.0106408706558393</v>
+        <v>8.68666666666667</v>
       </c>
     </row>
     <row r="55">
@@ -4947,7 +4947,7 @@
         <v>1.48</v>
       </c>
       <c r="AA55" t="n">
-        <v>-0.0106408706558393</v>
+        <v>8.76736842105263</v>
       </c>
     </row>
     <row r="56">
@@ -5030,7 +5030,7 @@
         <v>1.48</v>
       </c>
       <c r="AA56" t="n">
-        <v>-0.0106408706558393</v>
+        <v>8.76736842105263</v>
       </c>
     </row>
     <row r="57">
@@ -5113,7 +5113,7 @@
         <v>3.28</v>
       </c>
       <c r="AA57" t="n">
-        <v>-0.0106408706558393</v>
+        <v>8.76736842105263</v>
       </c>
     </row>
     <row r="58">
@@ -5196,7 +5196,7 @@
         <v>1.32</v>
       </c>
       <c r="AA58" t="n">
-        <v>-0.0106408706558393</v>
+        <v>8.16571428571429</v>
       </c>
     </row>
     <row r="59">
@@ -5279,7 +5279,7 @@
         <v>1.48</v>
       </c>
       <c r="AA59" t="n">
-        <v>-0.0106408706558393</v>
+        <v>8.67428571428571</v>
       </c>
     </row>
     <row r="60">
@@ -5362,7 +5362,7 @@
         <v>1.38</v>
       </c>
       <c r="AA60" t="n">
-        <v>-0.0106408706558393</v>
+        <v>8.62</v>
       </c>
     </row>
     <row r="61">
@@ -5445,7 +5445,7 @@
         <v>1.42</v>
       </c>
       <c r="AA61" t="n">
-        <v>-0.0106408706558393</v>
+        <v>8.83348837209303</v>
       </c>
     </row>
     <row r="62">
@@ -5528,7 +5528,7 @@
         <v>1.42</v>
       </c>
       <c r="AA62" t="n">
-        <v>-0.0106408706558393</v>
+        <v>8.74628571428572</v>
       </c>
     </row>
     <row r="63">
@@ -5611,7 +5611,7 @@
         <v>1.44</v>
       </c>
       <c r="AA63" t="n">
-        <v>-0.0106408706558393</v>
+        <v>8.74628571428572</v>
       </c>
     </row>
     <row r="64">
@@ -5694,7 +5694,7 @@
         <v>3.26</v>
       </c>
       <c r="AA64" t="n">
-        <v>-0.0106408706558393</v>
+        <v>8.83348837209303</v>
       </c>
     </row>
     <row r="65">
@@ -5777,7 +5777,7 @@
         <v>1.44</v>
       </c>
       <c r="AA65" t="n">
-        <v>-0.0106408706558393</v>
+        <v>8.68</v>
       </c>
     </row>
     <row r="66">
@@ -5860,7 +5860,7 @@
         <v>1.54</v>
       </c>
       <c r="AA66" t="n">
-        <v>-0.0106408706558393</v>
+        <v>8.83348837209303</v>
       </c>
     </row>
     <row r="67">
@@ -5943,7 +5943,7 @@
         <v>1.5</v>
       </c>
       <c r="AA67" t="n">
-        <v>-0.0106408706558393</v>
+        <v>8.74628571428572</v>
       </c>
     </row>
     <row r="68">
@@ -6026,7 +6026,7 @@
         <v>1.44</v>
       </c>
       <c r="AA68" t="n">
-        <v>-0.0106408706558393</v>
+        <v>8.56842105263158</v>
       </c>
     </row>
     <row r="69">
@@ -6109,7 +6109,7 @@
         <v>1.46</v>
       </c>
       <c r="AA69" t="n">
-        <v>-0.0106408706558393</v>
+        <v>8.67818181818182</v>
       </c>
     </row>
     <row r="70">
@@ -6192,7 +6192,7 @@
         <v>1.44</v>
       </c>
       <c r="AA70" t="n">
-        <v>-0.0106408706558393</v>
+        <v>8.58571428571429</v>
       </c>
     </row>
     <row r="71">
@@ -6275,7 +6275,7 @@
         <v>1.44</v>
       </c>
       <c r="AA71" t="n">
-        <v>-0.0106408706558393</v>
+        <v>8.56842105263158</v>
       </c>
     </row>
     <row r="72">
@@ -6358,7 +6358,7 @@
         <v>1.32</v>
       </c>
       <c r="AA72" t="n">
-        <v>-0.0106408706558393</v>
+        <v>8.46285714285714</v>
       </c>
     </row>
     <row r="73">
@@ -6441,7 +6441,7 @@
         <v>1.42</v>
       </c>
       <c r="AA73" t="n">
-        <v>-0.0106408706558393</v>
+        <v>8.39666666666667</v>
       </c>
     </row>
     <row r="74">
@@ -6524,7 +6524,7 @@
         <v>3.32</v>
       </c>
       <c r="AA74" t="n">
-        <v>-0.0106408706558393</v>
+        <v>8.53063829787234</v>
       </c>
     </row>
     <row r="75">
@@ -6607,7 +6607,7 @@
         <v>3.34</v>
       </c>
       <c r="AA75" t="n">
-        <v>-0.0106408706558393</v>
+        <v>8.53063829787234</v>
       </c>
     </row>
     <row r="76">
@@ -6690,7 +6690,7 @@
         <v>3.26</v>
       </c>
       <c r="AA76" t="n">
-        <v>-0.0106408706558393</v>
+        <v>8.52</v>
       </c>
     </row>
     <row r="77">
@@ -6773,7 +6773,7 @@
         <v>3.14</v>
       </c>
       <c r="AA77" t="n">
-        <v>-0.0106408706558393</v>
+        <v>8.52</v>
       </c>
     </row>
     <row r="78">
@@ -6854,7 +6854,7 @@
         <v>3.36</v>
       </c>
       <c r="AA78" t="n">
-        <v>-0.0106408706558393</v>
+        <v>8.6675</v>
       </c>
     </row>
     <row r="79">
@@ -6937,7 +6937,7 @@
         <v>1.36</v>
       </c>
       <c r="AA79" t="n">
-        <v>-0.0106408706558393</v>
+        <v>8.6025</v>
       </c>
     </row>
     <row r="80">
@@ -7020,7 +7020,7 @@
         <v>3.24</v>
       </c>
       <c r="AA80" t="n">
-        <v>-0.0106408706558393</v>
+        <v>8.76736842105263</v>
       </c>
     </row>
     <row r="81">
@@ -7103,7 +7103,7 @@
         <v>3.3</v>
       </c>
       <c r="AA81" t="n">
-        <v>-0.0106408706558393</v>
+        <v>8.78266666666667</v>
       </c>
     </row>
     <row r="82">
@@ -7186,7 +7186,7 @@
         <v>1.38</v>
       </c>
       <c r="AA82" t="n">
-        <v>-0.0106408706558393</v>
+        <v>8.78266666666667</v>
       </c>
     </row>
     <row r="83">
@@ -7269,7 +7269,7 @@
         <v>1.26</v>
       </c>
       <c r="AA83" t="n">
-        <v>-0.0106408706558393</v>
+        <v>8.76307692307692</v>
       </c>
     </row>
     <row r="84">
@@ -7352,7 +7352,7 @@
         <v>1.26</v>
       </c>
       <c r="AA84" t="n">
-        <v>-0.0106408706558393</v>
+        <v>8.76307692307692</v>
       </c>
     </row>
     <row r="85">
@@ -7435,7 +7435,7 @@
         <v>1.32</v>
       </c>
       <c r="AA85" t="n">
-        <v>-0.0106408706558393</v>
+        <v>8.76307692307692</v>
       </c>
     </row>
     <row r="86">
@@ -7510,7 +7510,7 @@
         <v>1.44</v>
       </c>
       <c r="AA86" t="n">
-        <v>-0.0106408706558393</v>
+        <v>8.83348837209303</v>
       </c>
     </row>
     <row r="87">
@@ -7591,7 +7591,7 @@
         <v>1.42</v>
       </c>
       <c r="AA87" t="n">
-        <v>-0.0106408706558393</v>
+        <v>8.71628571428572</v>
       </c>
     </row>
     <row r="88">
@@ -7674,7 +7674,7 @@
         <v>3.18</v>
       </c>
       <c r="AA88" t="n">
-        <v>-0.0106408706558393</v>
+        <v>8.76736842105263</v>
       </c>
     </row>
     <row r="89">
@@ -7757,7 +7757,7 @@
         <v>1.44</v>
       </c>
       <c r="AA89" t="n">
-        <v>-0.0106408706558393</v>
+        <v>8.70740740740741</v>
       </c>
     </row>
     <row r="90">
@@ -7840,7 +7840,7 @@
         <v>2.86</v>
       </c>
       <c r="AA90" t="n">
-        <v>-0.0106408706558393</v>
+        <v>8.76307692307692</v>
       </c>
     </row>
     <row r="91">
@@ -7923,7 +7923,7 @@
         <v>1.4</v>
       </c>
       <c r="AA91" t="n">
-        <v>-0.0106408706558393</v>
+        <v>8.68666666666667</v>
       </c>
     </row>
     <row r="92">
@@ -8004,7 +8004,7 @@
         <v>2.84</v>
       </c>
       <c r="AA92" t="n">
-        <v>-0.0106408706558393</v>
+        <v>8.52</v>
       </c>
     </row>
     <row r="93">
@@ -8063,7 +8063,7 @@
         <v>0</v>
       </c>
       <c r="AA93" t="n">
-        <v>0.185029942143253</v>
+        <v>8.16571428571429</v>
       </c>
     </row>
     <row r="94">
@@ -8146,7 +8146,7 @@
         <v>3</v>
       </c>
       <c r="AA94" t="n">
-        <v>-0.0106408706558393</v>
+        <v>8.52</v>
       </c>
     </row>
     <row r="95">
@@ -8227,7 +8227,7 @@
         <v>3</v>
       </c>
       <c r="AA95" t="n">
-        <v>-0.0106408706558393</v>
+        <v>8.52</v>
       </c>
     </row>
     <row r="96">
@@ -8308,7 +8308,7 @@
         <v>3.28</v>
       </c>
       <c r="AA96" t="n">
-        <v>-0.0106408706558393</v>
+        <v>8.56842105263158</v>
       </c>
     </row>
     <row r="97">
@@ -8391,7 +8391,7 @@
         <v>1.48</v>
       </c>
       <c r="AA97" t="n">
-        <v>-0.0106408706558393</v>
+        <v>8.76736842105263</v>
       </c>
     </row>
     <row r="98">
@@ -8470,7 +8470,7 @@
         <v>3.26</v>
       </c>
       <c r="AA98" t="n">
-        <v>-0.0106408706558393</v>
+        <v>8.6675</v>
       </c>
     </row>
     <row r="99">
@@ -8553,7 +8553,7 @@
         <v>1.44</v>
       </c>
       <c r="AA99" t="n">
-        <v>-0.0106408706558393</v>
+        <v>8.71628571428572</v>
       </c>
     </row>
     <row r="100">
@@ -8634,7 +8634,7 @@
         <v>3.04</v>
       </c>
       <c r="AA100" t="n">
-        <v>-0.0106408706558393</v>
+        <v>8.52</v>
       </c>
     </row>
     <row r="101">
@@ -8717,7 +8717,7 @@
         <v>3.04</v>
       </c>
       <c r="AA101" t="n">
-        <v>-0.0106408706558393</v>
+        <v>8.52</v>
       </c>
     </row>
     <row r="102">
@@ -8798,7 +8798,7 @@
         <v>3.24</v>
       </c>
       <c r="AA102" t="n">
-        <v>-0.0106408706558393</v>
+        <v>8.76736842105263</v>
       </c>
     </row>
     <row r="103">
@@ -8881,7 +8881,7 @@
         <v>3.1</v>
       </c>
       <c r="AA103" t="n">
-        <v>-0.0106408706558393</v>
+        <v>8.72947368421053</v>
       </c>
     </row>
     <row r="104">
@@ -8964,7 +8964,7 @@
         <v>1.44</v>
       </c>
       <c r="AA104" t="n">
-        <v>-0.0106408706558393</v>
+        <v>8.68666666666667</v>
       </c>
     </row>
     <row r="105">
@@ -9047,7 +9047,7 @@
         <v>1.36</v>
       </c>
       <c r="AA105" t="n">
-        <v>-0.0106408706558393</v>
+        <v>8.68666666666667</v>
       </c>
     </row>
     <row r="106">
@@ -9130,7 +9130,7 @@
         <v>1.42</v>
       </c>
       <c r="AA106" t="n">
-        <v>-0.0106408706558393</v>
+        <v>8.74628571428572</v>
       </c>
     </row>
     <row r="107">
@@ -9213,7 +9213,7 @@
         <v>1.36</v>
       </c>
       <c r="AA107" t="n">
-        <v>-0.0106408706558393</v>
+        <v>8.83348837209303</v>
       </c>
     </row>
     <row r="108">
@@ -9296,7 +9296,7 @@
         <v>1.38</v>
       </c>
       <c r="AA108" t="n">
-        <v>-0.0106408706558393</v>
+        <v>8.67428571428571</v>
       </c>
     </row>
     <row r="109">
@@ -9379,7 +9379,7 @@
         <v>1.44</v>
       </c>
       <c r="AA109" t="n">
-        <v>-0.0106408706558393</v>
+        <v>8.49375</v>
       </c>
     </row>
     <row r="110">
@@ -9462,7 +9462,7 @@
         <v>1.38</v>
       </c>
       <c r="AA110" t="n">
-        <v>-0.0106408706558393</v>
+        <v>8.49375</v>
       </c>
     </row>
     <row r="111">
@@ -9543,7 +9543,7 @@
         <v>1.5</v>
       </c>
       <c r="AA111" t="n">
-        <v>-0.0106408706558393</v>
+        <v>8.46285714285714</v>
       </c>
     </row>
     <row r="112">
@@ -9626,7 +9626,7 @@
         <v>1.34</v>
       </c>
       <c r="AA112" t="n">
-        <v>-0.0106408706558393</v>
+        <v>8.70740740740741</v>
       </c>
     </row>
     <row r="113">
@@ -9709,7 +9709,7 @@
         <v>1.34</v>
       </c>
       <c r="AA113" t="n">
-        <v>-0.0106408706558393</v>
+        <v>8.70740740740741</v>
       </c>
     </row>
     <row r="114">
@@ -9792,7 +9792,7 @@
         <v>3.08</v>
       </c>
       <c r="AA114" t="n">
-        <v>-0.0106408706558393</v>
+        <v>8.60571428571428</v>
       </c>
     </row>
     <row r="115">
@@ -9875,7 +9875,7 @@
         <v>3.04</v>
       </c>
       <c r="AA115" t="n">
-        <v>-0.0106408706558393</v>
+        <v>8.71628571428572</v>
       </c>
     </row>
     <row r="116">
@@ -9954,7 +9954,7 @@
         <v>1.26</v>
       </c>
       <c r="AA116" t="n">
-        <v>-0.0106408706558393</v>
+        <v>8.58571428571429</v>
       </c>
     </row>
     <row r="117">
@@ -10037,7 +10037,7 @@
         <v>1.38</v>
       </c>
       <c r="AA117" t="n">
-        <v>-0.0106408706558393</v>
+        <v>8.73444444444444</v>
       </c>
     </row>
     <row r="118">
@@ -10120,7 +10120,7 @@
         <v>1.4</v>
       </c>
       <c r="AA118" t="n">
-        <v>-0.0106408706558393</v>
+        <v>8.76222222222222</v>
       </c>
     </row>
     <row r="119">
@@ -10201,7 +10201,7 @@
         <v>3.16</v>
       </c>
       <c r="AA119" t="n">
-        <v>-0.0106408706558393</v>
+        <v>8.71628571428572</v>
       </c>
     </row>
     <row r="120">
@@ -10284,7 +10284,7 @@
         <v>1.36</v>
       </c>
       <c r="AA120" t="n">
-        <v>-0.0106408706558393</v>
+        <v>8.76222222222222</v>
       </c>
     </row>
     <row r="121">
@@ -10367,7 +10367,7 @@
         <v>1.44</v>
       </c>
       <c r="AA121" t="n">
-        <v>-0.0106408706558393</v>
+        <v>8.74628571428572</v>
       </c>
     </row>
     <row r="122">
@@ -10448,7 +10448,7 @@
         <v>1.46</v>
       </c>
       <c r="AA122" t="n">
-        <v>-0.559441500493019</v>
+        <v>8.71628571428572</v>
       </c>
     </row>
     <row r="123">
@@ -10531,7 +10531,7 @@
         <v>1.38</v>
       </c>
       <c r="AA123" t="n">
-        <v>-0.0106408706558393</v>
+        <v>8.70740740740741</v>
       </c>
     </row>
     <row r="124">
@@ -10614,7 +10614,7 @@
         <v>1.38</v>
       </c>
       <c r="AA124" t="n">
-        <v>-0.0106408706558393</v>
+        <v>8.70740740740741</v>
       </c>
     </row>
     <row r="125">
@@ -10697,7 +10697,7 @@
         <v>1.36</v>
       </c>
       <c r="AA125" t="n">
-        <v>-0.886773145508688</v>
+        <v>8.67925925925926</v>
       </c>
     </row>
     <row r="126">
@@ -10780,7 +10780,7 @@
         <v>1.32</v>
       </c>
       <c r="AA126" t="n">
-        <v>-0.886773145508688</v>
+        <v>8.49487179487179</v>
       </c>
     </row>
     <row r="127">
@@ -10863,7 +10863,7 @@
         <v>2.96</v>
       </c>
       <c r="AA127" t="n">
-        <v>-0.886773145508688</v>
+        <v>8.4528813559322</v>
       </c>
     </row>
     <row r="128">
@@ -10946,7 +10946,7 @@
         <v>1.46</v>
       </c>
       <c r="AA128" t="n">
-        <v>-0.886773145508688</v>
+        <v>8.51555555555556</v>
       </c>
     </row>
     <row r="129">
@@ -11027,7 +11027,7 @@
         <v>1.64</v>
       </c>
       <c r="AA129" t="n">
-        <v>-0.886773145508688</v>
+        <v>8.29555555555556</v>
       </c>
     </row>
     <row r="130">
@@ -11110,7 +11110,7 @@
         <v>3.04</v>
       </c>
       <c r="AA130" t="n">
-        <v>-0.886773145508688</v>
+        <v>8.471</v>
       </c>
     </row>
     <row r="131">
@@ -11193,7 +11193,7 @@
         <v>3.06</v>
       </c>
       <c r="AA131" t="n">
-        <v>-0.886773145508688</v>
+        <v>8.471</v>
       </c>
     </row>
     <row r="132">
@@ -11274,7 +11274,7 @@
         <v>1.22</v>
       </c>
       <c r="AA132" t="n">
-        <v>-0.886773145508688</v>
+        <v>8.67925925925926</v>
       </c>
     </row>
     <row r="133">
@@ -11355,7 +11355,7 @@
         <v>1.3</v>
       </c>
       <c r="AA133" t="n">
-        <v>-0.886773145508688</v>
+        <v>8.67925925925926</v>
       </c>
     </row>
     <row r="134">
@@ -11436,7 +11436,7 @@
         <v>3.06</v>
       </c>
       <c r="AA134" t="n">
-        <v>-0.886773145508688</v>
+        <v>8.58625</v>
       </c>
     </row>
     <row r="135">
@@ -11515,7 +11515,7 @@
         <v>1.44</v>
       </c>
       <c r="AA135" t="n">
-        <v>-0.886773145508688</v>
+        <v>8.32526315789474</v>
       </c>
     </row>
     <row r="136">
@@ -11598,7 +11598,7 @@
         <v>2.98</v>
       </c>
       <c r="AA136" t="n">
-        <v>-0.886773145508688</v>
+        <v>8.4225</v>
       </c>
     </row>
     <row r="137">
@@ -11681,7 +11681,7 @@
         <v>2.96</v>
       </c>
       <c r="AA137" t="n">
-        <v>-0.886773145508688</v>
+        <v>8.53739130434783</v>
       </c>
     </row>
     <row r="138">
@@ -11760,7 +11760,7 @@
         <v>3.02</v>
       </c>
       <c r="AA138" t="n">
-        <v>-0.235299952017758</v>
+        <v>8.416</v>
       </c>
     </row>
     <row r="139">
@@ -11841,7 +11841,7 @@
         <v>3.08</v>
       </c>
       <c r="AA139" t="n">
-        <v>-0.886773145508688</v>
+        <v>8.416</v>
       </c>
     </row>
     <row r="140">
@@ -11922,7 +11922,7 @@
         <v>3.04</v>
       </c>
       <c r="AA140" t="n">
-        <v>-0.886773145508688</v>
+        <v>8.416</v>
       </c>
     </row>
     <row r="141">
@@ -12003,7 +12003,7 @@
         <v>3.08</v>
       </c>
       <c r="AA141" t="n">
-        <v>-0.886773145508688</v>
+        <v>8.416</v>
       </c>
     </row>
     <row r="142">
@@ -12086,7 +12086,7 @@
         <v>1.34</v>
       </c>
       <c r="AA142" t="n">
-        <v>-0.886773145508688</v>
+        <v>8.49487179487179</v>
       </c>
     </row>
     <row r="143">
@@ -12169,7 +12169,7 @@
         <v>1.32</v>
       </c>
       <c r="AA143" t="n">
-        <v>-0.886773145508688</v>
+        <v>8.523</v>
       </c>
     </row>
     <row r="144">
@@ -12252,7 +12252,7 @@
         <v>1.34</v>
       </c>
       <c r="AA144" t="n">
-        <v>-0.886773145508688</v>
+        <v>8.523</v>
       </c>
     </row>
     <row r="145">
@@ -12335,7 +12335,7 @@
         <v>0</v>
       </c>
       <c r="AA145" t="n">
-        <v>0.185029942143253</v>
+        <v>8.523</v>
       </c>
     </row>
     <row r="146">
@@ -12418,7 +12418,7 @@
         <v>3.06</v>
       </c>
       <c r="AA146" t="n">
-        <v>-0.886773145508688</v>
+        <v>8.272</v>
       </c>
     </row>
     <row r="147">
@@ -12501,7 +12501,7 @@
         <v>3.1</v>
       </c>
       <c r="AA147" t="n">
-        <v>-0.886773145508688</v>
+        <v>8.53739130434783</v>
       </c>
     </row>
     <row r="148">
@@ -12584,7 +12584,7 @@
         <v>3.08</v>
       </c>
       <c r="AA148" t="n">
-        <v>-0.886773145508688</v>
+        <v>8.53739130434783</v>
       </c>
     </row>
     <row r="149">
@@ -12667,7 +12667,7 @@
         <v>1.38</v>
       </c>
       <c r="AA149" t="n">
-        <v>-0.886773145508688</v>
+        <v>8.523</v>
       </c>
     </row>
     <row r="150">
@@ -12748,7 +12748,7 @@
         <v>1.36</v>
       </c>
       <c r="AA150" t="n">
-        <v>-0.886773145508688</v>
+        <v>8.322</v>
       </c>
     </row>
     <row r="151">
@@ -12831,7 +12831,7 @@
         <v>1.36</v>
       </c>
       <c r="AA151" t="n">
-        <v>-0.886773145508688</v>
+        <v>8.55882352941176</v>
       </c>
     </row>
     <row r="152">
@@ -12914,7 +12914,7 @@
         <v>1.3</v>
       </c>
       <c r="AA152" t="n">
-        <v>-0.886773145508688</v>
+        <v>8.55882352941176</v>
       </c>
     </row>
     <row r="153">
@@ -12997,7 +12997,7 @@
         <v>1.42</v>
       </c>
       <c r="AA153" t="n">
-        <v>-0.886773145508688</v>
+        <v>8.44363636363637</v>
       </c>
     </row>
     <row r="154">
@@ -13080,7 +13080,7 @@
         <v>2.98</v>
       </c>
       <c r="AA154" t="n">
-        <v>-0.886773145508688</v>
+        <v>8.44363636363637</v>
       </c>
     </row>
     <row r="155">
@@ -13163,7 +13163,7 @@
         <v>1.32</v>
       </c>
       <c r="AA155" t="n">
-        <v>-0.886773145508688</v>
+        <v>8.56</v>
       </c>
     </row>
     <row r="156">
@@ -13246,7 +13246,7 @@
         <v>1.68</v>
       </c>
       <c r="AA156" t="n">
-        <v>-0.886773145508688</v>
+        <v>8.44363636363637</v>
       </c>
     </row>
     <row r="157">
@@ -13329,7 +13329,7 @@
         <v>1.66</v>
       </c>
       <c r="AA157" t="n">
-        <v>-0.886773145508688</v>
+        <v>8.44363636363637</v>
       </c>
     </row>
     <row r="158">
@@ -13412,7 +13412,7 @@
         <v>1.72</v>
       </c>
       <c r="AA158" t="n">
-        <v>-0.886773145508688</v>
+        <v>8.44363636363637</v>
       </c>
     </row>
     <row r="159">
@@ -13495,7 +13495,7 @@
         <v>1.36</v>
       </c>
       <c r="AA159" t="n">
-        <v>-0.886773145508688</v>
+        <v>8.50333333333333</v>
       </c>
     </row>
     <row r="160">
@@ -13578,7 +13578,7 @@
         <v>1.32</v>
       </c>
       <c r="AA160" t="n">
-        <v>-0.886773145508688</v>
+        <v>8.56</v>
       </c>
     </row>
     <row r="161">
@@ -13661,7 +13661,7 @@
         <v>1.36</v>
       </c>
       <c r="AA161" t="n">
-        <v>-0.886773145508688</v>
+        <v>8.49487179487179</v>
       </c>
     </row>
     <row r="162">
@@ -13742,7 +13742,7 @@
         <v>1.3</v>
       </c>
       <c r="AA162" t="n">
-        <v>0.431430224927291</v>
+        <v>8.523</v>
       </c>
     </row>
     <row r="163">
@@ -13823,7 +13823,7 @@
         <v>3.2</v>
       </c>
       <c r="AA163" t="n">
-        <v>-0.886773145508688</v>
+        <v>8.50666666666666</v>
       </c>
     </row>
     <row r="164">
@@ -13906,7 +13906,7 @@
         <v>1.32</v>
       </c>
       <c r="AA164" t="n">
-        <v>-0.886773145508688</v>
+        <v>8.67925925925926</v>
       </c>
     </row>
     <row r="165">
@@ -13989,7 +13989,7 @@
         <v>1.28</v>
       </c>
       <c r="AA165" t="n">
-        <v>-0.886773145508688</v>
+        <v>8.523</v>
       </c>
     </row>
     <row r="166">
@@ -14072,7 +14072,7 @@
         <v>1.3</v>
       </c>
       <c r="AA166" t="n">
-        <v>-0.886773145508688</v>
+        <v>8.67925925925926</v>
       </c>
     </row>
     <row r="167">
@@ -14153,7 +14153,7 @@
         <v>1.28</v>
       </c>
       <c r="AA167" t="n">
-        <v>-0.886773145508688</v>
+        <v>8.523</v>
       </c>
     </row>
     <row r="168">
@@ -14236,7 +14236,7 @@
         <v>1.38</v>
       </c>
       <c r="AA168" t="n">
-        <v>-0.886773145508688</v>
+        <v>8.49487179487179</v>
       </c>
     </row>
     <row r="169">
@@ -14319,7 +14319,7 @@
         <v>3.14</v>
       </c>
       <c r="AA169" t="n">
-        <v>-0.886773145508688</v>
+        <v>8.76857142857143</v>
       </c>
     </row>
     <row r="170">
@@ -14402,7 +14402,7 @@
         <v>3.2</v>
       </c>
       <c r="AA170" t="n">
-        <v>-0.886773145508688</v>
+        <v>8.52666666666667</v>
       </c>
     </row>
     <row r="171">
@@ -14485,7 +14485,7 @@
         <v>3.04</v>
       </c>
       <c r="AA171" t="n">
-        <v>-0.886773145508688</v>
+        <v>8.76857142857143</v>
       </c>
     </row>
     <row r="172">
@@ -14566,7 +14566,7 @@
         <v>1.34</v>
       </c>
       <c r="AA172" t="n">
-        <v>-0.886773145508688</v>
+        <v>8.49487179487179</v>
       </c>
     </row>
     <row r="173">
@@ -14647,7 +14647,7 @@
         <v>1.38</v>
       </c>
       <c r="AA173" t="n">
-        <v>-0.886773145508688</v>
+        <v>8.49487179487179</v>
       </c>
     </row>
     <row r="174">
@@ -14730,7 +14730,7 @@
         <v>1.44</v>
       </c>
       <c r="AA174" t="n">
-        <v>-0.886773145508688</v>
+        <v>8.29285714285714</v>
       </c>
     </row>
     <row r="175">
@@ -14813,7 +14813,7 @@
         <v>1.42</v>
       </c>
       <c r="AA175" t="n">
-        <v>-0.886773145508688</v>
+        <v>8.44363636363637</v>
       </c>
     </row>
     <row r="176">
@@ -14896,7 +14896,7 @@
         <v>1.36</v>
       </c>
       <c r="AA176" t="n">
-        <v>-0.886773145508688</v>
+        <v>8.59333333333333</v>
       </c>
     </row>
     <row r="177">
@@ -14979,7 +14979,7 @@
         <v>1.3</v>
       </c>
       <c r="AA177" t="n">
-        <v>-0.886773145508688</v>
+        <v>8.67925925925926</v>
       </c>
     </row>
     <row r="178">
@@ -15062,7 +15062,7 @@
         <v>1.42</v>
       </c>
       <c r="AA178" t="n">
-        <v>-0.886773145508688</v>
+        <v>8.44363636363637</v>
       </c>
     </row>
     <row r="179">
@@ -15145,7 +15145,7 @@
         <v>1.44</v>
       </c>
       <c r="AA179" t="n">
-        <v>-0.886773145508688</v>
+        <v>8.44363636363637</v>
       </c>
     </row>
     <row r="180">
@@ -15226,7 +15226,7 @@
         <v>3.12</v>
       </c>
       <c r="AA180" t="n">
-        <v>-0.886773145508688</v>
+        <v>8.44</v>
       </c>
     </row>
     <row r="181">
@@ -15309,7 +15309,7 @@
         <v>1.3</v>
       </c>
       <c r="AA181" t="n">
-        <v>-0.886773145508688</v>
+        <v>8.4325</v>
       </c>
     </row>
     <row r="182">
@@ -15392,7 +15392,7 @@
         <v>1.38</v>
       </c>
       <c r="AA182" t="n">
-        <v>-0.886773145508688</v>
+        <v>8.50333333333333</v>
       </c>
     </row>
     <row r="183">
@@ -15475,7 +15475,7 @@
         <v>3.2</v>
       </c>
       <c r="AA183" t="n">
-        <v>-0.886773145508688</v>
+        <v>8.50666666666666</v>
       </c>
     </row>
     <row r="184">
@@ -15558,7 +15558,7 @@
         <v>1.36</v>
       </c>
       <c r="AA184" t="n">
-        <v>-0.886773145508688</v>
+        <v>8.50333333333333</v>
       </c>
     </row>
     <row r="185">
@@ -15641,7 +15641,7 @@
         <v>1.34</v>
       </c>
       <c r="AA185" t="n">
-        <v>-0.886773145508688</v>
+        <v>8.50333333333333</v>
       </c>
     </row>
     <row r="186">
@@ -15722,7 +15722,7 @@
         <v>1.34</v>
       </c>
       <c r="AA186" t="n">
-        <v>-0.886773145508688</v>
+        <v>8.50333333333333</v>
       </c>
     </row>
     <row r="187">
@@ -15805,7 +15805,7 @@
         <v>1.56</v>
       </c>
       <c r="AA187" t="n">
-        <v>-0.886773145508688</v>
+        <v>8.29285714285714</v>
       </c>
     </row>
     <row r="188">
@@ -15888,7 +15888,7 @@
         <v>1.84</v>
       </c>
       <c r="AA188" t="n">
-        <v>-0.886773145508688</v>
+        <v>8.32526315789474</v>
       </c>
     </row>
     <row r="189">
@@ -15971,7 +15971,7 @@
         <v>3.18</v>
       </c>
       <c r="AA189" t="n">
-        <v>-0.886773145508688</v>
+        <v>8.50666666666666</v>
       </c>
     </row>
     <row r="190">
@@ -16054,7 +16054,7 @@
         <v>1.36</v>
       </c>
       <c r="AA190" t="n">
-        <v>-0.886773145508688</v>
+        <v>8.50333333333333</v>
       </c>
     </row>
     <row r="191">
@@ -16137,7 +16137,7 @@
         <v>3.08</v>
       </c>
       <c r="AA191" t="n">
-        <v>-0.886773145508688</v>
+        <v>8.29285714285714</v>
       </c>
     </row>
     <row r="192">
@@ -16220,7 +16220,7 @@
         <v>3.06</v>
       </c>
       <c r="AA192" t="n">
-        <v>-0.886773145508688</v>
+        <v>8.29285714285714</v>
       </c>
     </row>
     <row r="193">
@@ -16303,7 +16303,7 @@
         <v>1.38</v>
       </c>
       <c r="AA193" t="n">
-        <v>-0.886773145508688</v>
+        <v>8.48142857142857</v>
       </c>
     </row>
     <row r="194">
@@ -16386,7 +16386,7 @@
         <v>3.18</v>
       </c>
       <c r="AA194" t="n">
-        <v>-0.886773145508688</v>
+        <v>8.50666666666666</v>
       </c>
     </row>
     <row r="195">
@@ -16467,7 +16467,7 @@
         <v>3.22</v>
       </c>
       <c r="AA195" t="n">
-        <v>-0.886773145508688</v>
+        <v>8.50666666666666</v>
       </c>
     </row>
     <row r="196">
@@ -16550,7 +16550,7 @@
         <v>3.32</v>
       </c>
       <c r="AA196" t="n">
-        <v>-0.886773145508688</v>
+        <v>8.416</v>
       </c>
     </row>
     <row r="197">
@@ -16633,7 +16633,7 @@
         <v>1.46</v>
       </c>
       <c r="AA197" t="n">
-        <v>-0.886773145508688</v>
+        <v>8.29285714285714</v>
       </c>
     </row>
     <row r="198">
@@ -16716,7 +16716,7 @@
         <v>2.98</v>
       </c>
       <c r="AA198" t="n">
-        <v>-0.886773145508688</v>
+        <v>8.29285714285714</v>
       </c>
     </row>
     <row r="199">
@@ -16799,7 +16799,7 @@
         <v>2.92</v>
       </c>
       <c r="AA199" t="n">
-        <v>-0.886773145508688</v>
+        <v>8.2775</v>
       </c>
     </row>
     <row r="200">
@@ -16882,7 +16882,7 @@
         <v>1.42</v>
       </c>
       <c r="AA200" t="n">
-        <v>-0.886773145508688</v>
+        <v>8.29285714285714</v>
       </c>
     </row>
     <row r="201">
@@ -16965,7 +16965,7 @@
         <v>1.4</v>
       </c>
       <c r="AA201" t="n">
-        <v>-0.886773145508688</v>
+        <v>8.44</v>
       </c>
     </row>
     <row r="202">
@@ -17048,7 +17048,7 @@
         <v>3.32</v>
       </c>
       <c r="AA202" t="n">
-        <v>-0.886773145508688</v>
+        <v>8.416</v>
       </c>
     </row>
     <row r="203">
@@ -17131,7 +17131,7 @@
         <v>3.28</v>
       </c>
       <c r="AA203" t="n">
-        <v>-0.886773145508688</v>
+        <v>8.50666666666666</v>
       </c>
     </row>
     <row r="204">
@@ -17212,7 +17212,7 @@
         <v>1.4</v>
       </c>
       <c r="AA204" t="n">
-        <v>-0.886773145508688</v>
+        <v>8.21846153846154</v>
       </c>
     </row>
     <row r="205">
@@ -17295,7 +17295,7 @@
         <v>1.6</v>
       </c>
       <c r="AA205" t="n">
-        <v>-0.886773145508688</v>
+        <v>8.43818181818182</v>
       </c>
     </row>
     <row r="206">
@@ -17378,7 +17378,7 @@
         <v>1.46</v>
       </c>
       <c r="AA206" t="n">
-        <v>-0.886773145508688</v>
+        <v>8.51666666666667</v>
       </c>
     </row>
     <row r="207">
@@ -17461,7 +17461,7 @@
         <v>3.26</v>
       </c>
       <c r="AA207" t="n">
-        <v>-0.886773145508688</v>
+        <v>8.50666666666666</v>
       </c>
     </row>
     <row r="208">
@@ -17544,7 +17544,7 @@
         <v>3.26</v>
       </c>
       <c r="AA208" t="n">
-        <v>-0.886773145508688</v>
+        <v>8.50666666666666</v>
       </c>
     </row>
     <row r="209">
@@ -17625,7 +17625,7 @@
         <v>3.02</v>
       </c>
       <c r="AA209" t="n">
-        <v>-0.886773145508688</v>
+        <v>8.29285714285714</v>
       </c>
     </row>
     <row r="210">
@@ -17708,7 +17708,7 @@
         <v>1.44</v>
       </c>
       <c r="AA210" t="n">
-        <v>-0.886773145508688</v>
+        <v>8.59333333333334</v>
       </c>
     </row>
     <row r="211">
@@ -17791,7 +17791,7 @@
         <v>1.36</v>
       </c>
       <c r="AA211" t="n">
-        <v>-0.886773145508688</v>
+        <v>8.322</v>
       </c>
     </row>
     <row r="212">
@@ -17874,7 +17874,7 @@
         <v>1.5</v>
       </c>
       <c r="AA212" t="n">
-        <v>-0.886773145508688</v>
+        <v>8.29285714285714</v>
       </c>
     </row>
     <row r="213">
@@ -17957,7 +17957,7 @@
         <v>1.48</v>
       </c>
       <c r="AA213" t="n">
-        <v>-0.886773145508688</v>
+        <v>8.29285714285714</v>
       </c>
     </row>
     <row r="214">
@@ -18040,7 +18040,7 @@
         <v>1.5</v>
       </c>
       <c r="AA214" t="n">
-        <v>-0.886773145508688</v>
+        <v>8.42571428571428</v>
       </c>
     </row>
     <row r="215">
@@ -18123,7 +18123,7 @@
         <v>1.32</v>
       </c>
       <c r="AA215" t="n">
-        <v>-0.886773145508688</v>
+        <v>8.33166666666667</v>
       </c>
     </row>
     <row r="216">
@@ -18206,7 +18206,7 @@
         <v>3.26</v>
       </c>
       <c r="AA216" t="n">
-        <v>-0.886773145508688</v>
+        <v>8.52857142857143</v>
       </c>
     </row>
     <row r="217">
@@ -18289,7 +18289,7 @@
         <v>3.04</v>
       </c>
       <c r="AA217" t="n">
-        <v>-0.886773145508688</v>
+        <v>8.29285714285714</v>
       </c>
     </row>
     <row r="218">
@@ -18372,7 +18372,7 @@
         <v>1.44</v>
       </c>
       <c r="AA218" t="n">
-        <v>-0.886773145508688</v>
+        <v>8.29285714285714</v>
       </c>
     </row>
     <row r="219">
@@ -18455,7 +18455,7 @@
         <v>1.38</v>
       </c>
       <c r="AA219" t="n">
-        <v>-0.886773145508688</v>
+        <v>8.33166666666667</v>
       </c>
     </row>
     <row r="220">
@@ -18538,7 +18538,7 @@
         <v>3.38</v>
       </c>
       <c r="AA220" t="n">
-        <v>-0.886773145508688</v>
+        <v>8.53757575757576</v>
       </c>
     </row>
     <row r="221">
@@ -18621,7 +18621,7 @@
         <v>3.4</v>
       </c>
       <c r="AA221" t="n">
-        <v>-0.886773145508688</v>
+        <v>8.471</v>
       </c>
     </row>
     <row r="222">
@@ -18704,7 +18704,7 @@
         <v>1.3</v>
       </c>
       <c r="AA222" t="n">
-        <v>-0.886773145508688</v>
+        <v>8.48142857142857</v>
       </c>
     </row>
     <row r="223">
@@ -18787,7 +18787,7 @@
         <v>1.36</v>
       </c>
       <c r="AA223" t="n">
-        <v>-0.886773145508688</v>
+        <v>8.54727272727273</v>
       </c>
     </row>
     <row r="224">
@@ -18870,7 +18870,7 @@
         <v>1.36</v>
       </c>
       <c r="AA224" t="n">
-        <v>-0.886773145508688</v>
+        <v>8.54727272727273</v>
       </c>
     </row>
     <row r="225">
@@ -18953,7 +18953,7 @@
         <v>1.82</v>
       </c>
       <c r="AA225" t="n">
-        <v>-0.886773145508688</v>
+        <v>8.29555555555556</v>
       </c>
     </row>
     <row r="226">
@@ -19036,7 +19036,7 @@
         <v>3.42</v>
       </c>
       <c r="AA226" t="n">
-        <v>-0.886773145508688</v>
+        <v>8.62717948717949</v>
       </c>
     </row>
     <row r="227">
@@ -19119,7 +19119,7 @@
         <v>3.3</v>
       </c>
       <c r="AA227" t="n">
-        <v>-0.886773145508688</v>
+        <v>8.39217391304348</v>
       </c>
     </row>
     <row r="228">
@@ -19198,7 +19198,7 @@
         <v>1.44</v>
       </c>
       <c r="AA228" t="n">
-        <v>-0.235299952017758</v>
+        <v>8.4528813559322</v>
       </c>
     </row>
     <row r="229">
@@ -19281,7 +19281,7 @@
         <v>1.3</v>
       </c>
       <c r="AA229" t="n">
-        <v>-0.886773145508688</v>
+        <v>8.48142857142857</v>
       </c>
     </row>
     <row r="230">
@@ -19364,7 +19364,7 @@
         <v>1.36</v>
       </c>
       <c r="AA230" t="n">
-        <v>-0.886773145508688</v>
+        <v>8.48142857142857</v>
       </c>
     </row>
     <row r="231">
@@ -19447,7 +19447,7 @@
         <v>1.36</v>
       </c>
       <c r="AA231" t="n">
-        <v>-0.886773145508688</v>
+        <v>8.48142857142857</v>
       </c>
     </row>
     <row r="232">
@@ -19530,7 +19530,7 @@
         <v>1.36</v>
       </c>
       <c r="AA232" t="n">
-        <v>-0.886773145508688</v>
+        <v>8.48142857142857</v>
       </c>
     </row>
     <row r="233">
@@ -19611,7 +19611,7 @@
         <v>1.36</v>
       </c>
       <c r="AA233" t="n">
-        <v>-0.886773145508688</v>
+        <v>8.48142857142857</v>
       </c>
     </row>
     <row r="234">
@@ -19694,7 +19694,7 @@
         <v>1.36</v>
       </c>
       <c r="AA234" t="n">
-        <v>-0.886773145508688</v>
+        <v>8.54727272727273</v>
       </c>
     </row>
     <row r="235">
@@ -19777,7 +19777,7 @@
         <v>3.42</v>
       </c>
       <c r="AA235" t="n">
-        <v>-0.886773145508688</v>
+        <v>8.53757575757576</v>
       </c>
     </row>
     <row r="236">
@@ -19860,7 +19860,7 @@
         <v>3.38</v>
       </c>
       <c r="AA236" t="n">
-        <v>-0.886773145508688</v>
+        <v>8.52833333333333</v>
       </c>
     </row>
     <row r="237">
@@ -19943,7 +19943,7 @@
         <v>1.62</v>
       </c>
       <c r="AA237" t="n">
-        <v>-0.886773145508688</v>
+        <v>8.59333333333334</v>
       </c>
     </row>
     <row r="238">
@@ -20026,7 +20026,7 @@
         <v>1.32</v>
       </c>
       <c r="AA238" t="n">
-        <v>-0.886773145508688</v>
+        <v>8.688</v>
       </c>
     </row>
     <row r="239">
@@ -20109,7 +20109,7 @@
         <v>1.34</v>
       </c>
       <c r="AA239" t="n">
-        <v>-0.886773145508688</v>
+        <v>8.688</v>
       </c>
     </row>
     <row r="240">
@@ -20192,7 +20192,7 @@
         <v>1.5</v>
       </c>
       <c r="AA240" t="n">
-        <v>-0.886773145508688</v>
+        <v>8.4528813559322</v>
       </c>
     </row>
     <row r="241">
@@ -20275,7 +20275,7 @@
         <v>1.38</v>
       </c>
       <c r="AA241" t="n">
-        <v>-0.886773145508688</v>
+        <v>8.48142857142857</v>
       </c>
     </row>
     <row r="242">
@@ -20358,7 +20358,7 @@
         <v>1.38</v>
       </c>
       <c r="AA242" t="n">
-        <v>-0.886773145508688</v>
+        <v>8.48142857142857</v>
       </c>
     </row>
     <row r="243">
@@ -20441,7 +20441,7 @@
         <v>3.42</v>
       </c>
       <c r="AA243" t="n">
-        <v>-0.886773145508688</v>
+        <v>8.53757575757576</v>
       </c>
     </row>
     <row r="244">
@@ -20522,7 +20522,7 @@
         <v>3.42</v>
       </c>
       <c r="AA244" t="n">
-        <v>-0.886773145508688</v>
+        <v>8.50666666666666</v>
       </c>
     </row>
     <row r="245">
@@ -20605,7 +20605,7 @@
         <v>3.34</v>
       </c>
       <c r="AA245" t="n">
-        <v>-0.886773145508688</v>
+        <v>8.59333333333333</v>
       </c>
     </row>
     <row r="246">
@@ -20688,7 +20688,7 @@
         <v>1.44</v>
       </c>
       <c r="AA246" t="n">
-        <v>-0.886773145508688</v>
+        <v>8.4528813559322</v>
       </c>
     </row>
     <row r="247">
@@ -20771,7 +20771,7 @@
         <v>1.44</v>
       </c>
       <c r="AA247" t="n">
-        <v>-0.886773145508688</v>
+        <v>8.4528813559322</v>
       </c>
     </row>
     <row r="248">
@@ -20854,7 +20854,7 @@
         <v>1.46</v>
       </c>
       <c r="AA248" t="n">
-        <v>-0.886773145508688</v>
+        <v>8.4528813559322</v>
       </c>
     </row>
     <row r="249">
@@ -20937,7 +20937,7 @@
         <v>3.36</v>
       </c>
       <c r="AA249" t="n">
-        <v>-0.886773145508688</v>
+        <v>8.53757575757576</v>
       </c>
     </row>
     <row r="250">
@@ -21016,7 +21016,7 @@
         <v>3.42</v>
       </c>
       <c r="AA250" t="n">
-        <v>-0.886773145508688</v>
+        <v>8.58625</v>
       </c>
     </row>
     <row r="251">
@@ -21099,7 +21099,7 @@
         <v>1.5</v>
       </c>
       <c r="AA251" t="n">
-        <v>-0.886773145508688</v>
+        <v>8.4528813559322</v>
       </c>
     </row>
     <row r="252">
@@ -21180,7 +21180,7 @@
         <v>1.44</v>
       </c>
       <c r="AA252" t="n">
-        <v>-0.886773145508688</v>
+        <v>8.4528813559322</v>
       </c>
     </row>
     <row r="253">
@@ -21263,7 +21263,7 @@
         <v>1.48</v>
       </c>
       <c r="AA253" t="n">
-        <v>-0.886773145508688</v>
+        <v>8.39217391304348</v>
       </c>
     </row>
     <row r="254">
@@ -21342,7 +21342,7 @@
         <v>1.38</v>
       </c>
       <c r="AA254" t="n">
-        <v>0.431430224927291</v>
+        <v>8.54727272727273</v>
       </c>
     </row>
     <row r="255">
@@ -21425,7 +21425,7 @@
         <v>3.28</v>
       </c>
       <c r="AA255" t="n">
-        <v>-0.886773145508688</v>
+        <v>8.52833333333333</v>
       </c>
     </row>
     <row r="256">
@@ -21508,7 +21508,7 @@
         <v>3.32</v>
       </c>
       <c r="AA256" t="n">
-        <v>-0.886773145508688</v>
+        <v>8.53757575757576</v>
       </c>
     </row>
     <row r="257">
@@ -21585,7 +21585,7 @@
         <v>0</v>
       </c>
       <c r="AA257" t="n">
-        <v>-1.21299519172769</v>
+        <v>8.688</v>
       </c>
     </row>
     <row r="258">
@@ -21668,7 +21668,7 @@
         <v>1.52</v>
       </c>
       <c r="AA258" t="n">
-        <v>-0.886773145508688</v>
+        <v>8.39217391304348</v>
       </c>
     </row>
     <row r="259">
@@ -21751,7 +21751,7 @@
         <v>3.32</v>
       </c>
       <c r="AA259" t="n">
-        <v>-0.886773145508688</v>
+        <v>8.62717948717949</v>
       </c>
     </row>
     <row r="260">
@@ -21834,7 +21834,7 @@
         <v>1.44</v>
       </c>
       <c r="AA260" t="n">
-        <v>-0.886773145508688</v>
+        <v>8.39217391304348</v>
       </c>
     </row>
     <row r="261">
@@ -21917,7 +21917,7 @@
         <v>1.38</v>
       </c>
       <c r="AA261" t="n">
-        <v>-0.886773145508688</v>
+        <v>8.48142857142857</v>
       </c>
     </row>
     <row r="262">
@@ -22000,7 +22000,7 @@
         <v>3.3</v>
       </c>
       <c r="AA262" t="n">
-        <v>-0.886773145508688</v>
+        <v>8.62717948717949</v>
       </c>
     </row>
     <row r="263">
@@ -22083,7 +22083,7 @@
         <v>3.38</v>
       </c>
       <c r="AA263" t="n">
-        <v>-0.886773145508688</v>
+        <v>8.62717948717949</v>
       </c>
     </row>
     <row r="264">
@@ -22166,7 +22166,7 @@
         <v>1.46</v>
       </c>
       <c r="AA264" t="n">
-        <v>-0.886773145508688</v>
+        <v>8.4528813559322</v>
       </c>
     </row>
     <row r="265">
@@ -22249,7 +22249,7 @@
         <v>3.36</v>
       </c>
       <c r="AA265" t="n">
-        <v>-0.886773145508688</v>
+        <v>8.62717948717949</v>
       </c>
     </row>
     <row r="266">
@@ -22332,7 +22332,7 @@
         <v>1.62</v>
       </c>
       <c r="AA266" t="n">
-        <v>-0.886773145508688</v>
+        <v>8.29555555555556</v>
       </c>
     </row>
     <row r="267">
@@ -22415,7 +22415,7 @@
         <v>1.62</v>
       </c>
       <c r="AA267" t="n">
-        <v>-0.886773145508688</v>
+        <v>8.32526315789474</v>
       </c>
     </row>
     <row r="268">
@@ -22498,7 +22498,7 @@
         <v>1.62</v>
       </c>
       <c r="AA268" t="n">
-        <v>-0.886773145508688</v>
+        <v>8.21846153846154</v>
       </c>
     </row>
   </sheetData>
